--- a/hardware/manufacture/reDIP-sx-BOM.xlsx
+++ b/hardware/manufacture/reDIP-sx-BOM.xlsx
@@ -7,22 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="reDIP-kicost. " sheetId="1" r:id="rId1"/>
+    <sheet name="reDIP-sx-kicost. " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="arrow_part_data">'reDIP-kicost. '!$K$5:$O$39</definedName>
-    <definedName name="BoardQty">'reDIP-kicost. '!$J$1</definedName>
-    <definedName name="digikey_part_data">'reDIP-kicost. '!$P$5:$T$39</definedName>
-    <definedName name="farnell_part_data">'reDIP-kicost. '!$U$5:$Y$39</definedName>
-    <definedName name="global_part_data">'reDIP-kicost. '!$A$5:$J$39</definedName>
-    <definedName name="lcsc_part_data">'reDIP-kicost. '!$Z$5:$AD$39</definedName>
-    <definedName name="mouser_part_data">'reDIP-kicost. '!$AE$5:$AI$39</definedName>
-    <definedName name="newark_part_data">'reDIP-kicost. '!$AJ$5:$AN$39</definedName>
-    <definedName name="PURCHASE_DESCRIPTION">'reDIP-kicost. '!$J$42</definedName>
-    <definedName name="rs_part_data">'reDIP-kicost. '!$AO$5:$AS$39</definedName>
-    <definedName name="tme_part_data">'reDIP-kicost. '!$AT$5:$AX$39</definedName>
-    <definedName name="TotalCost">'reDIP-kicost. '!$J$3</definedName>
-    <definedName name="USD_GBP">'reDIP-kicost. '!$C$42</definedName>
+    <definedName name="arrow_part_data">'reDIP-sx-kicost. '!$K$5:$O$39</definedName>
+    <definedName name="BoardQty">'reDIP-sx-kicost. '!$J$1</definedName>
+    <definedName name="digikey_part_data">'reDIP-sx-kicost. '!$P$5:$T$39</definedName>
+    <definedName name="farnell_part_data">'reDIP-sx-kicost. '!$U$5:$Y$39</definedName>
+    <definedName name="global_part_data">'reDIP-sx-kicost. '!$A$5:$J$39</definedName>
+    <definedName name="lcsc_part_data">'reDIP-sx-kicost. '!$Z$5:$AD$39</definedName>
+    <definedName name="mouser_part_data">'reDIP-sx-kicost. '!$AE$5:$AI$39</definedName>
+    <definedName name="newark_part_data">'reDIP-sx-kicost. '!$AJ$5:$AN$39</definedName>
+    <definedName name="PURCHASE_DESCRIPTION">'reDIP-sx-kicost. '!$J$42</definedName>
+    <definedName name="rs_part_data">'reDIP-sx-kicost. '!$AO$5:$AS$39</definedName>
+    <definedName name="tme_part_data">'reDIP-sx-kicost. '!$AT$5:$AX$39</definedName>
+    <definedName name="TotalCost">'reDIP-sx-kicost. '!$J$3</definedName>
+    <definedName name="USD_GBP">'reDIP-sx-kicost. '!$C$42</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -901,7 +901,7 @@
   Qty  -  Unit£  -  Ext£
 ================
      1   £1.10      £1.10
-    10   £1.10     £11.00
+    10   £1.04     £10.40
     50   £1.01     £50.50
    100   £0.87     £87.20
    250   £0.76    £191.25
@@ -915,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL7" authorId="0">
+    <comment ref="AG7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -927,12 +927,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.55      $0.55
-    25   $0.55     $13.65
-   100   $0.55     $54.60
-   250   $0.55    $136.50
-   500   $0.55    $273.00
-  1000   $0.55    $546.00</t>
+     1   $1.61      $1.61
+    10   $1.37     $13.70
+    50   $1.37     $68.50
+   100   $1.10    $110.00
+  1000   $0.76    $757.00
+ 10000   $0.68  $6,820.00</t>
         </r>
       </text>
     </comment>
@@ -981,7 +981,20 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-  1800   $0.82  $1,480.70</t>
+  1800   $0.85  $1,521.38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -1027,6 +1040,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="AG8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.23      $0.23
+    10   $0.16      $1.59
+    50   $0.16      $7.95
+   100   $0.09      $8.90
+  1000   $0.06     $55.00
+ 10000   $0.04    $430.00</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R9" authorId="0">
       <text>
         <r>
@@ -1092,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ9" authorId="0">
+    <comment ref="AE9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL9" authorId="0">
+    <comment ref="AG9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1117,9 +1151,43 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.05      $0.49
-    25   $0.03      $0.78
-    50   $0.02      $1.10
+     1   $0.10      $0.10
+    10   $0.05      $0.51
+    50   $0.05      $2.55
+   100   $0.02      $2.20
+  1000   $0.01     $12.00
+ 10000   $0.01     $90.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+    10   $0.05      $0.51
+    25   $0.03      $0.83
+    50   $0.02      $1.15
    100   $0.02      $1.70
    250   $0.01      $3.25</t>
         </r>
@@ -1201,29 +1269,16 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    20   $0.02      $0.33
-   200   $0.01      $2.40
-   600   $0.01      $6.72
-  2000   $0.01     $20.80
- 10000   $0.01    $100.00
- 20000   $0.01    $198.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL10" authorId="0">
+    20   $0.02      $0.35
+   200   $0.01      $2.62
+   600   $0.01      $7.38
+  2000   $0.01     $23.00
+ 10000   $0.01    $111.00
+ 20000   $0.01    $218.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1235,15 +1290,49 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.35      $3.51
-    25   $0.32      $8.05
-    50   $0.22     $10.95
-   100   $0.18     $18.10
-   250   $0.15     $38.00
- 15000   $0.09  $1,320.00
- 30000   $0.07  $2,160.00
- 60000   $0.06  $3,720.00
- 90000   $0.06  $5,220.00</t>
+     1   $0.26      $0.26
+    10   $0.12      $1.21
+    50   $0.12      $6.05
+   100   $0.10      $9.70
+  1000   $0.06     $60.00
+ 10000   $0.05    $510.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+    10   $0.36      $3.56
+    25   $0.33      $8.15
+    50   $0.22     $11.10
+   100   $0.18     $18.40
+   250   $0.15     $38.50
+ 15000   $0.09  $1,365.00
+ 30000   $0.08  $2,250.00
+ 60000   $0.06  $3,900.00
+ 90000   $0.06  $5,400.00</t>
         </r>
       </text>
     </comment>
@@ -1324,29 +1413,16 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-   100   $0.00      $0.16
+   100   $0.00      $0.17
   1000   $0.00      $1.20
   3000   $0.00      $3.30
  10000   $0.00     $10.00
  50000   $0.00     $50.00
-100000   $0.00     $90.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL11" authorId="0">
+100000   $0.00    $100.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1358,11 +1434,44 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.02      $0.18
-    25   $0.01      $0.27
-    50   $0.01      $0.40
-   100   $0.01      $0.60
-   250   $0.00      $1.25</t>
+     1   $0.10      $0.10
+    10   $0.03      $0.27
+    50   $0.03      $1.35
+   100   $0.01      $1.10
+  1000   $0.01      $6.00
+ 10000   $0.00     $50.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+    10   $0.02      $0.15
+    25   $0.01      $0.25
+    50   $0.01      $0.35
+   100   $0.00      $0.50</t>
         </r>
       </text>
     </comment>
@@ -1413,8 +1522,8 @@
    500   £0.10     £49.30
   2500   £0.08    £205.50
   5000   £0.07    £329.00
- 10000   £0.04    £355.00
- 50000   £0.03  £1,520.00</t>
+ 10000   £0.05    £548.00
+ 50000   £0.05  £2,350.00</t>
         </r>
       </text>
     </comment>
@@ -1430,29 +1539,16 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     5   $0.10      $0.52
-    50   $0.08      $3.80
-   150   $0.07     $10.62
-   500   $0.07     $32.85
-  2500   $0.06    $158.50
-  5000   $0.06    $311.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL12" authorId="0">
+     5   $0.10      $0.48
+    50   $0.07      $3.56
+   150   $0.07     $10.02
+   500   $0.06     $31.15
+  2500   $0.06    $150.75
+  5000   $0.06    $297.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1464,27 +1560,35 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.27      $2.72
-    25   $0.26      $6.48
-    50   $0.25     $12.30
-   100   $0.23     $23.30
- 10000   $0.05    $530.00
- 20000   $0.05    $920.00
- 40000   $0.04  $1,560.00
- 60000   $0.03  $1,920.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+     1   $0.47      $0.47
+    10   $0.23      $2.27
+    50   $0.23     $11.35
+   100   $0.19     $19.40
+  1000   $0.12    $123.00
+ 10000   $0.11  $1,100.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+    10   $0.23      $2.27
+    25   $0.22      $5.40
+    50   $0.20     $10.25
+   100   $0.19     $19.40
+ 10000   $0.06    $550.00
+ 20000   $0.05    $960.00
+ 40000   $0.04  $1,640.00
+ 60000   $0.03  $1,980.00</t>
         </r>
       </text>
     </comment>
@@ -1508,12 +1612,12 @@
   1000   $0.05     $46.05
   2500   $0.04    $110.10
   5000   $0.04    $200.20
- 10000   $0.04    $380.40
- 20000   $0.04    $720.80
- 30000   $0.03  $1,020.90
- 50000   $0.03  $1,601.50
-100000   $0.03  $2,703.00
-250000   $0.02  $6,005.00</t>
+ 10000   $0.03    $315.40
+ 20000   $0.03    $597.60
+ 30000   $0.03    $846.60
+ 50000   $0.03  $1,328.00
+100000   $0.02  $2,241.00
+250000   $0.02  $5,187.50</t>
         </r>
       </text>
     </comment>
@@ -1566,28 +1670,15 @@
   Qty  -  Unit$  -  Ext$
 ================
     10   $0.06      $0.57
-   100   $0.04      $4.09
-   300   $0.04     $11.43
-  1000   $0.04     $35.20
-  5000   $0.03    $169.50
- 10000   $0.03    $333.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL13" authorId="0">
+   100   $0.04      $4.14
+   300   $0.04     $11.58
+  1000   $0.04     $35.90
+  5000   $0.03    $173.00
+ 10000   $0.03    $340.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1599,14 +1690,49 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.25      $2.49
-    25   $0.22      $5.50
-    50   $0.13      $6.70
+     1   $0.22      $0.22
+    10   $0.11      $1.08
+    50   $0.11      $5.40
+   100   $0.08      $8.30
+  1000   $0.05     $49.00
+ 10000   $0.04    $380.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+    10   $0.25      $2.50
+    25   $0.22      $5.52
+    50   $0.14      $6.75
    100   $0.11     $10.90
    250   $0.09     $23.00
- 10000   $0.04    $440.00
- 20000   $0.04    $760.00
- 30000   $0.03    $930.00</t>
+ 10000   $0.05    $540.00
+ 20000   $0.05    $940.00
+ 40000   $0.04  $1,600.00
+ 60000   $0.03  $1,980.00</t>
         </r>
       </text>
     </comment>
@@ -1673,12 +1799,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    50   $0.01      $0.29
-   500   $0.00      $2.15
+    50   $0.01      $0.30
+   500   $0.00      $2.20
   1500   $0.00      $6.15
   5000   $0.00     $19.00
  25000   $0.00     $92.50
- 50000   $0.00    $180.00</t>
+ 50000   $0.00    $185.00</t>
         </r>
       </text>
     </comment>
@@ -1696,10 +1822,10 @@
 ================
      1   $0.10      $0.10
     10   $0.03      $0.34
+    50   $0.03      $1.70
    100   $0.02      $1.50
-   500   $0.01      $5.00
   1000   $0.01      $8.00
-  2500   $0.01     $17.50</t>
+ 10000   $0.01     $70.00</t>
         </r>
       </text>
     </comment>
@@ -1765,11 +1891,11 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.35      $0.35
-    10   $0.26      $2.64
+    10   $0.25      $2.48
    100   $0.13     $12.54
    500   $0.10     $51.15
   1000   $0.08     $75.90
-  2000   $0.07    $133.32
+  2000   $0.06    $127.72
   5000   $0.06    $305.25
  10000   $0.05    $528.00
  30000   $0.05  $1,554.30
@@ -1790,30 +1916,16 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     5   £0.21      £1.04
-    25   £0.14      £3.38
+     5   £0.32      £1.60
+    10   £0.21      £2.09
    100   £0.10     £10.50
-   250   £0.09     £21.82
-   500   £0.07     £34.80
-  1000   £0.05     £48.20
-  5000   £0.05    £234.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL15" authorId="0">
+   500   £0.08     £39.90
+  1000   £0.05     £48.30
+  5000   £0.05    £236.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1825,12 +1937,33 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     5   $0.35      $1.74
-    10   $0.27      $2.67
-   100   $0.15     $14.90
-   500   $0.13     $66.00
-  1000   $0.11    $114.00
-  2500   $0.10    $250.00</t>
+     1   $0.35      $0.35
+    10   $0.23      $2.31
+    50   $0.23     $11.55
+   100   $0.12     $12.50
+  1000   $0.08     $76.00
+ 10000   $0.05    $520.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     5   $0.36      $1.79
+    10   $0.28      $2.75
+   100   $0.15     $15.30
+   500   $0.14     $67.50
+  1000   $0.12    $117.00
+  2500   $0.10    $255.00</t>
         </r>
       </text>
     </comment>
@@ -1872,7 +2005,6 @@
     10   £0.41      £4.07
    100   £0.26     £25.50
    150   £0.26     £38.25
-   250   £0.24     £59.50
    500   £0.22    £110.00
   1000   £0.18    £176.00
   5000   £0.15    £765.00</t>
@@ -1896,11 +2028,11 @@
     30   $0.32      $9.64
    100   $0.30     $30.08
    500   $0.29    $145.25
-  1000   $0.29    $287.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL16" authorId="0">
+  1000   $0.29    $287.10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1912,13 +2044,34 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.27      $0.27
-    25   $0.27      $6.82
-    50   $0.27     $13.65
-   100   $0.25     $25.00
-   250   $0.23     $57.75
-   500   $0.23    $115.50
-  3000   $0.21    $618.00
+     1   $0.56      $0.56
+    10   $0.46      $4.64
+    50   $0.46     $23.20
+   100   $0.32     $32.50
+  1000   $0.24    $240.00
+ 10000   $0.19  $1,930.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.56      $0.56
+    25   $0.46     $11.60
+    50   $0.40     $19.75
+   100   $0.32     $32.50
+   250   $0.30     $75.75
+   500   $0.28    $140.50
+  3000   $0.21    $639.00
   6000   $0.20  $1,212.00
  12000   $0.19  $2,316.00
  18000   $0.19  $3,420.00
@@ -2015,9 +2168,9 @@
 ================
      1   $0.66      $0.66
     10   $0.43      $4.30
+    50   $0.43     $21.50
    100   $0.28     $28.20
   1000   $0.22    $222.00
-  2000   $0.19    $376.00
  10000   $0.18  $1,820.00</t>
         </r>
       </text>
@@ -2065,6 +2218,19 @@
     25   $0.28      $7.00
    100   $0.25     $24.80
    500   $0.22    $108.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -2094,6 +2260,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="AG18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.89      $1.89
+    10   $1.53     $15.30
+    50   $1.53     $76.50
+   100   $1.46    $146.00
+  1000   $0.92    $922.00
+ 10000   $0.83  $8,260.00</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AQ18" authorId="0">
       <text>
         <r>
@@ -2212,11 +2399,10 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     5   £0.20      £0.98
-    25   £0.14      £3.43
+     5   £0.29      £1.45
+    10   £0.20      £1.96
    100   £0.08      £7.78
-   250   £0.06     £16.22
-   500   £0.05     £26.00
+   500   £0.06     £29.25
   1000   £0.04     £39.10
   5000   £0.03    £166.00</t>
         </r>
@@ -2236,10 +2422,10 @@
 ================
      1   $0.39      $0.39
     10   $0.27      $2.68
+    50   $0.27     $13.40
    100   $0.11     $11.20
   1000   $0.08     $76.00
-  4000   $0.06    $240.00
-  8000   $0.05    $408.00</t>
+ 10000   $0.05    $510.00</t>
         </r>
       </text>
     </comment>
@@ -2319,9 +2505,9 @@
 ================
      1   $0.35      $0.35
     10   $0.24      $2.43
+    50   $0.24     $12.15
    100   $0.10     $10.20
   1000   $0.07     $69.00
-  2500   $0.05    $135.00
  10000   $0.05    $460.00</t>
         </r>
       </text>
@@ -2390,10 +2576,31 @@
 ================
     50   $0.01      $0.30
    500   $0.00      $2.25
-  1500   $0.00      $6.30
-  5000   $0.00     $19.50
- 25000   $0.00     $95.00
+  1500   $0.00      $6.45
+  5000   $0.00     $20.00
+ 25000   $0.00     $97.50
  50000   $0.00    $190.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.02      $0.15
+    50   $0.02      $0.75
+   100   $0.01      $0.60
+  1000   $0.00      $5.00
+ 10000   $0.00     $30.00</t>
         </r>
       </text>
     </comment>
@@ -2503,9 +2710,9 @@
 ================
      1   $0.10      $0.10
     10   $0.03      $0.27
+    50   $0.03      $1.35
    100   $0.01      $1.10
   1000   $0.00      $5.00
-  2500   $0.00      $7.50
  10000   $0.00     $30.00</t>
         </r>
       </text>
@@ -2577,9 +2784,9 @@
 ================
      1   $0.10      $0.10
     10   $0.02      $0.25
+    50   $0.02      $1.25
    100   $0.01      $0.80
   1000   $0.00      $5.00
-  5000   $0.00     $20.00
  10000   $0.00     $30.00</t>
         </r>
       </text>
@@ -2678,12 +2885,33 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    50   $0.02      $0.78
-   500   $0.01      $5.60
-  1500   $0.01     $15.60
-  5000   $0.01     $48.00
- 25000   $0.01    $230.00
- 50000   $0.01    $455.00</t>
+    50   $0.02      $0.88
+   500   $0.01      $6.70
+  1500   $0.01     $18.90
+  5000   $0.01     $59.00
+ 25000   $0.01    $287.50
+ 50000   $0.01    $565.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.03      $0.26
+    50   $0.03      $1.30
+   100   $0.01      $1.10
+  1000   $0.00      $5.00
+ 10000   $0.00     $30.00</t>
         </r>
       </text>
     </comment>
@@ -2783,9 +3011,9 @@
 ================
      1   $0.10      $0.10
     10   $0.03      $0.27
+    50   $0.03      $1.35
    100   $0.01      $1.10
   1000   $0.00      $5.00
-  2500   $0.00      $7.50
  10000   $0.00     $30.00</t>
         </r>
       </text>
@@ -2870,9 +3098,9 @@
 ================
     50   $0.01      $0.30
    500   $0.00      $2.25
-  1500   $0.00      $6.30
-  5000   $0.00     $19.50
- 25000   $0.00     $95.00
+  1500   $0.00      $6.45
+  5000   $0.00     $20.00
+ 25000   $0.00     $97.50
  50000   $0.00    $190.00</t>
         </r>
       </text>
@@ -2891,9 +3119,9 @@
 ================
      1   $0.10      $0.10
     10   $0.03      $0.27
+    50   $0.03      $1.35
    100   $0.01      $1.10
   1000   $0.00      $5.00
-  2500   $0.00      $7.50
  10000   $0.00     $30.00</t>
         </r>
       </text>
@@ -2927,6 +3155,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="P29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R29" authorId="0">
       <text>
         <r>
@@ -2939,16 +3180,20 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.38      $0.38
-    10   $0.31      $3.10
-    25   $0.28      $7.10
-   100   $0.19     $19.14
-   250   $0.16     $39.60
-   500   $0.15     $72.60
-  1000   $0.11    $108.90
-  2500   $0.10    $255.75
-  5000   $0.10    $478.50
- 10000   $0.09    $891.00</t>
+  3000   $0.10    $297.54</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -2964,15 +3209,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     5   £0.24      £1.22
-    10   £0.24      £2.44
-    50   £0.18      £8.95
-   100   £0.11     £11.40
-   250   £0.10     £25.50
-   500   £0.09     £44.95
-  1000   £0.08     £77.80
-  5000   £0.07    £365.00
- 10000   £0.07    £662.00</t>
+  3000   £0.06    £168.00</t>
         </r>
       </text>
     </comment>
@@ -2988,54 +3225,25 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.38      $0.38
-    10   $0.28      $2.83
-   100   $0.14     $14.50
-  1000   $0.10    $102.00
-  5000   $0.10    $475.00
- 10000   $0.09    $870.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     5   $0.38      $1.90
-    10   $0.31      $3.10
-    25   $0.28      $7.10
-    50   $0.24     $11.90
-   100   $0.19     $19.10
-   250   $0.16     $39.50
-  5000   $0.09    $435.00
- 10000   $0.08    $850.00
- 20000   $0.08  $1,680.00
- 30000   $0.08  $2,460.00
- 40000   $0.08  $3,240.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AQ29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
-================
-  5000   £0.07    £350.00</t>
+     1   $0.45      $0.45
+    10   $0.30      $3.03
+    50   $0.30     $15.15
+   100   $0.14     $14.30
+  1000   $0.11    $110.00
+ 10000   $0.08    $850.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -3100,10 +3308,10 @@
 ================
      1   $2.36      $2.36
     10   $2.00     $20.00
+    50   $2.00    $100.00
    100   $1.71    $171.00
-   250   $1.60    $400.00
-   500   $1.40    $700.00
-  1000   $1.16  $1,160.00</t>
+  1000   $1.16  $1,160.00
+ 10000   $1.03 $10,300.00</t>
         </r>
       </text>
     </comment>
@@ -3119,16 +3327,16 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.44      $0.44
-    10   $0.35      $3.53
-    25   $0.32      $8.06
-   100   $0.22     $21.75
-   250   $0.18     $45.00
-   500   $0.16     $82.50
-  1000   $0.12    $123.75
-  2500   $0.12    $290.62
-  5000   $0.11    $543.75
- 10000   $0.10  $1,012.50</t>
+     1   $0.46      $0.46
+    10   $0.38      $3.76
+    25   $0.34      $8.60
+   100   $0.23     $23.20
+   250   $0.19     $48.00
+   500   $0.18     $88.00
+  1000   $0.13    $132.00
+  3000   $0.12    $372.00
+  6000   $0.12    $696.00
+ 15000   $0.11  $1,620.00</t>
         </r>
       </text>
     </comment>
@@ -3144,32 +3352,18 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     5   £0.24      £1.17
-    10   £0.24      £2.35
-    50   £0.17      £8.60
-   100   £0.11     £10.80
-   250   £0.10     £25.50
-   500   £0.10     £47.95
-  1000   £0.09     £89.90
-  5000   £0.08    £419.00
- 10000   £0.08    £778.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL32" authorId="0">
+     5   £0.40      £2.01
+    10   £0.29      £2.94
+   100   £0.14     £13.50
+   150   £0.14     £20.25
+   500   £0.11     £55.50
+  1000   £0.09     £87.00
+  5000   £0.08    £420.00
+ 10000   £0.08    £823.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3181,18 +3375,32 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     5   $0.44      $2.20
-    10   $0.35      $3.53
-    25   $0.32      $8.05
-    50   $0.27     $13.50
-   100   $0.22     $21.70
-   250   $0.18     $45.00
-  5000   $0.17    $830.00
-  6000   $0.15    $882.00
- 10000   $0.10  $1,010.00
- 12000   $0.13  $1,596.00
- 18000   $0.12  $2,232.00
- 30000   $0.11  $3,420.00</t>
+     1   $0.46      $0.46
+    10   $0.34      $3.43
+    50   $0.34     $17.15
+   100   $0.18     $17.50
+  1000   $0.13    $131.00
+ 10000   $0.11  $1,100.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     5   $0.46      $2.30
+    10   $0.34      $3.43
+    25   $0.29      $7.18
+    50   $0.23     $11.55
+   100   $0.18     $17.50</t>
         </r>
       </text>
     </comment>
@@ -3208,7 +3416,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-  5000   £0.08    £400.00</t>
+  3000   £0.08    £255.00</t>
         </r>
       </text>
     </comment>
@@ -3238,6 +3446,35 @@
   Qty  -  Unit$  -  Ext$
 ================
   5000   $0.16    $776.25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+  5000   £0.12    £585.00</t>
         </r>
       </text>
     </comment>
@@ -3255,10 +3492,23 @@
 ================
      1   $0.50      $0.50
     10   $0.40      $4.02
+    50   $0.40     $20.10
    100   $0.32     $32.10
-   500   $0.25    $126.00
   1000   $0.20    $195.00
-  5000   $0.16    $775.00</t>
+ 10000   $0.15  $1,500.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -3280,9 +3530,21 @@
    100   $2.24    $224.22
    250   $2.01    $502.98
    500   $1.94    $969.60
-  1000   $1.61  $1,611.96
-  2500   $1.58  $3,939.00
-  5000   $1.58  $7,878.00</t>
+  1000   $1.70  $1,696.80
+  5000   $1.70  $8,484.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -3298,18 +3560,18 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     1   £2.84      £2.84
-    10   £2.13     £21.30
-    25   £2.01     £50.25
-    50   £1.88     £94.00
-   100   £1.76    £176.00
-   250   £1.58    £395.00
-   500   £1.51    £755.00
-  1000   £1.26  £1,260.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL34" authorId="0">
+     1   £2.76      £2.76
+    10   £2.07     £20.70
+    25   £1.95     £48.75
+    50   £1.83     £91.50
+   100   £1.71    £171.00
+   250   £1.53    £382.50
+   500   £1.47    £735.00
+  1000   £1.22  £1,220.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3321,14 +3583,48 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.17      $1.17
-    10   $1.17     $11.70
-    25   $1.17     $29.25
-    50   $1.17     $58.50
-   100   $1.17    $117.00
-   250   $1.17    $292.50
+     1   $3.21      $3.21
+    10   $2.72     $27.20
+    50   $2.72    $136.00
+   100   $2.24    $224.00
+  1000   $1.61  $1,610.00
+ 10000   $1.51 $15,100.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $3.21      $3.21
+    10   $2.72     $27.20
+    25   $2.56     $64.00
+    50   $2.40    $120.00
+   100   $2.24    $224.00
+   250   $2.01    $502.50
   5000   $1.48  $7,400.00
  10000   $1.45 $14,500.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -3345,6 +3641,27 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $3.20      $3.20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $3.20      $3.20
+    10   $3.20     $32.00
+    50   $3.20    $160.00
+   100   $3.20    $320.00
+  1000   $3.20  $3,200.00
+ 10000   $3.20 $32,000.00</t>
         </r>
       </text>
     </comment>
@@ -3423,16 +3740,24 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ36" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+    <comment ref="AG36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.35      $1.35
+    10   $1.35     $13.50
+    50   $1.30     $65.00
+   100   $1.25    $125.00
+  1000   $1.25  $1,250.00
+ 10000   $1.17 $11,700.00</t>
         </r>
       </text>
     </comment>
@@ -3492,6 +3817,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="AG37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.62      $0.62
+    10   $0.51      $5.11
+    50   $0.51     $25.55
+   100   $0.33     $33.00
+  1000   $0.24    $239.00
+ 10000   $0.22  $2,190.00</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AJ37" authorId="0">
       <text>
         <r>
@@ -3525,7 +3871,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="P38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $6.00      $6.00
+    25   $5.25    $131.25
+   100   $5.00    $500.50
+  2000   $5.00 $10,010.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3538,9 +3916,11 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $6.06      $6.06
-    25   $5.30    $132.56
-   100   $5.06    $505.51
-  2000   $5.00 $10,010.00</t>
+    10   $6.06     $60.60
+    50   $5.31    $265.50
+   100   $5.06    $506.00
+  1000   $5.06  $5,060.00
+ 10000   $5.05 $50,500.00</t>
         </r>
       </text>
     </comment>
@@ -3692,7 +4072,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="328">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -3918,7 +4298,7 @@
     <t>DX07S016JA3R1500</t>
   </si>
   <si>
-    <t>J5,J6</t>
+    <t>J6,J7</t>
   </si>
   <si>
     <t>Conn_01x06</t>
@@ -3936,7 +4316,7 @@
     <t>PRPC006SACN-RC</t>
   </si>
   <si>
-    <t>J7,J8</t>
+    <t>J8,J9</t>
   </si>
   <si>
     <t>Conn_01x10</t>
@@ -4011,7 +4391,7 @@
     <t>ERJ-1GNJ331C</t>
   </si>
   <si>
-    <t>R2,R3,R5,R12</t>
+    <t>R2,R3,R5</t>
   </si>
   <si>
     <t>2.2k</t>
@@ -4062,13 +4442,13 @@
     <t>U1</t>
   </si>
   <si>
-    <t>NCP163AFCT120T2G</t>
-  </si>
-  <si>
-    <t>IC REG LDO 1.2V 250mA WLCSP-4</t>
-  </si>
-  <si>
-    <t>WLCSP-4_0.64x0.64mm_Layout2x2_P0.35mm</t>
+    <t>NCP163AMX120TBG</t>
+  </si>
+  <si>
+    <t>IC REG LDO 1.2V 250mA XDFN4</t>
+  </si>
+  <si>
+    <t>CASE711AJ_1.0x1.0mm_P0.65mm</t>
   </si>
   <si>
     <t>U10</t>
@@ -4104,10 +4484,10 @@
     <t>U2</t>
   </si>
   <si>
-    <t>NCP167AFCT330T2G</t>
-  </si>
-  <si>
-    <t>IC REG LDO 3.3V 700mA WLCSP-4</t>
+    <t>NCP167AMX330TBG</t>
+  </si>
+  <si>
+    <t>IC REG LDO 3.3V 700mA XDFN4</t>
   </si>
   <si>
     <t>U3</t>
@@ -4245,7 +4625,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>sø. 29. nov. 2020 kl. 21.00 +0100</t>
+    <t>on. 30. des. 2020 kl. 23.21 +0100</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -4260,7 +4640,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2020-11-29 21:00:50</t>
+    <t>2020-12-30 23:21:51</t>
   </si>
   <si>
     <t>Arrow</t>
@@ -4284,6 +4664,9 @@
     <t>490-14594-1-ND</t>
   </si>
   <si>
+    <t>NonStk</t>
+  </si>
+  <si>
     <t>490-17002-1-ND</t>
   </si>
   <si>
@@ -4299,9 +4682,6 @@
     <t>490-13238-1-ND</t>
   </si>
   <si>
-    <t>NonStk</t>
-  </si>
-  <si>
     <t>490-10406-1-ND</t>
   </si>
   <si>
@@ -4347,7 +4727,7 @@
     <t>P123220CT-ND</t>
   </si>
   <si>
-    <t>NCP163AFCT120T2GOSCT-ND</t>
+    <t>NCP163AMX120TBG-ND</t>
   </si>
   <si>
     <t>1727-4621-1-ND</t>
@@ -4356,7 +4736,7 @@
     <t>296-6475-1-ND</t>
   </si>
   <si>
-    <t>NCP167AFCT330T2GOSCT-ND</t>
+    <t>NCP167AMX330TBGOSCT-ND</t>
   </si>
   <si>
     <t>FSA221UMXTR-ND</t>
@@ -4380,7 +4760,7 @@
     <t>Farnell</t>
   </si>
   <si>
-    <t>3498912RL</t>
+    <t>3498912</t>
   </si>
   <si>
     <t>3581321</t>
@@ -4431,10 +4811,13 @@
     <t>3303148</t>
   </si>
   <si>
-    <t>3010477</t>
-  </si>
-  <si>
-    <t>3010482</t>
+    <t>3611550</t>
+  </si>
+  <si>
+    <t>2981158</t>
+  </si>
+  <si>
+    <t>3614346</t>
   </si>
   <si>
     <t>2776032</t>
@@ -4539,13 +4922,13 @@
     <t>667ERJ1GNJ101C</t>
   </si>
   <si>
-    <t>863NCP163AFCT120T2G</t>
+    <t>863NCP163AMX120TBG</t>
   </si>
   <si>
     <t>59574CBTD16211DGVR</t>
   </si>
   <si>
-    <t>863NCP167AFCT330T2G</t>
+    <t>863NCP167AMX330TBG</t>
   </si>
   <si>
     <t>512FSA221UMX</t>
@@ -4569,7 +4952,7 @@
     <t>Newark</t>
   </si>
   <si>
-    <t>51T4020</t>
+    <t>51T4021</t>
   </si>
   <si>
     <t>92AH4925</t>
@@ -4617,10 +5000,10 @@
     <t>51W5773</t>
   </si>
   <si>
-    <t>97AC7861</t>
-  </si>
-  <si>
-    <t>97AC7864</t>
+    <t>65AC4909</t>
+  </si>
+  <si>
+    <t>84AC7230</t>
   </si>
   <si>
     <t>31AC6932</t>
@@ -4659,10 +5042,7 @@
     <t>1797101</t>
   </si>
   <si>
-    <t>1861292</t>
-  </si>
-  <si>
-    <t>1861296</t>
+    <t>1858072</t>
   </si>
   <si>
     <t>TME</t>
@@ -5466,28 +5846,28 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK5" s="13"/>
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
@@ -5685,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="17">
-        <v>6347</v>
+        <v>5366</v>
       </c>
       <c r="R7" s="18">
         <f>iferror(lookup(if(Q7="",H7,Q7),{0,1,10,25,100,250,500,1800,3600,5400,12600,45000},{0.0,1.61,1.448,1.3656,1.1636,1.0926,0.95602,0.78155,0.72765,0.7007,0.67375,0.66297}),"")</f>
@@ -5699,10 +6079,10 @@
         <v>194</v>
       </c>
       <c r="U7" s="17">
-        <v>6930</v>
+        <v>6807</v>
       </c>
       <c r="W7" s="18">
-        <f>iferror(USD_GBP*lookup(if(V7="",H7,V7),{0,1,10,50,100,250,500,1000,1800,2500,4500,9000,45000},{0.0,1.1,1.1,1.01,0.872,0.765,0.588,0.676,0.616,0.572,0.57,0.604,0.566}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V7="",H7,V7),{0,1,10,50,100,250,500,1000,1800,2500,4500,9000,45000},{0.0,1.1,1.04,1.01,0.872,0.765,0.588,0.676,0.616,0.572,0.57,0.604,0.566}),"")</f>
         <v>0</v>
       </c>
       <c r="X7" s="18">
@@ -5713,24 +6093,24 @@
         <v>228</v>
       </c>
       <c r="AE7" s="17">
-        <v>9062</v>
+        <v>10535</v>
+      </c>
+      <c r="AG7" s="18">
+        <f>iferror(lookup(if(AF7="",H7,AF7),{0,1,10,50,100,1000,10000},{0.0,1.61,1.37,1.37,1.1,0.757,0.682}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="18">
+        <f>iferror(if(AF7="",H7,AF7)*AG7,"")</f>
+        <v>0</v>
       </c>
       <c r="AI7" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AJ7" s="17">
         <v>9000</v>
       </c>
-      <c r="AL7" s="18">
-        <f>iferror(lookup(if(AK7="",H7,AK7),{0,1,25,100,250,500,1000},{0.0,0.546,0.546,0.546,0.546,0.546,0.546}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AM7" s="18">
-        <f>iferror(if(AK7="",H7,AK7)*AL7,"")</f>
-        <v>0</v>
-      </c>
       <c r="AN7" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO7" s="17">
         <v>7012</v>
@@ -5744,13 +6124,13 @@
         <v>0</v>
       </c>
       <c r="AS7" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AT7" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AV7" s="18">
-        <f>iferror(lookup(if(AU7="",H7,AU7),{0,1,1800},{0.0,0.82261,0.82261}),"")</f>
+        <f>iferror(lookup(if(AU7="",H7,AU7),{0,1,1800},{0.0,0.84521,0.84521}),"")</f>
         <v>0</v>
       </c>
       <c r="AW7" s="18">
@@ -5795,8 +6175,8 @@
         <f>iferror(H8*I8,"")</f>
         <v>0</v>
       </c>
-      <c r="P8" s="17">
-        <v>1025</v>
+      <c r="P8" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="R8" s="18">
         <f>iferror(lookup(if(Q8="",H8,Q8),{0,1,10,50,100,500,1000,2500,5000,10000,20000,30000,50000,100000,250000},{0.0,0.28,0.19,0.1138,0.0961,0.06578,0.05819,0.05566,0.0506,0.04807,0.04554,0.04301,0.04048,0.03416,0.03036}),"")</f>
@@ -5810,10 +6190,18 @@
         <v>195</v>
       </c>
       <c r="AE8" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
+      </c>
+      <c r="AG8" s="18">
+        <f>iferror(lookup(if(AF8="",H8,AF8),{0,1,10,50,100,1000,10000},{0.0,0.23,0.159,0.159,0.089,0.055,0.043}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="18">
+        <f>iferror(if(AF8="",H8,AF8)*AG8,"")</f>
+        <v>0</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -5851,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="17">
-        <v>1034</v>
+        <v>60394</v>
       </c>
       <c r="R9" s="18">
         <f>iferror(lookup(if(Q9="",H9,Q9),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,105000,150000,375000},{0.0,0.1,0.048,0.0264,0.0216,0.0154,0.0121,0.011,0.01012,0.0088,0.00836,0.00748,0.00605,0.00585,0.00528}),"")</f>
@@ -5862,10 +6250,10 @@
         <v>0</v>
       </c>
       <c r="T9" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="U9" s="20" t="s">
         <v>196</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>201</v>
       </c>
       <c r="W9" s="18">
         <f>iferror(USD_GBP*lookup(if(V9="",H9,V9),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0195,0.0195,0.0151,0.0151,0.0098,0.0076,0.0057,0.0049,0.0034}),"")</f>
@@ -5878,17 +6266,25 @@
       <c r="Y9" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="AE9" s="17">
-        <v>119699</v>
+      <c r="AE9" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG9" s="18">
+        <f>iferror(lookup(if(AF9="",H9,AF9),{0,1,10,50,100,1000,10000},{0.0,0.1,0.051,0.051,0.022,0.012,0.009}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="18">
+        <f>iferror(if(AF9="",H9,AF9)*AG9,"")</f>
+        <v>0</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AJ9" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL9" s="18">
-        <f>iferror(lookup(if(AK9="",H9,AK9),{0,1,10,25,50,100,250},{0.0,0.049,0.049,0.031,0.022,0.017,0.013}),"")</f>
+        <f>iferror(lookup(if(AK9="",H9,AK9),{0,1,10,25,50,100,250},{0.0,0.051,0.051,0.033,0.023,0.017,0.013}),"")</f>
         <v>0</v>
       </c>
       <c r="AM9" s="18">
@@ -5896,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -5934,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="17">
-        <v>3344431</v>
+        <v>3132147</v>
       </c>
       <c r="R10" s="18">
         <f>iferror(lookup(if(Q10="",H10,Q10),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,150000,375000},{0.0,0.24,0.165,0.11,0.0935,0.066,0.05775,0.055,0.05088,0.04565,0.044,0.04125,0.03658,0.03438}),"")</f>
@@ -5945,10 +6341,10 @@
         <v>0</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W10" s="18">
         <f>iferror(USD_GBP*lookup(if(V10="",H10,V10),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.3,0.3,0.178,0.178,0.151,0.081,0.067,0.0651,0.0558}),"")</f>
@@ -5962,10 +6358,10 @@
         <v>230</v>
       </c>
       <c r="Z10" s="17">
-        <v>18640</v>
+        <v>11580</v>
       </c>
       <c r="AB10" s="18">
-        <f>iferror(lookup(if(AA10="",H10,AA10),{0,1,20,200,600,2000,10000,20000},{0.0,0.0164,0.0164,0.012,0.0112,0.0104,0.01,0.0099}),"")</f>
+        <f>iferror(lookup(if(AA10="",H10,AA10),{0,1,20,200,600,2000,10000,20000},{0.0,0.0175,0.0175,0.0131,0.0123,0.0115,0.0111,0.0109}),"")</f>
         <v>0</v>
       </c>
       <c r="AC10" s="18">
@@ -5973,19 +6369,27 @@
         <v>0</v>
       </c>
       <c r="AD10" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AE10" s="17">
-        <v>2474054</v>
+        <v>2271654</v>
+      </c>
+      <c r="AG10" s="18">
+        <f>iferror(lookup(if(AF10="",H10,AF10),{0,1,10,50,100,1000,10000},{0.0,0.26,0.121,0.121,0.097,0.06,0.051}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="18">
+        <f>iferror(if(AF10="",H10,AF10)*AG10,"")</f>
+        <v>0</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ10" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL10" s="18">
-        <f>iferror(lookup(if(AK10="",H10,AK10),{0,1,10,25,50,100,250,15000,30000,60000,90000},{0.0,0.351,0.351,0.322,0.219,0.181,0.152,0.088,0.072,0.062,0.058}),"")</f>
+        <f>iferror(lookup(if(AK10="",H10,AK10),{0,1,10,25,50,100,250,15000,30000,60000,90000},{0.0,0.356,0.356,0.326,0.222,0.184,0.154,0.091,0.075,0.065,0.06}),"")</f>
         <v>0</v>
       </c>
       <c r="AM10" s="18">
@@ -5993,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -6031,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="17">
-        <v>149024</v>
+        <v>395972</v>
       </c>
       <c r="R11" s="18">
         <f>iferror(lookup(if(Q11="",H11,Q11),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,105000,150000,375000},{0.0,0.1,0.025,0.0138,0.0113,0.00808,0.00635,0.00578,0.00531,0.00462,0.00439,0.00393,0.00318,0.00307,0.00277}),"")</f>
@@ -6042,10 +6446,10 @@
         <v>0</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W11" s="18">
         <f>iferror(USD_GBP*lookup(if(V11="",H11,V11),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0066,0.0066,0.0054,0.0054,0.0041,0.0029,0.0026,0.0022,0.0017}),"")</f>
@@ -6059,10 +6463,10 @@
         <v>231</v>
       </c>
       <c r="Z11" s="17">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AB11" s="18">
-        <f>iferror(lookup(if(AA11="",H11,AA11),{0,1,100,1000,3000,10000,50000,100000},{0.0,0.0016,0.0016,0.0012,0.0011,0.001,0.001,0.0009}),"")</f>
+        <f>iferror(lookup(if(AA11="",H11,AA11),{0,1,100,1000,3000,10000,50000,100000},{0.0,0.0017,0.0017,0.0012,0.0011,0.001,0.001,0.001}),"")</f>
         <v>0</v>
       </c>
       <c r="AC11" s="18">
@@ -6070,19 +6474,27 @@
         <v>0</v>
       </c>
       <c r="AD11" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AE11" s="17">
-        <v>57932</v>
+        <v>201777</v>
+      </c>
+      <c r="AG11" s="18">
+        <f>iferror(lookup(if(AF11="",H11,AF11),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.006,0.005}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="18">
+        <f>iferror(if(AF11="",H11,AF11)*AG11,"")</f>
+        <v>0</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AJ11" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL11" s="18">
-        <f>iferror(lookup(if(AK11="",H11,AK11),{0,1,10,25,50,100,250},{0.0,0.018,0.018,0.011,0.008,0.006,0.005}),"")</f>
+        <f>iferror(lookup(if(AK11="",H11,AK11),{0,1,10,25,50,100},{0.0,0.015,0.015,0.01,0.007,0.005}),"")</f>
         <v>0</v>
       </c>
       <c r="AM11" s="18">
@@ -6090,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -6128,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="17">
-        <v>1463021</v>
+        <v>1122053</v>
       </c>
       <c r="R12" s="18">
         <f>iferror(lookup(if(Q12="",H12,Q12),{0,1,10,50,100,500,1000,2500,5000,10000,20000,30000,50000,100000,250000},{0.0,0.42,0.294,0.2056,0.1762,0.13216,0.11161,0.10573,0.09986,0.09398,0.09105,0.08811,0.08224,0.07636,0.07049}),"")</f>
@@ -6139,13 +6551,13 @@
         <v>0</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U12" s="17">
-        <v>2361</v>
+        <v>7400</v>
       </c>
       <c r="W12" s="18">
-        <f>iferror(USD_GBP*lookup(if(V12="",H12,V12),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.215,0.215,0.173,0.173,0.0986,0.0822,0.0658,0.0355,0.0304}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V12="",H12,V12),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.215,0.215,0.173,0.173,0.0986,0.0822,0.0658,0.0548,0.047}),"")</f>
         <v>0</v>
       </c>
       <c r="X12" s="18">
@@ -6156,10 +6568,10 @@
         <v>232</v>
       </c>
       <c r="Z12" s="17">
-        <v>16065</v>
+        <v>24400</v>
       </c>
       <c r="AB12" s="18">
-        <f>iferror(lookup(if(AA12="",H12,AA12),{0,1,5,50,150,500,2500,5000},{0.0,0.104,0.104,0.0759,0.0708,0.0657,0.0634,0.0622}),"")</f>
+        <f>iferror(lookup(if(AA12="",H12,AA12),{0,1,5,50,150,500,2500,5000},{0.0,0.0956,0.0956,0.0713,0.0668,0.0623,0.0603,0.0594}),"")</f>
         <v>0</v>
       </c>
       <c r="AC12" s="18">
@@ -6167,19 +6579,27 @@
         <v>0</v>
       </c>
       <c r="AD12" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE12" s="17">
-        <v>976723</v>
+        <v>938175</v>
+      </c>
+      <c r="AG12" s="18">
+        <f>iferror(lookup(if(AF12="",H12,AF12),{0,1,10,50,100,1000,10000},{0.0,0.47,0.227,0.227,0.194,0.123,0.11}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="18">
+        <f>iferror(if(AF12="",H12,AF12)*AG12,"")</f>
+        <v>0</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ12" s="20" t="s">
-        <v>201</v>
+        <v>267</v>
+      </c>
+      <c r="AJ12" s="17">
+        <v>7400</v>
       </c>
       <c r="AL12" s="18">
-        <f>iferror(lookup(if(AK12="",H12,AK12),{0,1,10,25,50,100,10000,20000,40000,60000},{0.0,0.272,0.272,0.259,0.246,0.233,0.053,0.046,0.039,0.032}),"")</f>
+        <f>iferror(lookup(if(AK12="",H12,AK12),{0,1,10,25,50,100,10000,20000,40000,60000},{0.0,0.227,0.227,0.216,0.205,0.194,0.055,0.048,0.041,0.033}),"")</f>
         <v>0</v>
       </c>
       <c r="AM12" s="18">
@@ -6187,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -6224,11 +6644,11 @@
         <f>iferror(H13*I13,"")</f>
         <v>0</v>
       </c>
-      <c r="P13" s="20" t="s">
-        <v>201</v>
+      <c r="P13" s="17">
+        <v>1173</v>
       </c>
       <c r="R13" s="18">
-        <f>iferror(lookup(if(Q13="",H13,Q13),{0,1,10,50,100,500,1000,2500,5000,10000,20000,30000,50000,100000,250000},{0.0,0.22,0.15,0.09,0.0761,0.05206,0.04605,0.04404,0.04004,0.03804,0.03604,0.03403,0.03203,0.02703,0.02402}),"")</f>
+        <f>iferror(lookup(if(Q13="",H13,Q13),{0,1,10,50,100,500,1000,2500,5000,10000,20000,30000,50000,100000,250000},{0.0,0.22,0.15,0.09,0.0761,0.05206,0.04605,0.04404,0.04004,0.03154,0.02988,0.02822,0.02656,0.02241,0.02075}),"")</f>
         <v>0</v>
       </c>
       <c r="S13" s="18">
@@ -6236,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U13" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W13" s="18">
         <f>iferror(USD_GBP*lookup(if(V13="",H13,V13),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.202,0.202,0.111,0.111,0.069,0.054,0.043,0.0348,0.0298}),"")</f>
@@ -6253,10 +6673,10 @@
         <v>233</v>
       </c>
       <c r="Z13" s="17">
-        <v>10310</v>
+        <v>16540</v>
       </c>
       <c r="AB13" s="18">
-        <f>iferror(lookup(if(AA13="",H13,AA13),{0,1,10,100,300,1000,5000,10000},{0.0,0.0565,0.0565,0.0409,0.0381,0.0352,0.0339,0.0333}),"")</f>
+        <f>iferror(lookup(if(AA13="",H13,AA13),{0,1,10,100,300,1000,5000,10000},{0.0,0.0565,0.0565,0.0414,0.0386,0.0359,0.0346,0.034}),"")</f>
         <v>0</v>
       </c>
       <c r="AC13" s="18">
@@ -6264,19 +6684,27 @@
         <v>0</v>
       </c>
       <c r="AD13" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AE13" s="17">
-        <v>464190</v>
+        <v>48495</v>
+      </c>
+      <c r="AG13" s="18">
+        <f>iferror(lookup(if(AF13="",H13,AF13),{0,1,10,50,100,1000,10000},{0.0,0.22,0.108,0.108,0.083,0.049,0.038}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="18">
+        <f>iferror(if(AF13="",H13,AF13)*AG13,"")</f>
+        <v>0</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AJ13" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL13" s="18">
-        <f>iferror(lookup(if(AK13="",H13,AK13),{0,1,10,25,50,100,250,10000,20000,30000},{0.0,0.249,0.249,0.22,0.134,0.109,0.092,0.044,0.038,0.031}),"")</f>
+        <f>iferror(lookup(if(AK13="",H13,AK13),{0,1,10,25,50,100,250,10000,20000,40000,60000},{0.0,0.25,0.25,0.221,0.135,0.109,0.092,0.054,0.047,0.04,0.033}),"")</f>
         <v>0</v>
       </c>
       <c r="AM13" s="18">
@@ -6284,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -6322,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="17">
-        <v>1121876</v>
+        <v>717328</v>
       </c>
       <c r="R14" s="18">
         <f>iferror(lookup(if(Q14="",H14,Q14),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,150000,375000},{0.0,0.1,0.036,0.0196,0.016,0.01144,0.00898,0.00817,0.00751,0.00594,0.00564,0.00505,0.00395,0.00371}),"")</f>
@@ -6336,7 +6764,7 @@
         <v>202</v>
       </c>
       <c r="U14" s="17">
-        <v>15783</v>
+        <v>2483</v>
       </c>
       <c r="W14" s="18">
         <f>iferror(USD_GBP*lookup(if(V14="",H14,V14),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0202,0.0202,0.0159,0.0159,0.0076,0.0059,0.0058,0.004,0.0039}),"")</f>
@@ -6350,10 +6778,10 @@
         <v>234</v>
       </c>
       <c r="Z14" s="17">
-        <v>44000</v>
+        <v>30600</v>
       </c>
       <c r="AB14" s="18">
-        <f>iferror(lookup(if(AA14="",H14,AA14),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0058,0.0058,0.0043,0.0041,0.0038,0.0037,0.0036}),"")</f>
+        <f>iferror(lookup(if(AA14="",H14,AA14),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0059,0.0059,0.0044,0.0041,0.0038,0.0037,0.0037}),"")</f>
         <v>0</v>
       </c>
       <c r="AC14" s="18">
@@ -6361,13 +6789,13 @@
         <v>0</v>
       </c>
       <c r="AD14" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AE14" s="17">
-        <v>339804</v>
+        <v>295500</v>
       </c>
       <c r="AG14" s="18">
-        <f>iferror(lookup(if(AF14="",H14,AF14),{0,1,10,100,500,1000,2500},{0.0,0.1,0.034,0.015,0.01,0.008,0.007}),"")</f>
+        <f>iferror(lookup(if(AF14="",H14,AF14),{0,1,10,50,100,1000,10000},{0.0,0.1,0.034,0.034,0.015,0.008,0.007}),"")</f>
         <v>0</v>
       </c>
       <c r="AH14" s="18">
@@ -6375,10 +6803,10 @@
         <v>0</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AJ14" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL14" s="18">
         <f>iferror(lookup(if(AK14="",H14,AK14),{0,1,10,25,50,100},{0.0,0.034,0.034,0.028,0.021,0.015}),"")</f>
@@ -6389,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO14" s="17">
         <v>8000</v>
@@ -6403,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -6438,10 +6866,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="17">
-        <v>47764</v>
+        <v>47443</v>
       </c>
       <c r="R15" s="18">
-        <f>iferror(lookup(if(Q15="",H15,Q15),{0,1,10,100,500,1000,2000,5000,10000,30000,50000,250000},{0.0,0.35,0.264,0.1254,0.1023,0.0759,0.06666,0.06105,0.0528,0.05181,0.0429,0.04224}),"")</f>
+        <f>iferror(lookup(if(Q15="",H15,Q15),{0,1,10,100,500,1000,2000,5000,10000,30000,50000,250000},{0.0,0.35,0.248,0.1254,0.1023,0.0759,0.06386,0.06105,0.0528,0.05181,0.0429,0.04224}),"")</f>
         <v>0</v>
       </c>
       <c r="S15" s="18">
@@ -6452,10 +6880,10 @@
         <v>203</v>
       </c>
       <c r="U15" s="17">
-        <v>1904</v>
+        <v>1614</v>
       </c>
       <c r="W15" s="18">
-        <f>iferror(USD_GBP*lookup(if(V15="",H15,V15),{0,1,5,25,100,250,500,1000,5000},{0.0,0.209,0.209,0.135,0.105,0.0873,0.0696,0.0482,0.0468}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V15="",H15,V15),{0,1,5,10,100,500,1000,5000},{0.0,0.32,0.32,0.209,0.105,0.0798,0.0483,0.0473}),"")</f>
         <v>0</v>
       </c>
       <c r="X15" s="18">
@@ -6466,16 +6894,24 @@
         <v>235</v>
       </c>
       <c r="AE15" s="17">
-        <v>14264</v>
+        <v>10232</v>
+      </c>
+      <c r="AG15" s="18">
+        <f>iferror(lookup(if(AF15="",H15,AF15),{0,1,10,50,100,1000,10000},{0.0,0.35,0.231,0.231,0.125,0.076,0.052}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="18">
+        <f>iferror(if(AF15="",H15,AF15)*AG15,"")</f>
+        <v>0</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="AJ15" s="20" t="s">
-        <v>201</v>
+        <v>270</v>
+      </c>
+      <c r="AJ15" s="17">
+        <v>1614</v>
       </c>
       <c r="AL15" s="18">
-        <f>iferror(lookup(if(AK15="",H15,AK15),{0,1,5,10,100,500,1000,2500},{0.0,0.348,0.348,0.267,0.149,0.132,0.114,0.1}),"")</f>
+        <f>iferror(lookup(if(AK15="",H15,AK15),{0,1,5,10,100,500,1000,2500},{0.0,0.358,0.358,0.275,0.153,0.135,0.117,0.102}),"")</f>
         <v>0</v>
       </c>
       <c r="AM15" s="18">
@@ -6483,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -6518,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="17">
-        <v>13107</v>
+        <v>12554</v>
       </c>
       <c r="R16" s="18">
         <f>iferror(lookup(if(Q16="",H16,Q16),{0,1,10,100,500,1000,3000,6000},{0.0,0.56,0.495,0.3375,0.282,0.24,0.225,0.2025}),"")</f>
@@ -6532,10 +6968,10 @@
         <v>204</v>
       </c>
       <c r="U16" s="17">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="W16" s="18">
-        <f>iferror(USD_GBP*lookup(if(V16="",H16,V16),{0,1,10,100,150,250,500,1000,5000},{0.0,0.504,0.407,0.255,0.255,0.238,0.22,0.176,0.153}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V16="",H16,V16),{0,1,10,100,150,500,1000,5000},{0.0,0.504,0.407,0.255,0.255,0.22,0.176,0.153}),"")</f>
         <v>0</v>
       </c>
       <c r="X16" s="18">
@@ -6546,10 +6982,10 @@
         <v>236</v>
       </c>
       <c r="Z16" s="17">
-        <v>613</v>
+        <v>372</v>
       </c>
       <c r="AB16" s="18">
-        <f>iferror(lookup(if(AA16="",H16,AA16),{0,1,10,30,100,500,1000},{0.0,0.4555,0.342,0.3214,0.3008,0.2905,0.287}),"")</f>
+        <f>iferror(lookup(if(AA16="",H16,AA16),{0,1,10,30,100,500,1000},{0.0,0.4555,0.3421,0.3215,0.3008,0.2905,0.2871}),"")</f>
         <v>0</v>
       </c>
       <c r="AC16" s="18">
@@ -6557,19 +6993,27 @@
         <v>0</v>
       </c>
       <c r="AD16" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AE16" s="17">
-        <v>12850</v>
+        <v>9003</v>
+      </c>
+      <c r="AG16" s="18">
+        <f>iferror(lookup(if(AF16="",H16,AF16),{0,1,10,50,100,1000,10000},{0.0,0.56,0.464,0.464,0.325,0.24,0.193}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="18">
+        <f>iferror(if(AF16="",H16,AF16)*AG16,"")</f>
+        <v>0</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ16" s="17">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="AL16" s="18">
-        <f>iferror(lookup(if(AK16="",H16,AK16),{0,1,25,50,100,250,500,3000,6000,12000,18000,30000},{0.0,0.273,0.273,0.273,0.25,0.231,0.231,0.206,0.202,0.193,0.19,0.187}),"")</f>
+        <f>iferror(lookup(if(AK16="",H16,AK16),{0,1,25,50,100,250,500,3000,6000,12000,18000,30000},{0.0,0.56,0.464,0.395,0.325,0.303,0.281,0.213,0.202,0.193,0.19,0.187}),"")</f>
         <v>0</v>
       </c>
       <c r="AM16" s="18">
@@ -6577,10 +7021,10 @@
         <v>0</v>
       </c>
       <c r="AN16" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO16" s="17">
-        <v>275</v>
+        <v>3275</v>
       </c>
       <c r="AQ16" s="18">
         <f>iferror(USD_GBP*lookup(if(AP16="",H16,AP16),{0,1,25,100,250,500,1000},{0.0,0.347,0.347,0.227,0.204,0.195,0.167}),"")</f>
@@ -6591,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:50">
@@ -6629,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="17">
-        <v>3363</v>
+        <v>21023</v>
       </c>
       <c r="R17" s="18">
         <f>iferror(lookup(if(Q17="",H17,Q17),{0,1,10,100,1000,2000,6000,10000,50000},{0.0,0.67,0.439,0.2903,0.2241,0.2025,0.189,0.18225,0.17213}),"")</f>
@@ -6643,7 +7087,7 @@
         <v>205</v>
       </c>
       <c r="U17" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W17" s="18">
         <f>iferror(USD_GBP*lookup(if(V17="",H17,V17),{0,1,10,100,500},{0.0,0.683,0.451,0.347,0.299}),"")</f>
@@ -6657,10 +7101,10 @@
         <v>237</v>
       </c>
       <c r="AE17" s="17">
-        <v>8957</v>
+        <v>30957</v>
       </c>
       <c r="AG17" s="18">
-        <f>iferror(lookup(if(AF17="",H17,AF17),{0,1,10,100,1000,2000,10000},{0.0,0.66,0.43,0.282,0.222,0.188,0.182}),"")</f>
+        <f>iferror(lookup(if(AF17="",H17,AF17),{0,1,10,50,100,1000,10000},{0.0,0.66,0.43,0.43,0.282,0.222,0.182}),"")</f>
         <v>0</v>
       </c>
       <c r="AH17" s="18">
@@ -6668,16 +7112,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AJ17" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AN17" s="19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AT17" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AV17" s="18">
         <f>iferror(lookup(if(AU17="",H17,AU17),{0,1,5,25,100,500},{0.0,0.8,0.41,0.28,0.248,0.217}),"")</f>
@@ -6722,8 +7166,8 @@
         <f>iferror(H18*I18,"")</f>
         <v>0</v>
       </c>
-      <c r="P18" s="17">
-        <v>692</v>
+      <c r="P18" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="R18" s="18">
         <f>iferror(lookup(if(Q18="",H18,Q18),{0,1,10,25,50,100,250,500,1500,3000,7500,10500},{0.0,1.72,1.558,1.4632,1.3994,1.3358,1.20856,1.11316,0.92233,0.89053,0.846,0.82692}),"")</f>
@@ -6737,13 +7181,21 @@
         <v>206</v>
       </c>
       <c r="AE18" s="17">
-        <v>3786</v>
+        <v>3419</v>
+      </c>
+      <c r="AG18" s="18">
+        <f>iferror(lookup(if(AF18="",H18,AF18),{0,1,10,50,100,1000,10000},{0.0,1.89,1.53,1.53,1.46,0.922,0.826}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="18">
+        <f>iferror(if(AF18="",H18,AF18)*AG18,"")</f>
+        <v>0</v>
       </c>
       <c r="AI18" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO18" s="17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AQ18" s="18">
         <f>iferror(USD_GBP*lookup(if(AP18="",H18,AP18),{0,1,4,20,100,200},{0.0,5.9,5.6,5.34,5.08,4.82}),"")</f>
@@ -6754,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -6789,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="17">
-        <v>1495</v>
+        <v>1420</v>
       </c>
       <c r="R19" s="18">
         <f>iferror(lookup(if(Q19="",H19,Q19),{0,1,10,25,50,100,250,500},{0.0,0.25,0.236,0.2012,0.1758,0.1633,0.14448,0.1382}),"")</f>
@@ -6835,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="17">
-        <v>538</v>
+        <v>1709</v>
       </c>
       <c r="R20" s="18">
         <f>iferror(lookup(if(Q20="",H20,Q20),{0,1,10,25,50,100,250,500},{0.0,0.29,0.271,0.2324,0.1974,0.1896,0.17028,0.16254}),"")</f>
@@ -6881,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R21" s="18">
         <f>iferror(lookup(if(Q21="",H21,Q21),{0,1,4000},{0.0,0.06257,0.06257}),"")</f>
@@ -6895,10 +7347,10 @@
         <v>209</v>
       </c>
       <c r="U21" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W21" s="18">
-        <f>iferror(USD_GBP*lookup(if(V21="",H21,V21),{0,1,5,25,100,250,500,1000,5000},{0.0,0.196,0.196,0.137,0.0778,0.0649,0.052,0.0391,0.0332}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V21="",H21,V21),{0,1,5,10,100,500,1000,5000},{0.0,0.29,0.29,0.196,0.0778,0.0585,0.0391,0.0332}),"")</f>
         <v>0</v>
       </c>
       <c r="X21" s="18">
@@ -6909,10 +7361,10 @@
         <v>238</v>
       </c>
       <c r="AE21" s="17">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="AG21" s="18">
-        <f>iferror(lookup(if(AF21="",H21,AF21),{0,1,10,100,1000,4000,8000},{0.0,0.39,0.268,0.112,0.076,0.06,0.051}),"")</f>
+        <f>iferror(lookup(if(AF21="",H21,AF21),{0,1,10,50,100,1000,10000},{0.0,0.39,0.268,0.268,0.112,0.076,0.051}),"")</f>
         <v>0</v>
       </c>
       <c r="AH21" s="18">
@@ -6920,10 +7372,10 @@
         <v>0</v>
       </c>
       <c r="AI21" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AJ21" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL21" s="18">
         <f>iferror(lookup(if(AK21="",H21,AK21),{0,1,5,10,100,500,1000},{0.0,0.351,0.351,0.241,0.101,0.085,0.068}),"")</f>
@@ -6934,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:50">
@@ -6969,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R22" s="18">
         <f>iferror(lookup(if(Q22="",H22,Q22),{0,1,10000},{0.0,0.03179,0.03179}),"")</f>
@@ -6986,7 +7438,7 @@
         <v>10000</v>
       </c>
       <c r="AG22" s="18">
-        <f>iferror(lookup(if(AF22="",H22,AF22),{0,1,10,100,1000,2500,10000},{0.0,0.35,0.243,0.102,0.069,0.054,0.046}),"")</f>
+        <f>iferror(lookup(if(AF22="",H22,AF22),{0,1,10,50,100,1000,10000},{0.0,0.35,0.243,0.243,0.102,0.069,0.046}),"")</f>
         <v>0</v>
       </c>
       <c r="AH22" s="18">
@@ -6994,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:50">
@@ -7029,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="17">
-        <v>6054505</v>
+        <v>4569979</v>
       </c>
       <c r="R23" s="18">
         <f>iferror(lookup(if(Q23="",H23,Q23),{0,1,10,25,50,100,250,500,1000,5000,15000,30000,75000},{0.0,0.1,0.025,0.018,0.0136,0.01,0.00764,0.00612,0.00451,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7043,7 +7495,7 @@
         <v>211</v>
       </c>
       <c r="U23" s="17">
-        <v>60000</v>
+        <v>21000</v>
       </c>
       <c r="W23" s="18">
         <f>iferror(USD_GBP*lookup(if(V23="",H23,V23),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.04,0.04,0.024,0.024,0.018,0.012,0.009,0.007,0.0044}),"")</f>
@@ -7057,10 +7509,10 @@
         <v>239</v>
       </c>
       <c r="Z23" s="17">
-        <v>12250</v>
+        <v>9000</v>
       </c>
       <c r="AB23" s="18">
-        <f>iferror(lookup(if(AA23="",H23,AA23),{0,1,50,500,1500,5000,25000,50000},{0.0,0.006,0.006,0.0045,0.0042,0.0039,0.0038,0.0038}),"")</f>
+        <f>iferror(lookup(if(AA23="",H23,AA23),{0,1,50,500,1500,5000,25000,50000},{0.0,0.006,0.006,0.0045,0.0043,0.004,0.0039,0.0038}),"")</f>
         <v>0</v>
       </c>
       <c r="AC23" s="18">
@@ -7068,16 +7520,24 @@
         <v>0</v>
       </c>
       <c r="AD23" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE23" s="17">
-        <v>1565228</v>
+        <v>1257155</v>
+      </c>
+      <c r="AG23" s="18">
+        <f>iferror(lookup(if(AF23="",H23,AF23),{0,1,10,50,100,1000,10000},{0.0,0.1,0.015,0.015,0.006,0.005,0.003}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="18">
+        <f>iferror(if(AF23="",H23,AF23)*AG23,"")</f>
+        <v>0</v>
       </c>
       <c r="AI23" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AJ23" s="17">
-        <v>195000</v>
+        <v>135000</v>
       </c>
       <c r="AL23" s="18">
         <f>iferror(lookup(if(AK23="",H23,AK23),{0,1,25,100,250,500,1000,2500,5000},{0.0,0.211,0.021,0.009,0.008,0.007,0.006,0.005,0.004}),"")</f>
@@ -7088,10 +7548,10 @@
         <v>0</v>
       </c>
       <c r="AN23" s="19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO23" s="17">
-        <v>1096637</v>
+        <v>1094637</v>
       </c>
       <c r="AQ23" s="18">
         <f>iferror(USD_GBP*lookup(if(AP23="",H23,AP23),{0,1,15000},{0.0,0.004,0.004}),"")</f>
@@ -7102,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:50">
@@ -7137,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="17">
-        <v>81002</v>
+        <v>61600</v>
       </c>
       <c r="R24" s="18">
         <f>iferror(lookup(if(Q24="",H24,Q24),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7151,7 +7611,7 @@
         <v>212</v>
       </c>
       <c r="U24" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W24" s="18">
         <f>iferror(USD_GBP*lookup(if(V24="",H24,V24),{0,1,15000},{0.0,0.0043,0.0043}),"")</f>
@@ -7165,10 +7625,10 @@
         <v>240</v>
       </c>
       <c r="AE24" s="17">
-        <v>49782</v>
+        <v>48782</v>
       </c>
       <c r="AG24" s="18">
-        <f>iferror(lookup(if(AF24="",H24,AF24),{0,1,10,100,1000,2500,10000},{0.0,0.1,0.027,0.011,0.005,0.003,0.003}),"")</f>
+        <f>iferror(lookup(if(AF24="",H24,AF24),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.005,0.003}),"")</f>
         <v>0</v>
       </c>
       <c r="AH24" s="18">
@@ -7176,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:50">
@@ -7199,7 +7659,7 @@
         <v>108</v>
       </c>
       <c r="H25" s="17">
-        <f>BoardQty*4</f>
+        <f>BoardQty*3</f>
         <v>0</v>
       </c>
       <c r="I25" s="18">
@@ -7211,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="17">
-        <v>27302</v>
+        <v>9093</v>
       </c>
       <c r="R25" s="18">
         <f>iferror(lookup(if(Q25="",H25,Q25),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7225,7 +7685,7 @@
         <v>213</v>
       </c>
       <c r="U25" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W25" s="18">
         <f>iferror(USD_GBP*lookup(if(V25="",H25,V25),{0,1,15000},{0.0,0.005,0.005}),"")</f>
@@ -7239,10 +7699,10 @@
         <v>241</v>
       </c>
       <c r="AE25" s="17">
-        <v>72685</v>
+        <v>39947</v>
       </c>
       <c r="AG25" s="18">
-        <f>iferror(lookup(if(AF25="",H25,AF25),{0,1,10,100,1000,5000,10000},{0.0,0.1,0.025,0.008,0.005,0.004,0.003}),"")</f>
+        <f>iferror(lookup(if(AF25="",H25,AF25),{0,1,10,50,100,1000,10000},{0.0,0.1,0.025,0.025,0.008,0.005,0.003}),"")</f>
         <v>0</v>
       </c>
       <c r="AH25" s="18">
@@ -7250,13 +7710,13 @@
         <v>0</v>
       </c>
       <c r="AI25" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ25" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AN25" s="19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO25" s="17">
         <v>41000</v>
@@ -7270,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:50">
@@ -7305,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="17">
-        <v>411478</v>
+        <v>326014</v>
       </c>
       <c r="R26" s="18">
         <f>iferror(lookup(if(Q26="",H26,Q26),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7319,7 +7779,7 @@
         <v>214</v>
       </c>
       <c r="U26" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W26" s="18">
         <f>iferror(USD_GBP*lookup(if(V26="",H26,V26),{0,1,15000},{0.0,0.0043,0.0043}),"")</f>
@@ -7333,10 +7793,10 @@
         <v>242</v>
       </c>
       <c r="Z26" s="17">
-        <v>4400</v>
+        <v>4350</v>
       </c>
       <c r="AB26" s="18">
-        <f>iferror(lookup(if(AA26="",H26,AA26),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0155,0.0155,0.0112,0.0104,0.0096,0.0092,0.0091}),"")</f>
+        <f>iferror(lookup(if(AA26="",H26,AA26),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0177,0.0177,0.0134,0.0126,0.0118,0.0115,0.0113}),"")</f>
         <v>0</v>
       </c>
       <c r="AC26" s="18">
@@ -7344,22 +7804,30 @@
         <v>0</v>
       </c>
       <c r="AD26" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AE26" s="17">
-        <v>256814</v>
+        <v>214846</v>
+      </c>
+      <c r="AG26" s="18">
+        <f>iferror(lookup(if(AF26="",H26,AF26),{0,1,10,50,100,1000,10000},{0.0,0.1,0.026,0.026,0.011,0.005,0.003}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="18">
+        <f>iferror(if(AF26="",H26,AF26)*AG26,"")</f>
+        <v>0</v>
       </c>
       <c r="AI26" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AJ26" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AN26" s="19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO26" s="17">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="AQ26" s="18">
         <f>iferror(USD_GBP*lookup(if(AP26="",H26,AP26),{0,1,15000},{0.0,0.006,0.006}),"")</f>
@@ -7370,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="AS26" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:50">
@@ -7405,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="17">
-        <v>30133</v>
+        <v>30061</v>
       </c>
       <c r="R27" s="18">
         <f>iferror(lookup(if(Q27="",H27,Q27),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7419,7 +7887,7 @@
         <v>215</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W27" s="18">
         <f>iferror(USD_GBP*lookup(if(V27="",H27,V27),{0,1,15000},{0.0,0.0043,0.0043}),"")</f>
@@ -7436,7 +7904,7 @@
         <v>81930</v>
       </c>
       <c r="AG27" s="18">
-        <f>iferror(lookup(if(AF27="",H27,AF27),{0,1,10,100,1000,2500,10000},{0.0,0.1,0.027,0.011,0.005,0.003,0.003}),"")</f>
+        <f>iferror(lookup(if(AF27="",H27,AF27),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.005,0.003}),"")</f>
         <v>0</v>
       </c>
       <c r="AH27" s="18">
@@ -7444,13 +7912,13 @@
         <v>0</v>
       </c>
       <c r="AI27" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ27" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AN27" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:50">
@@ -7485,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="17">
-        <v>32226</v>
+        <v>129918</v>
       </c>
       <c r="R28" s="18">
         <f>iferror(lookup(if(Q28="",H28,Q28),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7499,7 +7967,7 @@
         <v>216</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="W28" s="18">
         <f>iferror(USD_GBP*lookup(if(V28="",H28,V28),{0,1,15000},{0.0,0.0043,0.0043}),"")</f>
@@ -7516,7 +7984,7 @@
         <v>14800</v>
       </c>
       <c r="AB28" s="18">
-        <f>iferror(lookup(if(AA28="",H28,AA28),{0,1,50,500,1500,5000,25000,50000},{0.0,0.006,0.006,0.0045,0.0042,0.0039,0.0038,0.0038}),"")</f>
+        <f>iferror(lookup(if(AA28="",H28,AA28),{0,1,50,500,1500,5000,25000,50000},{0.0,0.006,0.006,0.0045,0.0043,0.004,0.0039,0.0038}),"")</f>
         <v>0</v>
       </c>
       <c r="AC28" s="18">
@@ -7524,13 +7992,13 @@
         <v>0</v>
       </c>
       <c r="AD28" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE28" s="17">
-        <v>55581</v>
+        <v>51442</v>
       </c>
       <c r="AG28" s="18">
-        <f>iferror(lookup(if(AF28="",H28,AF28),{0,1,10,100,1000,2500,10000},{0.0,0.1,0.027,0.011,0.005,0.003,0.003}),"")</f>
+        <f>iferror(lookup(if(AF28="",H28,AF28),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.005,0.003}),"")</f>
         <v>0</v>
       </c>
       <c r="AH28" s="18">
@@ -7538,13 +8006,13 @@
         <v>0</v>
       </c>
       <c r="AI28" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ28" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AN28" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO28" s="17">
         <v>54000</v>
@@ -7558,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:50">
@@ -7592,11 +8060,11 @@
         <f>iferror(H29*I29,"")</f>
         <v>0</v>
       </c>
-      <c r="P29" s="17">
-        <v>4825</v>
+      <c r="P29" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="R29" s="18">
-        <f>iferror(lookup(if(Q29="",H29,Q29),{0,1,10,25,100,250,500,1000,2500,5000,10000},{0.0,0.38,0.31,0.284,0.1914,0.1584,0.1452,0.1089,0.1023,0.0957,0.0891}),"")</f>
+        <f>iferror(lookup(if(Q29="",H29,Q29),{0,1,3000},{0.0,0.09918,0.09918}),"")</f>
         <v>0</v>
       </c>
       <c r="S29" s="18">
@@ -7606,11 +8074,11 @@
       <c r="T29" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="U29" s="17">
-        <v>4930</v>
+      <c r="U29" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="W29" s="18">
-        <f>iferror(USD_GBP*lookup(if(V29="",H29,V29),{0,1,5,10,50,100,250,500,1000,5000,10000},{0.0,0.244,0.244,0.244,0.179,0.114,0.102,0.0899,0.0778,0.073,0.0662}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V29="",H29,V29),{0,1,3000},{0.0,0.056,0.056}),"")</f>
         <v>0</v>
       </c>
       <c r="X29" s="18">
@@ -7621,10 +8089,10 @@
         <v>245</v>
       </c>
       <c r="AE29" s="17">
-        <v>4715</v>
+        <v>3685</v>
       </c>
       <c r="AG29" s="18">
-        <f>iferror(lookup(if(AF29="",H29,AF29),{0,1,10,100,1000,5000,10000},{0.0,0.38,0.283,0.145,0.102,0.095,0.087}),"")</f>
+        <f>iferror(lookup(if(AF29="",H29,AF29),{0,1,10,50,100,1000,10000},{0.0,0.45,0.303,0.303,0.143,0.11,0.085}),"")</f>
         <v>0</v>
       </c>
       <c r="AH29" s="18">
@@ -7632,35 +8100,13 @@
         <v>0</v>
       </c>
       <c r="AI29" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ29" s="17">
-        <v>5000</v>
-      </c>
-      <c r="AL29" s="18">
-        <f>iferror(lookup(if(AK29="",H29,AK29),{0,1,5,10,25,50,100,250,5000,10000,20000,30000,40000},{0.0,0.38,0.38,0.31,0.284,0.238,0.191,0.158,0.087,0.085,0.084,0.082,0.081}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AM29" s="18">
-        <f>iferror(if(AK29="",H29,AK29)*AL29,"")</f>
-        <v>0</v>
+        <v>282</v>
+      </c>
+      <c r="AJ29" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="AN29" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="AO29" s="17">
-        <v>5000</v>
-      </c>
-      <c r="AQ29" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP29="",H29,AP29),{0,1,5000},{0.0,0.07,0.07}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AR29" s="18">
-        <f>iferror(if(AP29="",H29,AP29)*AQ29,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AS29" s="19" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:50">
@@ -7758,7 +8204,7 @@
         <v>908</v>
       </c>
       <c r="AG31" s="18">
-        <f>iferror(lookup(if(AF31="",H31,AF31),{0,1,10,100,250,500,1000},{0.0,2.36,2.0,1.71,1.6,1.4,1.16}),"")</f>
+        <f>iferror(lookup(if(AF31="",H31,AF31),{0,1,10,50,100,1000,10000},{0.0,2.36,2.0,2.0,1.71,1.16,1.03}),"")</f>
         <v>0</v>
       </c>
       <c r="AH31" s="18">
@@ -7766,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:50">
@@ -7801,10 +8247,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="17">
-        <v>2213</v>
+        <v>3921</v>
       </c>
       <c r="R32" s="18">
-        <f>iferror(lookup(if(Q32="",H32,Q32),{0,1,10,25,100,250,500,1000,2500,5000,10000},{0.0,0.44,0.353,0.3224,0.2175,0.18,0.165,0.12375,0.11625,0.10875,0.10125}),"")</f>
+        <f>iferror(lookup(if(Q32="",H32,Q32),{0,1,10,25,100,250,500,1000,3000,6000,15000},{0.0,0.46,0.376,0.344,0.232,0.192,0.176,0.132,0.124,0.116,0.108}),"")</f>
         <v>0</v>
       </c>
       <c r="S32" s="18">
@@ -7815,10 +8261,10 @@
         <v>220</v>
       </c>
       <c r="U32" s="17">
-        <v>4650</v>
+        <v>1315</v>
       </c>
       <c r="W32" s="18">
-        <f>iferror(USD_GBP*lookup(if(V32="",H32,V32),{0,1,5,10,50,100,250,500,1000,5000,10000},{0.0,0.235,0.235,0.235,0.172,0.108,0.102,0.0959,0.0899,0.0838,0.0778}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V32="",H32,V32),{0,1,5,10,100,150,500,1000,5000,10000},{0.0,0.402,0.402,0.294,0.135,0.135,0.111,0.087,0.084,0.0823}),"")</f>
         <v>0</v>
       </c>
       <c r="X32" s="18">
@@ -7829,16 +8275,24 @@
         <v>246</v>
       </c>
       <c r="AE32" s="17">
-        <v>8318</v>
+        <v>10279</v>
+      </c>
+      <c r="AG32" s="18">
+        <f>iferror(lookup(if(AF32="",H32,AF32),{0,1,10,50,100,1000,10000},{0.0,0.46,0.343,0.343,0.175,0.131,0.11}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="18">
+        <f>iferror(if(AF32="",H32,AF32)*AG32,"")</f>
+        <v>0</v>
       </c>
       <c r="AI32" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ32" s="20" t="s">
-        <v>201</v>
+        <v>284</v>
+      </c>
+      <c r="AJ32" s="17">
+        <v>1265</v>
       </c>
       <c r="AL32" s="18">
-        <f>iferror(lookup(if(AK32="",H32,AK32),{0,1,5,10,25,50,100,250,5000,6000,10000,12000,18000,30000},{0.0,0.44,0.44,0.353,0.322,0.27,0.217,0.18,0.166,0.147,0.101,0.133,0.124,0.114}),"")</f>
+        <f>iferror(lookup(if(AK32="",H32,AK32),{0,1,5,10,25,50,100},{0.0,0.46,0.46,0.343,0.287,0.231,0.175}),"")</f>
         <v>0</v>
       </c>
       <c r="AM32" s="18">
@@ -7846,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="AN32" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO32" s="17">
-        <v>4940</v>
+        <v>2874</v>
       </c>
       <c r="AQ32" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP32="",H32,AP32),{0,1,5000},{0.0,0.08,0.08}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP32="",H32,AP32),{0,1,3000},{0.0,0.085,0.085}),"")</f>
         <v>0</v>
       </c>
       <c r="AR32" s="18">
@@ -7895,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R33" s="18">
         <f>iferror(lookup(if(Q33="",H33,Q33),{0,1,5000},{0.0,0.15525,0.15525}),"")</f>
@@ -7908,11 +8362,25 @@
       <c r="T33" s="19" t="s">
         <v>221</v>
       </c>
+      <c r="U33" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="W33" s="18">
+        <f>iferror(USD_GBP*lookup(if(V33="",H33,V33),{0,1,5000},{0.0,0.117,0.117}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="18">
+        <f>iferror(if(V33="",H33,V33)*W33,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="19" t="s">
+        <v>247</v>
+      </c>
       <c r="AE33" s="17">
         <v>3643</v>
       </c>
       <c r="AG33" s="18">
-        <f>iferror(lookup(if(AF33="",H33,AF33),{0,1,10,100,500,1000,5000},{0.0,0.5,0.402,0.321,0.252,0.195,0.155}),"")</f>
+        <f>iferror(lookup(if(AF33="",H33,AF33),{0,1,10,50,100,1000,10000},{0.0,0.5,0.402,0.402,0.321,0.195,0.15}),"")</f>
         <v>0</v>
       </c>
       <c r="AH33" s="18">
@@ -7920,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:50">
@@ -7954,11 +8422,11 @@
         <f>iferror(H34*I34,"")</f>
         <v>0</v>
       </c>
-      <c r="P34" s="17">
-        <v>2943</v>
+      <c r="P34" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="R34" s="18">
-        <f>iferror(lookup(if(Q34="",H34,Q34),{0,1,10,25,100,250,500,1000,2500,5000},{0.0,3.21,2.885,2.7272,2.2422,2.01192,1.9392,1.61196,1.5756,1.5756}),"")</f>
+        <f>iferror(lookup(if(Q34="",H34,Q34),{0,1,10,25,100,250,500,1000,5000},{0.0,3.21,2.885,2.7272,2.2422,2.01192,1.9392,1.6968,1.6968}),"")</f>
         <v>0</v>
       </c>
       <c r="S34" s="18">
@@ -7968,11 +8436,11 @@
       <c r="T34" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="U34" s="17">
-        <v>8881</v>
+      <c r="U34" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="W34" s="18">
-        <f>iferror(USD_GBP*lookup(if(V34="",H34,V34),{0,1,10,25,50,100,250,500,1000},{0.0,2.84,2.13,2.01,1.88,1.76,1.58,1.51,1.26}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V34="",H34,V34),{0,1,10,25,50,100,250,500,1000},{0.0,2.76,2.07,1.95,1.83,1.71,1.53,1.47,1.22}),"")</f>
         <v>0</v>
       </c>
       <c r="X34" s="18">
@@ -7980,19 +8448,27 @@
         <v>0</v>
       </c>
       <c r="Y34" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AE34" s="17">
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="AG34" s="18">
+        <f>iferror(lookup(if(AF34="",H34,AF34),{0,1,10,50,100,1000,10000},{0.0,3.21,2.72,2.72,2.24,1.61,1.51}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="18">
+        <f>iferror(if(AF34="",H34,AF34)*AG34,"")</f>
+        <v>0</v>
       </c>
       <c r="AI34" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ34" s="17">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="AL34" s="18">
-        <f>iferror(lookup(if(AK34="",H34,AK34),{0,1,10,25,50,100,250,5000,10000},{0.0,1.17,1.17,1.17,1.17,1.17,1.17,1.48,1.45}),"")</f>
+        <f>iferror(lookup(if(AK34="",H34,AK34),{0,1,10,25,50,100,250,5000,10000},{0.0,3.21,2.72,2.56,2.4,2.24,2.01,1.48,1.45}),"")</f>
         <v>0</v>
       </c>
       <c r="AM34" s="18">
@@ -8000,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="AN34" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:50">
@@ -8034,8 +8510,8 @@
         <f>iferror(H35*I35,"")</f>
         <v>0</v>
       </c>
-      <c r="P35" s="17">
-        <v>120</v>
+      <c r="P35" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="R35" s="18">
         <f>iferror(lookup(if(Q35="",H35,Q35),{0,1},{0.0,3.2}),"")</f>
@@ -8049,13 +8525,21 @@
         <v>223</v>
       </c>
       <c r="AE35" s="17">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="AG35" s="18">
+        <f>iferror(lookup(if(AF35="",H35,AF35),{0,1,10,50,100,1000,10000},{0.0,3.2,3.2,3.2,3.2,3.2,3.2}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="18">
+        <f>iferror(if(AF35="",H35,AF35)*AG35,"")</f>
+        <v>0</v>
       </c>
       <c r="AI35" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AT35" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AV35" s="18">
         <f>iferror(lookup(if(AU35="",H35,AU35),{0,1,5,25,100},{0.0,4.1,3.85,3.6,3.35}),"")</f>
@@ -8101,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="17">
-        <v>4400</v>
+        <v>330</v>
       </c>
       <c r="R36" s="18">
         <f>iferror(lookup(if(Q36="",H36,Q36),{0,1,25,100,1500},{0.0,1.35,1.3044,1.2543,1.17521}),"")</f>
@@ -8115,7 +8599,7 @@
         <v>224</v>
       </c>
       <c r="U36" s="17">
-        <v>57</v>
+        <v>1436</v>
       </c>
       <c r="W36" s="18">
         <f>iferror(USD_GBP*lookup(if(V36="",H36,V36),{0,1,10,25,50,100,250,500,1000,2500},{0.0,1.24,1.24,1.14,1.06,1.04,1.02,1.01,0.996,0.981}),"")</f>
@@ -8126,16 +8610,24 @@
         <v>0</v>
       </c>
       <c r="Y36" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AE36" s="17">
-        <v>625</v>
+        <v>7328</v>
+      </c>
+      <c r="AG36" s="18">
+        <f>iferror(lookup(if(AF36="",H36,AF36),{0,1,10,50,100,1000,10000},{0.0,1.35,1.35,1.3,1.25,1.25,1.17}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="18">
+        <f>iferror(if(AF36="",H36,AF36)*AG36,"")</f>
+        <v>0</v>
       </c>
       <c r="AI36" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="AJ36" s="20" t="s">
-        <v>201</v>
+        <v>288</v>
+      </c>
+      <c r="AJ36" s="17">
+        <v>1436</v>
       </c>
       <c r="AL36" s="18">
         <f>iferror(lookup(if(AK36="",H36,AK36),{0,1,10,25,50,100},{0.0,1.72,1.6,1.5,1.4,1.3}),"")</f>
@@ -8146,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:50">
@@ -8181,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="17">
-        <v>8161</v>
+        <v>7318</v>
       </c>
       <c r="R37" s="18">
         <f>iferror(lookup(if(Q37="",H37,Q37),{0,1,10,25,100,250,500,1000,3000},{0.0,0.62,0.545,0.5116,0.3878,0.33,0.3135,0.23925,0.22275}),"")</f>
@@ -8195,19 +8687,27 @@
         <v>225</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Y37" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AE37" s="17">
         <v>3027</v>
       </c>
+      <c r="AG37" s="18">
+        <f>iferror(lookup(if(AF37="",H37,AF37),{0,1,10,50,100,1000,10000},{0.0,0.62,0.511,0.511,0.33,0.239,0.219}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="18">
+        <f>iferror(if(AF37="",H37,AF37)*AG37,"")</f>
+        <v>0</v>
+      </c>
       <c r="AI37" s="19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ37" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL37" s="18">
         <f>iferror(lookup(if(AK37="",H37,AK37),{0,1,3000,6000,12000,18000,30000},{0.0,0.285,0.285,0.264,0.246,0.229,0.219}),"")</f>
@@ -8218,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="AN37" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:50">
@@ -8252,11 +8752,11 @@
         <f>iferror(H38*I38,"")</f>
         <v>0</v>
       </c>
-      <c r="P38" s="17">
-        <v>223</v>
+      <c r="P38" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="R38" s="18">
-        <f>iferror(lookup(if(Q38="",H38,Q38),{0,1,25,100,2000},{0.0,6.06,5.3024,5.0551,5.005}),"")</f>
+        <f>iferror(lookup(if(Q38="",H38,Q38),{0,1,25,100,2000},{0.0,6.0,5.25,5.005,5.005}),"")</f>
         <v>0</v>
       </c>
       <c r="S38" s="18">
@@ -8267,10 +8767,18 @@
         <v>226</v>
       </c>
       <c r="AE38" s="17">
-        <v>1694</v>
+        <v>1388</v>
+      </c>
+      <c r="AG38" s="18">
+        <f>iferror(lookup(if(AF38="",H38,AF38),{0,1,10,50,100,1000,10000},{0.0,6.06,6.06,5.31,5.06,5.06,5.05}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="18">
+        <f>iferror(if(AF38="",H38,AF38)*AG38,"")</f>
+        <v>0</v>
       </c>
       <c r="AI38" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:50">
@@ -9537,1141 +10045,1480 @@
     <mergeCell ref="AT5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="expression" dxfId="3" priority="419">
+    <cfRule type="expression" dxfId="3" priority="426">
       <formula>AND(AA10&gt;0,AA10&lt;20)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="420" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="427" operator="greaterThan">
       <formula>Z10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11">
-    <cfRule type="expression" dxfId="3" priority="425">
+    <cfRule type="expression" dxfId="3" priority="432">
       <formula>AND(AA11&gt;0,AA11&lt;100)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="426" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="433" operator="greaterThan">
       <formula>Z11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="expression" dxfId="3" priority="431">
+    <cfRule type="expression" dxfId="3" priority="438">
       <formula>AND(AA12&gt;0,AA12&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="432" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="439" operator="greaterThan">
       <formula>Z12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="expression" dxfId="3" priority="437">
+    <cfRule type="expression" dxfId="3" priority="444">
       <formula>AND(AA13&gt;0,AA13&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="438" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="445" operator="greaterThan">
       <formula>Z13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14">
-    <cfRule type="expression" dxfId="3" priority="443">
+    <cfRule type="expression" dxfId="3" priority="450">
       <formula>AND(AA14&gt;0,AA14&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="444" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="451" operator="greaterThan">
       <formula>Z14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16">
-    <cfRule type="cellIs" dxfId="1" priority="449" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="456" operator="greaterThan">
       <formula>Z16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA23">
-    <cfRule type="expression" dxfId="3" priority="454">
+    <cfRule type="expression" dxfId="3" priority="461">
       <formula>AND(AA23&gt;0,AA23&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="455" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="462" operator="greaterThan">
       <formula>Z23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA26">
-    <cfRule type="expression" dxfId="3" priority="460">
+    <cfRule type="expression" dxfId="3" priority="467">
       <formula>AND(AA26&gt;0,AA26&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="461" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="468" operator="greaterThan">
       <formula>Z26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA28">
-    <cfRule type="expression" dxfId="3" priority="466">
+    <cfRule type="expression" dxfId="3" priority="473">
       <formula>AND(AA28&gt;0,AA28&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="467" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="474" operator="greaterThan">
       <formula>Z28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="cellIs" dxfId="4" priority="422" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="429" operator="lessThanOrEqual">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11">
+    <cfRule type="cellIs" dxfId="4" priority="435" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12">
+    <cfRule type="cellIs" dxfId="4" priority="441" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13">
+    <cfRule type="cellIs" dxfId="4" priority="447" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14">
+    <cfRule type="cellIs" dxfId="4" priority="453" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB16">
+    <cfRule type="cellIs" dxfId="4" priority="458" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB23">
+    <cfRule type="cellIs" dxfId="4" priority="464" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB26">
+    <cfRule type="cellIs" dxfId="4" priority="470" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB28">
+    <cfRule type="cellIs" dxfId="4" priority="476" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10">
     <cfRule type="cellIs" dxfId="4" priority="428" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB12">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11">
     <cfRule type="cellIs" dxfId="4" priority="434" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB13">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12">
     <cfRule type="cellIs" dxfId="4" priority="440" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB14">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC13">
     <cfRule type="cellIs" dxfId="4" priority="446" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB16">
-    <cfRule type="cellIs" dxfId="4" priority="451" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB23">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14">
+    <cfRule type="cellIs" dxfId="4" priority="452" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC16">
     <cfRule type="cellIs" dxfId="4" priority="457" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB26">
+      <formula>J16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC23">
     <cfRule type="cellIs" dxfId="4" priority="463" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB28">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC26">
     <cfRule type="cellIs" dxfId="4" priority="469" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC10">
-    <cfRule type="cellIs" dxfId="4" priority="421" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC11">
-    <cfRule type="cellIs" dxfId="4" priority="427" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
-    <cfRule type="cellIs" dxfId="4" priority="433" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC13">
-    <cfRule type="cellIs" dxfId="4" priority="439" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC14">
-    <cfRule type="cellIs" dxfId="4" priority="445" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC16">
-    <cfRule type="cellIs" dxfId="4" priority="450" operator="lessThanOrEqual">
-      <formula>J16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC23">
-    <cfRule type="cellIs" dxfId="4" priority="456" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC26">
-    <cfRule type="cellIs" dxfId="4" priority="462" operator="lessThanOrEqual">
       <formula>J26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC28">
-    <cfRule type="cellIs" dxfId="4" priority="468" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="475" operator="lessThanOrEqual">
       <formula>J28</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AE10">
+    <cfRule type="cellIs" dxfId="1" priority="492" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="493" operator="lessThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11">
+    <cfRule type="cellIs" dxfId="1" priority="497" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="498" operator="lessThan">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12">
+    <cfRule type="cellIs" dxfId="1" priority="502" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="503" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE13">
+    <cfRule type="cellIs" dxfId="1" priority="507" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="508" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AE14">
-    <cfRule type="cellIs" dxfId="1" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="512" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="471" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="513" operator="lessThan">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AE15">
+    <cfRule type="cellIs" dxfId="1" priority="517" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="518" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE16">
+    <cfRule type="cellIs" dxfId="1" priority="522" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="523" operator="lessThan">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AE17">
-    <cfRule type="cellIs" dxfId="1" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="527" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="476" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="528" operator="lessThan">
       <formula>H17</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AE18">
+    <cfRule type="cellIs" dxfId="1" priority="532" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="533" operator="lessThan">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AE21">
-    <cfRule type="cellIs" dxfId="1" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="537" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="481" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="538" operator="lessThan">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE22">
-    <cfRule type="cellIs" dxfId="1" priority="485" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="486" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
-    <cfRule type="cellIs" dxfId="1" priority="490" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="491" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="1" priority="495" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="496" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
-    <cfRule type="cellIs" dxfId="1" priority="500" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="501" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="1" priority="505" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="506" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
-    <cfRule type="cellIs" dxfId="1" priority="510" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="511" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="cellIs" dxfId="1" priority="515" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="516" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE33">
-    <cfRule type="cellIs" dxfId="1" priority="520" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="521" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="cellIs" dxfId="1" priority="472" operator="greaterThan">
-      <formula>AE14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF17">
-    <cfRule type="cellIs" dxfId="1" priority="477" operator="greaterThan">
-      <formula>AE17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
-    <cfRule type="cellIs" dxfId="1" priority="482" operator="greaterThan">
-      <formula>AE21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF22">
-    <cfRule type="cellIs" dxfId="1" priority="487" operator="greaterThan">
-      <formula>AE22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
-    <cfRule type="cellIs" dxfId="1" priority="492" operator="greaterThan">
-      <formula>AE24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="1" priority="497" operator="greaterThan">
-      <formula>AE25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
-    <cfRule type="cellIs" dxfId="1" priority="502" operator="greaterThan">
-      <formula>AE27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
-    <cfRule type="cellIs" dxfId="1" priority="507" operator="greaterThan">
-      <formula>AE28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF29">
-    <cfRule type="cellIs" dxfId="1" priority="512" operator="greaterThan">
-      <formula>AE29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
-    <cfRule type="cellIs" dxfId="1" priority="517" operator="greaterThan">
-      <formula>AE31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF33">
-    <cfRule type="cellIs" dxfId="1" priority="522" operator="greaterThan">
-      <formula>AE33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG14">
-    <cfRule type="cellIs" dxfId="4" priority="474" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG17">
-    <cfRule type="cellIs" dxfId="4" priority="479" operator="lessThanOrEqual">
-      <formula>I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="cellIs" dxfId="4" priority="484" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG22">
-    <cfRule type="cellIs" dxfId="4" priority="489" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
-    <cfRule type="cellIs" dxfId="4" priority="494" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG25">
-    <cfRule type="cellIs" dxfId="4" priority="499" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
-    <cfRule type="cellIs" dxfId="4" priority="504" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG28">
-    <cfRule type="cellIs" dxfId="4" priority="509" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG29">
-    <cfRule type="cellIs" dxfId="4" priority="514" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
-    <cfRule type="cellIs" dxfId="4" priority="519" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
-    <cfRule type="cellIs" dxfId="4" priority="524" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
-    <cfRule type="cellIs" dxfId="4" priority="473" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH17">
-    <cfRule type="cellIs" dxfId="4" priority="478" operator="lessThanOrEqual">
-      <formula>J17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH21">
-    <cfRule type="cellIs" dxfId="4" priority="483" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
-    <cfRule type="cellIs" dxfId="4" priority="488" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH24">
-    <cfRule type="cellIs" dxfId="4" priority="493" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH25">
-    <cfRule type="cellIs" dxfId="4" priority="498" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH27">
-    <cfRule type="cellIs" dxfId="4" priority="503" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH28">
-    <cfRule type="cellIs" dxfId="4" priority="508" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH29">
-    <cfRule type="cellIs" dxfId="4" priority="513" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31">
-    <cfRule type="cellIs" dxfId="4" priority="518" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH33">
-    <cfRule type="cellIs" dxfId="4" priority="523" operator="lessThanOrEqual">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ10">
-    <cfRule type="cellIs" dxfId="1" priority="536" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="537" operator="lessThan">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ11">
     <cfRule type="cellIs" dxfId="1" priority="542" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="543" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ12">
-    <cfRule type="cellIs" dxfId="1" priority="548" operator="equal">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="cellIs" dxfId="1" priority="547" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="549" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13">
-    <cfRule type="cellIs" dxfId="1" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="548" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="1" priority="552" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="555" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ14">
-    <cfRule type="cellIs" dxfId="1" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="553" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="1" priority="557" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="561" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ15">
-    <cfRule type="cellIs" dxfId="1" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="558" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="cellIs" dxfId="1" priority="562" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="567" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ16">
+    <cfRule type="cellIs" dxfId="2" priority="563" operator="lessThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="cellIs" dxfId="1" priority="567" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="568" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28">
     <cfRule type="cellIs" dxfId="1" priority="572" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="573" operator="lessThan">
-      <formula>H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ21">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29">
     <cfRule type="cellIs" dxfId="1" priority="577" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="578" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="1" priority="582" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="583" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="cellIs" dxfId="1" priority="587" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="588" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33">
+    <cfRule type="cellIs" dxfId="1" priority="592" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="593" operator="lessThan">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
+    <cfRule type="cellIs" dxfId="1" priority="597" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="598" operator="lessThan">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
+    <cfRule type="cellIs" dxfId="1" priority="602" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="603" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36">
+    <cfRule type="cellIs" dxfId="1" priority="607" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="608" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE37">
+    <cfRule type="cellIs" dxfId="1" priority="612" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="613" operator="lessThan">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE38">
+    <cfRule type="cellIs" dxfId="1" priority="617" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="618" operator="lessThan">
+      <formula>H38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7">
+    <cfRule type="cellIs" dxfId="1" priority="477" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="478" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="cellIs" dxfId="1" priority="482" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="483" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
+    <cfRule type="cellIs" dxfId="1" priority="487" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="488" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
+    <cfRule type="cellIs" dxfId="1" priority="494" operator="greaterThan">
+      <formula>AE10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11">
+    <cfRule type="cellIs" dxfId="1" priority="499" operator="greaterThan">
+      <formula>AE11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12">
+    <cfRule type="cellIs" dxfId="1" priority="504" operator="greaterThan">
+      <formula>AE12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13">
+    <cfRule type="cellIs" dxfId="1" priority="509" operator="greaterThan">
+      <formula>AE13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14">
+    <cfRule type="cellIs" dxfId="1" priority="514" operator="greaterThan">
+      <formula>AE14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="cellIs" dxfId="1" priority="519" operator="greaterThan">
+      <formula>AE15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF16">
+    <cfRule type="cellIs" dxfId="1" priority="524" operator="greaterThan">
+      <formula>AE16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF17">
+    <cfRule type="cellIs" dxfId="1" priority="529" operator="greaterThan">
+      <formula>AE17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF18">
+    <cfRule type="cellIs" dxfId="1" priority="534" operator="greaterThan">
+      <formula>AE18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF21">
+    <cfRule type="cellIs" dxfId="1" priority="539" operator="greaterThan">
+      <formula>AE21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF22">
+    <cfRule type="cellIs" dxfId="1" priority="544" operator="greaterThan">
+      <formula>AE22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF23">
+    <cfRule type="cellIs" dxfId="1" priority="549" operator="greaterThan">
+      <formula>AE23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24">
+    <cfRule type="cellIs" dxfId="1" priority="554" operator="greaterThan">
+      <formula>AE24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="cellIs" dxfId="1" priority="559" operator="greaterThan">
+      <formula>AE25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF26">
+    <cfRule type="cellIs" dxfId="1" priority="564" operator="greaterThan">
+      <formula>AE26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF27">
+    <cfRule type="cellIs" dxfId="1" priority="569" operator="greaterThan">
+      <formula>AE27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF28">
+    <cfRule type="cellIs" dxfId="1" priority="574" operator="greaterThan">
+      <formula>AE28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF29">
+    <cfRule type="cellIs" dxfId="1" priority="579" operator="greaterThan">
+      <formula>AE29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31">
+    <cfRule type="cellIs" dxfId="1" priority="584" operator="greaterThan">
+      <formula>AE31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF32">
+    <cfRule type="cellIs" dxfId="1" priority="589" operator="greaterThan">
+      <formula>AE32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33">
+    <cfRule type="cellIs" dxfId="1" priority="594" operator="greaterThan">
+      <formula>AE33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF34">
+    <cfRule type="cellIs" dxfId="1" priority="599" operator="greaterThan">
+      <formula>AE34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="cellIs" dxfId="1" priority="604" operator="greaterThan">
+      <formula>AE35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36">
+    <cfRule type="cellIs" dxfId="1" priority="609" operator="greaterThan">
+      <formula>AE36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF37">
+    <cfRule type="cellIs" dxfId="1" priority="614" operator="greaterThan">
+      <formula>AE37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF38">
+    <cfRule type="cellIs" dxfId="1" priority="619" operator="greaterThan">
+      <formula>AE38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7">
+    <cfRule type="cellIs" dxfId="1" priority="479" operator="greaterThan">
+      <formula>AE7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="cellIs" dxfId="1" priority="484" operator="greaterThan">
+      <formula>AE8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9">
+    <cfRule type="cellIs" dxfId="1" priority="489" operator="greaterThan">
+      <formula>AE9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="cellIs" dxfId="4" priority="496" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG11">
+    <cfRule type="cellIs" dxfId="4" priority="501" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG12">
+    <cfRule type="cellIs" dxfId="4" priority="506" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG13">
+    <cfRule type="cellIs" dxfId="4" priority="511" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14">
+    <cfRule type="cellIs" dxfId="4" priority="516" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15">
+    <cfRule type="cellIs" dxfId="4" priority="521" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG16">
+    <cfRule type="cellIs" dxfId="4" priority="526" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG17">
+    <cfRule type="cellIs" dxfId="4" priority="531" operator="lessThanOrEqual">
+      <formula>I17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG18">
+    <cfRule type="cellIs" dxfId="4" priority="536" operator="lessThanOrEqual">
+      <formula>I18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG21">
+    <cfRule type="cellIs" dxfId="4" priority="541" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22">
+    <cfRule type="cellIs" dxfId="4" priority="546" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG23">
+    <cfRule type="cellIs" dxfId="4" priority="551" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="cellIs" dxfId="4" priority="556" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="cellIs" dxfId="4" priority="561" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG26">
+    <cfRule type="cellIs" dxfId="4" priority="566" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG27">
+    <cfRule type="cellIs" dxfId="4" priority="571" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG28">
+    <cfRule type="cellIs" dxfId="4" priority="576" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG29">
+    <cfRule type="cellIs" dxfId="4" priority="581" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG31">
+    <cfRule type="cellIs" dxfId="4" priority="586" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG32">
+    <cfRule type="cellIs" dxfId="4" priority="591" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33">
+    <cfRule type="cellIs" dxfId="4" priority="596" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG34">
+    <cfRule type="cellIs" dxfId="4" priority="601" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG35">
+    <cfRule type="cellIs" dxfId="4" priority="606" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36">
+    <cfRule type="cellIs" dxfId="4" priority="611" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG37">
+    <cfRule type="cellIs" dxfId="4" priority="616" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG38">
+    <cfRule type="cellIs" dxfId="4" priority="621" operator="lessThanOrEqual">
+      <formula>I38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7">
+    <cfRule type="cellIs" dxfId="4" priority="481" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="4" priority="486" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="4" priority="491" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH10">
+    <cfRule type="cellIs" dxfId="4" priority="495" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="cellIs" dxfId="4" priority="500" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH12">
+    <cfRule type="cellIs" dxfId="4" priority="505" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="cellIs" dxfId="4" priority="510" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14">
+    <cfRule type="cellIs" dxfId="4" priority="515" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="cellIs" dxfId="4" priority="520" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH16">
+    <cfRule type="cellIs" dxfId="4" priority="525" operator="lessThanOrEqual">
+      <formula>J16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH17">
+    <cfRule type="cellIs" dxfId="4" priority="530" operator="lessThanOrEqual">
+      <formula>J17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH18">
+    <cfRule type="cellIs" dxfId="4" priority="535" operator="lessThanOrEqual">
+      <formula>J18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="cellIs" dxfId="4" priority="540" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH22">
+    <cfRule type="cellIs" dxfId="4" priority="545" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="cellIs" dxfId="4" priority="550" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24">
+    <cfRule type="cellIs" dxfId="4" priority="555" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="cellIs" dxfId="4" priority="560" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH26">
+    <cfRule type="cellIs" dxfId="4" priority="565" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27">
+    <cfRule type="cellIs" dxfId="4" priority="570" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH28">
+    <cfRule type="cellIs" dxfId="4" priority="575" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="cellIs" dxfId="4" priority="580" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31">
+    <cfRule type="cellIs" dxfId="4" priority="585" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32">
+    <cfRule type="cellIs" dxfId="4" priority="590" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
+    <cfRule type="cellIs" dxfId="4" priority="595" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34">
+    <cfRule type="cellIs" dxfId="4" priority="600" operator="lessThanOrEqual">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36">
+    <cfRule type="cellIs" dxfId="4" priority="610" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH37">
+    <cfRule type="cellIs" dxfId="4" priority="615" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH38">
+    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
+      <formula>J38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="cellIs" dxfId="4" priority="480" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH8">
+    <cfRule type="cellIs" dxfId="4" priority="485" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="cellIs" dxfId="4" priority="490" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ10">
+    <cfRule type="cellIs" dxfId="1" priority="628" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="629" operator="lessThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ11">
+    <cfRule type="cellIs" dxfId="1" priority="634" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="635" operator="lessThan">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ12">
+    <cfRule type="cellIs" dxfId="1" priority="640" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="641" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13">
+    <cfRule type="cellIs" dxfId="1" priority="646" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="647" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ14">
+    <cfRule type="cellIs" dxfId="1" priority="652" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="653" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ15">
+    <cfRule type="cellIs" dxfId="1" priority="658" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="659" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ16">
+    <cfRule type="cellIs" dxfId="1" priority="664" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="665" operator="lessThan">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ21">
+    <cfRule type="cellIs" dxfId="1" priority="669" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="670" operator="lessThan">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ23">
-    <cfRule type="cellIs" dxfId="1" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="675" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="584" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="676" operator="lessThan">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ29">
-    <cfRule type="cellIs" dxfId="1" priority="588" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="589" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AJ32">
-    <cfRule type="cellIs" dxfId="1" priority="594" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="595" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ34">
-    <cfRule type="cellIs" dxfId="1" priority="600" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="601" operator="lessThan">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ36">
-    <cfRule type="cellIs" dxfId="1" priority="605" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="606" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ37">
-    <cfRule type="cellIs" dxfId="1" priority="610" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="611" operator="lessThan">
-      <formula>H37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ7">
-    <cfRule type="cellIs" dxfId="1" priority="525" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="526" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9">
-    <cfRule type="cellIs" dxfId="1" priority="530" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="531" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK10">
-    <cfRule type="expression" dxfId="3" priority="538">
-      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="539" operator="greaterThan">
-      <formula>AJ10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK11">
-    <cfRule type="expression" dxfId="3" priority="544">
-      <formula>AND(AK11&gt;0,AK11&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="545" operator="greaterThan">
-      <formula>AJ11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK12">
-    <cfRule type="expression" dxfId="3" priority="550">
-      <formula>AND(AK12&gt;0,AK12&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="551" operator="greaterThan">
-      <formula>AJ12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13">
-    <cfRule type="expression" dxfId="3" priority="556">
-      <formula>AND(AK13&gt;0,AK13&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="557" operator="greaterThan">
-      <formula>AJ13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14">
-    <cfRule type="expression" dxfId="3" priority="562">
-      <formula>AND(AK14&gt;0,AK14&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="563" operator="greaterThan">
-      <formula>AJ14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK15">
-    <cfRule type="expression" dxfId="3" priority="568">
-      <formula>AND(AK15&gt;0,AK15&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="569" operator="greaterThan">
-      <formula>AJ15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK16">
-    <cfRule type="cellIs" dxfId="1" priority="574" operator="greaterThan">
-      <formula>AJ16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK21">
-    <cfRule type="expression" dxfId="3" priority="579">
-      <formula>AND(AK21&gt;0,AK21&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="580" operator="greaterThan">
-      <formula>AJ21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK23">
-    <cfRule type="cellIs" dxfId="1" priority="585" operator="greaterThan">
-      <formula>AJ23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK29">
-    <cfRule type="expression" dxfId="3" priority="590">
-      <formula>AND(AK29&gt;0,AK29&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="591" operator="greaterThan">
-      <formula>AJ29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK32">
-    <cfRule type="expression" dxfId="3" priority="596">
-      <formula>AND(AK32&gt;0,AK32&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="597" operator="greaterThan">
-      <formula>AJ32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK34">
-    <cfRule type="cellIs" dxfId="1" priority="602" operator="greaterThan">
-      <formula>AJ34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK36">
-    <cfRule type="cellIs" dxfId="1" priority="607" operator="greaterThan">
-      <formula>AJ36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK37">
-    <cfRule type="expression" dxfId="3" priority="612">
-      <formula>AND(AK37&gt;0,AK37&lt;3000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="613" operator="greaterThan">
-      <formula>AJ37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK7">
-    <cfRule type="cellIs" dxfId="1" priority="527" operator="greaterThan">
-      <formula>AJ7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK9">
-    <cfRule type="expression" dxfId="3" priority="532">
-      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="533" operator="greaterThan">
-      <formula>AJ9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL10">
-    <cfRule type="cellIs" dxfId="4" priority="541" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL11">
-    <cfRule type="cellIs" dxfId="4" priority="547" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL12">
-    <cfRule type="cellIs" dxfId="4" priority="553" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL13">
-    <cfRule type="cellIs" dxfId="4" priority="559" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14">
-    <cfRule type="cellIs" dxfId="4" priority="565" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL15">
-    <cfRule type="cellIs" dxfId="4" priority="571" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL16">
-    <cfRule type="cellIs" dxfId="4" priority="576" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL21">
-    <cfRule type="cellIs" dxfId="4" priority="582" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL23">
-    <cfRule type="cellIs" dxfId="4" priority="587" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL29">
-    <cfRule type="cellIs" dxfId="4" priority="593" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL32">
-    <cfRule type="cellIs" dxfId="4" priority="599" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL34">
-    <cfRule type="cellIs" dxfId="4" priority="604" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL36">
-    <cfRule type="cellIs" dxfId="4" priority="609" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL37">
-    <cfRule type="cellIs" dxfId="4" priority="615" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL7">
-    <cfRule type="cellIs" dxfId="4" priority="529" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL9">
-    <cfRule type="cellIs" dxfId="4" priority="535" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM10">
-    <cfRule type="cellIs" dxfId="4" priority="540" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM11">
-    <cfRule type="cellIs" dxfId="4" priority="546" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM12">
-    <cfRule type="cellIs" dxfId="4" priority="552" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM13">
-    <cfRule type="cellIs" dxfId="4" priority="558" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM14">
-    <cfRule type="cellIs" dxfId="4" priority="564" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM15">
-    <cfRule type="cellIs" dxfId="4" priority="570" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM16">
-    <cfRule type="cellIs" dxfId="4" priority="575" operator="lessThanOrEqual">
-      <formula>J16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM21">
-    <cfRule type="cellIs" dxfId="4" priority="581" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM23">
-    <cfRule type="cellIs" dxfId="4" priority="586" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM29">
-    <cfRule type="cellIs" dxfId="4" priority="592" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM32">
-    <cfRule type="cellIs" dxfId="4" priority="598" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM34">
-    <cfRule type="cellIs" dxfId="4" priority="603" operator="lessThanOrEqual">
-      <formula>J34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM36">
-    <cfRule type="cellIs" dxfId="4" priority="608" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM37">
-    <cfRule type="cellIs" dxfId="4" priority="614" operator="lessThanOrEqual">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM7">
-    <cfRule type="cellIs" dxfId="4" priority="528" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM9">
-    <cfRule type="cellIs" dxfId="4" priority="534" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO14">
-    <cfRule type="cellIs" dxfId="1" priority="621" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="622" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO16">
-    <cfRule type="cellIs" dxfId="1" priority="627" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="628" operator="lessThan">
-      <formula>H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO18">
-    <cfRule type="cellIs" dxfId="1" priority="633" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="634" operator="lessThan">
-      <formula>H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO23">
-    <cfRule type="cellIs" dxfId="1" priority="638" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="639" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO25">
-    <cfRule type="cellIs" dxfId="1" priority="644" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="645" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO26">
-    <cfRule type="cellIs" dxfId="1" priority="650" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="651" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO28">
-    <cfRule type="cellIs" dxfId="1" priority="656" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="657" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO29">
-    <cfRule type="cellIs" dxfId="1" priority="662" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="663" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO32">
-    <cfRule type="cellIs" dxfId="1" priority="668" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="669" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO7">
-    <cfRule type="cellIs" dxfId="1" priority="616" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="617" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP14">
-    <cfRule type="expression" dxfId="3" priority="623">
-      <formula>AND(AP14&gt;0,AP14&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="624" operator="greaterThan">
-      <formula>AO14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP16">
-    <cfRule type="expression" dxfId="3" priority="629">
-      <formula>AND(AP16&gt;0,AP16&lt;25)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="630" operator="greaterThan">
-      <formula>AO16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP18">
-    <cfRule type="cellIs" dxfId="1" priority="635" operator="greaterThan">
-      <formula>AO18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP23">
-    <cfRule type="expression" dxfId="3" priority="640">
-      <formula>AND(AP23&gt;0,AP23&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="641" operator="greaterThan">
-      <formula>AO23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP25">
-    <cfRule type="expression" dxfId="3" priority="646">
-      <formula>AND(AP25&gt;0,AP25&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="647" operator="greaterThan">
-      <formula>AO25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP26">
-    <cfRule type="expression" dxfId="3" priority="652">
-      <formula>AND(AP26&gt;0,AP26&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="653" operator="greaterThan">
-      <formula>AO26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP28">
-    <cfRule type="expression" dxfId="3" priority="658">
-      <formula>AND(AP28&gt;0,AP28&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="659" operator="greaterThan">
-      <formula>AO28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP29">
-    <cfRule type="expression" dxfId="3" priority="664">
-      <formula>AND(AP29&gt;0,AP29&lt;5000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="665" operator="greaterThan">
-      <formula>AO29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP32">
-    <cfRule type="expression" dxfId="3" priority="670">
-      <formula>AND(AP32&gt;0,AP32&lt;5000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="671" operator="greaterThan">
-      <formula>AO32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP7">
-    <cfRule type="cellIs" dxfId="1" priority="618" operator="greaterThan">
-      <formula>AO7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ14">
-    <cfRule type="cellIs" dxfId="4" priority="626" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ16">
-    <cfRule type="cellIs" dxfId="4" priority="632" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ18">
-    <cfRule type="cellIs" dxfId="4" priority="637" operator="lessThanOrEqual">
-      <formula>I18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ23">
-    <cfRule type="cellIs" dxfId="4" priority="643" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
-    <cfRule type="cellIs" dxfId="4" priority="649" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ26">
-    <cfRule type="cellIs" dxfId="4" priority="655" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28">
-    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29">
-    <cfRule type="cellIs" dxfId="4" priority="667" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ32">
-    <cfRule type="cellIs" dxfId="4" priority="673" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ7">
-    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR14">
-    <cfRule type="cellIs" dxfId="4" priority="625" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR16">
-    <cfRule type="cellIs" dxfId="4" priority="631" operator="lessThanOrEqual">
-      <formula>J16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR18">
-    <cfRule type="cellIs" dxfId="4" priority="636" operator="lessThanOrEqual">
-      <formula>J18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR23">
-    <cfRule type="cellIs" dxfId="4" priority="642" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
-    <cfRule type="cellIs" dxfId="4" priority="648" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR26">
-    <cfRule type="cellIs" dxfId="4" priority="654" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR28">
-    <cfRule type="cellIs" dxfId="4" priority="660" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR29">
-    <cfRule type="cellIs" dxfId="4" priority="666" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR32">
-    <cfRule type="cellIs" dxfId="4" priority="672" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR7">
-    <cfRule type="cellIs" dxfId="4" priority="619" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT17">
     <cfRule type="cellIs" dxfId="1" priority="680" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="681" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ34">
+    <cfRule type="cellIs" dxfId="1" priority="686" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="687" operator="lessThan">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ36">
+    <cfRule type="cellIs" dxfId="1" priority="691" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="692" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ37">
+    <cfRule type="cellIs" dxfId="1" priority="696" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="697" operator="lessThan">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9">
+    <cfRule type="cellIs" dxfId="1" priority="622" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="623" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10">
+    <cfRule type="expression" dxfId="3" priority="630">
+      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="631" operator="greaterThan">
+      <formula>AJ10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11">
+    <cfRule type="expression" dxfId="3" priority="636">
+      <formula>AND(AK11&gt;0,AK11&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="637" operator="greaterThan">
+      <formula>AJ11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK12">
+    <cfRule type="expression" dxfId="3" priority="642">
+      <formula>AND(AK12&gt;0,AK12&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="643" operator="greaterThan">
+      <formula>AJ12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="expression" dxfId="3" priority="648">
+      <formula>AND(AK13&gt;0,AK13&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="649" operator="greaterThan">
+      <formula>AJ13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="expression" dxfId="3" priority="654">
+      <formula>AND(AK14&gt;0,AK14&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="655" operator="greaterThan">
+      <formula>AJ14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK15">
+    <cfRule type="expression" dxfId="3" priority="660">
+      <formula>AND(AK15&gt;0,AK15&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="661" operator="greaterThan">
+      <formula>AJ15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK16">
+    <cfRule type="cellIs" dxfId="1" priority="666" operator="greaterThan">
+      <formula>AJ16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK21">
+    <cfRule type="expression" dxfId="3" priority="671">
+      <formula>AND(AK21&gt;0,AK21&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="672" operator="greaterThan">
+      <formula>AJ21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK23">
+    <cfRule type="cellIs" dxfId="1" priority="677" operator="greaterThan">
+      <formula>AJ23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK32">
+    <cfRule type="expression" dxfId="3" priority="682">
+      <formula>AND(AK32&gt;0,AK32&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="683" operator="greaterThan">
+      <formula>AJ32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK34">
+    <cfRule type="cellIs" dxfId="1" priority="688" operator="greaterThan">
+      <formula>AJ34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK36">
+    <cfRule type="cellIs" dxfId="1" priority="693" operator="greaterThan">
+      <formula>AJ36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK37">
+    <cfRule type="expression" dxfId="3" priority="698">
+      <formula>AND(AK37&gt;0,AK37&lt;3000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="699" operator="greaterThan">
+      <formula>AJ37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK9">
+    <cfRule type="expression" dxfId="3" priority="624">
+      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="625" operator="greaterThan">
+      <formula>AJ9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="cellIs" dxfId="4" priority="633" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL11">
+    <cfRule type="cellIs" dxfId="4" priority="639" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL12">
+    <cfRule type="cellIs" dxfId="4" priority="645" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL13">
+    <cfRule type="cellIs" dxfId="4" priority="651" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL14">
+    <cfRule type="cellIs" dxfId="4" priority="657" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL15">
+    <cfRule type="cellIs" dxfId="4" priority="663" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL16">
+    <cfRule type="cellIs" dxfId="4" priority="668" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL21">
+    <cfRule type="cellIs" dxfId="4" priority="674" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL23">
+    <cfRule type="cellIs" dxfId="4" priority="679" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL32">
+    <cfRule type="cellIs" dxfId="4" priority="685" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL34">
+    <cfRule type="cellIs" dxfId="4" priority="690" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL36">
+    <cfRule type="cellIs" dxfId="4" priority="695" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL37">
+    <cfRule type="cellIs" dxfId="4" priority="701" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL9">
+    <cfRule type="cellIs" dxfId="4" priority="627" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10">
+    <cfRule type="cellIs" dxfId="4" priority="632" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM11">
+    <cfRule type="cellIs" dxfId="4" priority="638" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12">
+    <cfRule type="cellIs" dxfId="4" priority="644" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM13">
+    <cfRule type="cellIs" dxfId="4" priority="650" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14">
+    <cfRule type="cellIs" dxfId="4" priority="656" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM15">
+    <cfRule type="cellIs" dxfId="4" priority="662" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM16">
+    <cfRule type="cellIs" dxfId="4" priority="667" operator="lessThanOrEqual">
+      <formula>J16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM21">
+    <cfRule type="cellIs" dxfId="4" priority="673" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM23">
+    <cfRule type="cellIs" dxfId="4" priority="678" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM32">
+    <cfRule type="cellIs" dxfId="4" priority="684" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM34">
+    <cfRule type="cellIs" dxfId="4" priority="689" operator="lessThanOrEqual">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM36">
+    <cfRule type="cellIs" dxfId="4" priority="694" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM37">
+    <cfRule type="cellIs" dxfId="4" priority="700" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM9">
+    <cfRule type="cellIs" dxfId="4" priority="626" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO14">
+    <cfRule type="cellIs" dxfId="1" priority="707" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="708" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO16">
+    <cfRule type="cellIs" dxfId="1" priority="713" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="714" operator="lessThan">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO18">
+    <cfRule type="cellIs" dxfId="1" priority="719" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="720" operator="lessThan">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO23">
+    <cfRule type="cellIs" dxfId="1" priority="724" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="725" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO25">
+    <cfRule type="cellIs" dxfId="1" priority="730" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="731" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO26">
+    <cfRule type="cellIs" dxfId="1" priority="736" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="737" operator="lessThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO28">
+    <cfRule type="cellIs" dxfId="1" priority="742" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="743" operator="lessThan">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO32">
+    <cfRule type="cellIs" dxfId="1" priority="748" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="749" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO7">
+    <cfRule type="cellIs" dxfId="1" priority="702" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="703" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP14">
+    <cfRule type="expression" dxfId="3" priority="709">
+      <formula>AND(AP14&gt;0,AP14&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="710" operator="greaterThan">
+      <formula>AO14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP16">
+    <cfRule type="expression" dxfId="3" priority="715">
+      <formula>AND(AP16&gt;0,AP16&lt;25)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="716" operator="greaterThan">
+      <formula>AO16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP18">
+    <cfRule type="cellIs" dxfId="1" priority="721" operator="greaterThan">
+      <formula>AO18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP23">
+    <cfRule type="expression" dxfId="3" priority="726">
+      <formula>AND(AP23&gt;0,AP23&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="727" operator="greaterThan">
+      <formula>AO23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25">
+    <cfRule type="expression" dxfId="3" priority="732">
+      <formula>AND(AP25&gt;0,AP25&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="733" operator="greaterThan">
+      <formula>AO25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP26">
+    <cfRule type="expression" dxfId="3" priority="738">
+      <formula>AND(AP26&gt;0,AP26&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="739" operator="greaterThan">
+      <formula>AO26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP28">
+    <cfRule type="expression" dxfId="3" priority="744">
+      <formula>AND(AP28&gt;0,AP28&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="745" operator="greaterThan">
+      <formula>AO28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP32">
+    <cfRule type="expression" dxfId="3" priority="750">
+      <formula>AND(AP32&gt;0,AP32&lt;3000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="751" operator="greaterThan">
+      <formula>AO32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP7">
+    <cfRule type="cellIs" dxfId="1" priority="704" operator="greaterThan">
+      <formula>AO7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ14">
+    <cfRule type="cellIs" dxfId="4" priority="712" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ16">
+    <cfRule type="cellIs" dxfId="4" priority="718" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ18">
+    <cfRule type="cellIs" dxfId="4" priority="723" operator="lessThanOrEqual">
+      <formula>I18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ23">
+    <cfRule type="cellIs" dxfId="4" priority="729" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="4" priority="735" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ26">
+    <cfRule type="cellIs" dxfId="4" priority="741" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ28">
+    <cfRule type="cellIs" dxfId="4" priority="747" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ32">
+    <cfRule type="cellIs" dxfId="4" priority="753" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ7">
+    <cfRule type="cellIs" dxfId="4" priority="706" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR14">
+    <cfRule type="cellIs" dxfId="4" priority="711" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR16">
+    <cfRule type="cellIs" dxfId="4" priority="717" operator="lessThanOrEqual">
+      <formula>J16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR18">
+    <cfRule type="cellIs" dxfId="4" priority="722" operator="lessThanOrEqual">
+      <formula>J18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR23">
+    <cfRule type="cellIs" dxfId="4" priority="728" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR25">
+    <cfRule type="cellIs" dxfId="4" priority="734" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR26">
+    <cfRule type="cellIs" dxfId="4" priority="740" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR28">
+    <cfRule type="cellIs" dxfId="4" priority="746" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR32">
+    <cfRule type="cellIs" dxfId="4" priority="752" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR7">
+    <cfRule type="cellIs" dxfId="4" priority="705" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT17">
+    <cfRule type="cellIs" dxfId="1" priority="760" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="761" operator="lessThan">
       <formula>H17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT35">
-    <cfRule type="cellIs" dxfId="1" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="765" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="686" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="766" operator="lessThan">
       <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT7">
-    <cfRule type="cellIs" dxfId="1" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="754" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="675" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="755" operator="lessThan">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU17">
-    <cfRule type="cellIs" dxfId="1" priority="682" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="762" operator="greaterThan">
       <formula>AT17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU35">
-    <cfRule type="cellIs" dxfId="1" priority="687" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="767" operator="greaterThan">
       <formula>AT35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU7">
-    <cfRule type="expression" dxfId="3" priority="676">
+    <cfRule type="expression" dxfId="3" priority="756">
       <formula>AND(AU7&gt;0,AU7&lt;1800)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="677" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="757" operator="greaterThan">
       <formula>AT7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV17">
-    <cfRule type="cellIs" dxfId="4" priority="684" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="764" operator="lessThanOrEqual">
       <formula>I17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV35">
-    <cfRule type="cellIs" dxfId="4" priority="689" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="769" operator="lessThanOrEqual">
       <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7">
-    <cfRule type="cellIs" dxfId="4" priority="679" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="759" operator="lessThanOrEqual">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW17">
-    <cfRule type="cellIs" dxfId="4" priority="683" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="763" operator="lessThanOrEqual">
       <formula>J17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW35">
-    <cfRule type="cellIs" dxfId="4" priority="688" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="768" operator="lessThanOrEqual">
       <formula>J35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW7">
-    <cfRule type="cellIs" dxfId="4" priority="678" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="758" operator="lessThanOrEqual">
       <formula>J7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11298,74 +12145,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="cellIs" dxfId="1" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="251" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="251" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="252" operator="lessThan">
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="cellIs" dxfId="1" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="256" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="256" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="257" operator="lessThan">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32">
-    <cfRule type="cellIs" dxfId="1" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="261" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="261" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="262" operator="lessThan">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33">
-    <cfRule type="cellIs" dxfId="1" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="266" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="266" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="267" operator="lessThan">
       <formula>H33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34">
-    <cfRule type="cellIs" dxfId="1" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="272" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="272" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="273" operator="lessThan">
       <formula>H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35">
-    <cfRule type="cellIs" dxfId="1" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="277" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="277" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="278" operator="lessThan">
       <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36">
-    <cfRule type="cellIs" dxfId="1" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="282" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="282" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="283" operator="lessThan">
       <formula>H36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37">
-    <cfRule type="cellIs" dxfId="1" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="287" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="287" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="288" operator="lessThan">
       <formula>H37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38">
-    <cfRule type="cellIs" dxfId="1" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="292" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="292" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="293" operator="lessThan">
       <formula>H38</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11495,55 +12342,58 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="cellIs" dxfId="1" priority="247" operator="greaterThan">
+    <cfRule type="expression" dxfId="3" priority="247">
+      <formula>AND(Q29&gt;0,Q29&lt;3000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="248" operator="greaterThan">
       <formula>P29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="cellIs" dxfId="1" priority="252" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="253" operator="greaterThan">
       <formula>P30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31">
-    <cfRule type="cellIs" dxfId="1" priority="257" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="258" operator="greaterThan">
       <formula>P31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32">
-    <cfRule type="cellIs" dxfId="1" priority="262" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="263" operator="greaterThan">
       <formula>P32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q33">
-    <cfRule type="expression" dxfId="3" priority="267">
+    <cfRule type="expression" dxfId="3" priority="268">
       <formula>AND(Q33&gt;0,Q33&lt;5000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="268" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="269" operator="greaterThan">
       <formula>P33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="cellIs" dxfId="1" priority="273" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="274" operator="greaterThan">
       <formula>P34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="cellIs" dxfId="1" priority="278" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="279" operator="greaterThan">
       <formula>P35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36">
-    <cfRule type="cellIs" dxfId="1" priority="283" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="284" operator="greaterThan">
       <formula>P36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37">
-    <cfRule type="cellIs" dxfId="1" priority="288" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="289" operator="greaterThan">
       <formula>P37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38">
-    <cfRule type="cellIs" dxfId="1" priority="293" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="294" operator="greaterThan">
       <formula>P38</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11658,52 +12508,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29">
-    <cfRule type="cellIs" dxfId="4" priority="249" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="250" operator="lessThanOrEqual">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R30">
-    <cfRule type="cellIs" dxfId="4" priority="254" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="255" operator="lessThanOrEqual">
       <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R31">
-    <cfRule type="cellIs" dxfId="4" priority="259" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="260" operator="lessThanOrEqual">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" dxfId="4" priority="264" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="265" operator="lessThanOrEqual">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33">
-    <cfRule type="cellIs" dxfId="4" priority="270" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="271" operator="lessThanOrEqual">
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34">
-    <cfRule type="cellIs" dxfId="4" priority="275" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="276" operator="lessThanOrEqual">
       <formula>I34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R35">
-    <cfRule type="cellIs" dxfId="4" priority="280" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="281" operator="lessThanOrEqual">
       <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R36">
-    <cfRule type="cellIs" dxfId="4" priority="285" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="286" operator="lessThanOrEqual">
       <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R37">
-    <cfRule type="cellIs" dxfId="4" priority="290" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="291" operator="lessThanOrEqual">
       <formula>I37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R38">
-    <cfRule type="cellIs" dxfId="4" priority="295" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="296" operator="lessThanOrEqual">
       <formula>I38</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11818,52 +12668,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29">
-    <cfRule type="cellIs" dxfId="4" priority="248" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="249" operator="lessThanOrEqual">
       <formula>J29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30">
-    <cfRule type="cellIs" dxfId="4" priority="253" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="254" operator="lessThanOrEqual">
       <formula>J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31">
-    <cfRule type="cellIs" dxfId="4" priority="258" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="259" operator="lessThanOrEqual">
       <formula>J31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32">
-    <cfRule type="cellIs" dxfId="4" priority="263" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="264" operator="lessThanOrEqual">
       <formula>J32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33">
-    <cfRule type="cellIs" dxfId="4" priority="269" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="270" operator="lessThanOrEqual">
       <formula>J33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34">
-    <cfRule type="cellIs" dxfId="4" priority="274" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="275" operator="lessThanOrEqual">
       <formula>J34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S35">
-    <cfRule type="cellIs" dxfId="4" priority="279" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="280" operator="lessThanOrEqual">
       <formula>J35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S36">
-    <cfRule type="cellIs" dxfId="4" priority="284" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="285" operator="lessThanOrEqual">
       <formula>J36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S37">
-    <cfRule type="cellIs" dxfId="4" priority="289" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="290" operator="lessThanOrEqual">
       <formula>J37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38">
-    <cfRule type="cellIs" dxfId="4" priority="294" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="295" operator="lessThanOrEqual">
       <formula>J38</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11883,605 +12733,631 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="1" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="308" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="308" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="309" operator="lessThan">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="1" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="314" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="314" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="315" operator="lessThan">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="cellIs" dxfId="1" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="320" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="320" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="321" operator="lessThan">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="cellIs" dxfId="1" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="326" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="326" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="327" operator="lessThan">
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="1" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="332" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="332" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="333" operator="lessThan">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15">
-    <cfRule type="cellIs" dxfId="1" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="338" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="338" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="339" operator="lessThan">
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U16">
-    <cfRule type="cellIs" dxfId="1" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="344" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="344" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="345" operator="lessThan">
       <formula>H16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17">
-    <cfRule type="cellIs" dxfId="1" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="349" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="349" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="350" operator="lessThan">
       <formula>H17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U21">
-    <cfRule type="cellIs" dxfId="1" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="354" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="354" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="355" operator="lessThan">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="1" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="360" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="360" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="361" operator="lessThan">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24">
-    <cfRule type="cellIs" dxfId="1" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="366" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="366" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="367" operator="lessThan">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25">
-    <cfRule type="cellIs" dxfId="1" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="372" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="372" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="373" operator="lessThan">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="1" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="378" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="378" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="379" operator="lessThan">
       <formula>H26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="1" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="384" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="384" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="385" operator="lessThan">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="1" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="390" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="390" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="391" operator="lessThan">
       <formula>H28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="1" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="396" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="396" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="397" operator="lessThan">
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="1" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="402" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="402" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="403" operator="lessThan">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U33">
+    <cfRule type="cellIs" dxfId="1" priority="408" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="409" operator="lessThan">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U34">
-    <cfRule type="cellIs" dxfId="1" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="414" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="408" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="415" operator="lessThan">
       <formula>H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U36">
-    <cfRule type="cellIs" dxfId="1" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="419" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="413" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="420" operator="lessThan">
       <formula>H36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="cellIs" dxfId="1" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="297" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="297" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="298" operator="lessThan">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="1" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="302" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="302" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="303" operator="lessThan">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="expression" dxfId="3" priority="309">
+    <cfRule type="expression" dxfId="3" priority="310">
       <formula>AND(V10&gt;0,V10&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="310" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="311" operator="greaterThan">
       <formula>U10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="expression" dxfId="3" priority="315">
+    <cfRule type="expression" dxfId="3" priority="316">
       <formula>AND(V11&gt;0,V11&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="316" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="317" operator="greaterThan">
       <formula>U11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="3" priority="321">
+    <cfRule type="expression" dxfId="3" priority="322">
       <formula>AND(V12&gt;0,V12&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="322" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="323" operator="greaterThan">
       <formula>U12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13">
-    <cfRule type="expression" dxfId="3" priority="327">
+    <cfRule type="expression" dxfId="3" priority="328">
       <formula>AND(V13&gt;0,V13&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="328" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="329" operator="greaterThan">
       <formula>U13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="expression" dxfId="3" priority="333">
+    <cfRule type="expression" dxfId="3" priority="334">
       <formula>AND(V14&gt;0,V14&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="334" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="335" operator="greaterThan">
       <formula>U14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="expression" dxfId="3" priority="339">
+    <cfRule type="expression" dxfId="3" priority="340">
       <formula>AND(V15&gt;0,V15&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="340" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="341" operator="greaterThan">
       <formula>U15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="1" priority="345" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="346" operator="greaterThan">
       <formula>U16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
-    <cfRule type="cellIs" dxfId="1" priority="350" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="351" operator="greaterThan">
       <formula>U17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="expression" dxfId="3" priority="355">
+    <cfRule type="expression" dxfId="3" priority="356">
       <formula>AND(V21&gt;0,V21&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="356" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="357" operator="greaterThan">
       <formula>U21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="expression" dxfId="3" priority="361">
+    <cfRule type="expression" dxfId="3" priority="362">
       <formula>AND(V23&gt;0,V23&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="362" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="363" operator="greaterThan">
       <formula>U23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="expression" dxfId="3" priority="367">
+    <cfRule type="expression" dxfId="3" priority="368">
       <formula>AND(V24&gt;0,V24&lt;15000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="368" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="369" operator="greaterThan">
       <formula>U24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25">
-    <cfRule type="expression" dxfId="3" priority="373">
+    <cfRule type="expression" dxfId="3" priority="374">
       <formula>AND(V25&gt;0,V25&lt;15000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="374" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="375" operator="greaterThan">
       <formula>U25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V26">
-    <cfRule type="expression" dxfId="3" priority="379">
+    <cfRule type="expression" dxfId="3" priority="380">
       <formula>AND(V26&gt;0,V26&lt;15000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="380" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="381" operator="greaterThan">
       <formula>U26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27">
-    <cfRule type="expression" dxfId="3" priority="385">
+    <cfRule type="expression" dxfId="3" priority="386">
       <formula>AND(V27&gt;0,V27&lt;15000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="386" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="387" operator="greaterThan">
       <formula>U27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28">
-    <cfRule type="expression" dxfId="3" priority="391">
+    <cfRule type="expression" dxfId="3" priority="392">
       <formula>AND(V28&gt;0,V28&lt;15000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="392" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="393" operator="greaterThan">
       <formula>U28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29">
-    <cfRule type="expression" dxfId="3" priority="397">
-      <formula>AND(V29&gt;0,V29&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="398" operator="greaterThan">
+    <cfRule type="expression" dxfId="3" priority="398">
+      <formula>AND(V29&gt;0,V29&lt;3000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="399" operator="greaterThan">
       <formula>U29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="expression" dxfId="3" priority="403">
+    <cfRule type="expression" dxfId="3" priority="404">
       <formula>AND(V32&gt;0,V32&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="404" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="405" operator="greaterThan">
       <formula>U32</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="V33">
+    <cfRule type="expression" dxfId="3" priority="410">
+      <formula>AND(V33&gt;0,V33&lt;5000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="411" operator="greaterThan">
+      <formula>U33</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="1" priority="409" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="416" operator="greaterThan">
       <formula>U34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36">
-    <cfRule type="cellIs" dxfId="1" priority="414" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="421" operator="greaterThan">
       <formula>U36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="1" priority="298" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="299" operator="greaterThan">
       <formula>U7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="expression" dxfId="3" priority="303">
+    <cfRule type="expression" dxfId="3" priority="304">
       <formula>AND(V9&gt;0,V9&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="304" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="305" operator="greaterThan">
       <formula>U9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
+    <cfRule type="cellIs" dxfId="4" priority="313" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11">
+    <cfRule type="cellIs" dxfId="4" priority="319" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12">
+    <cfRule type="cellIs" dxfId="4" priority="325" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13">
+    <cfRule type="cellIs" dxfId="4" priority="331" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W14">
+    <cfRule type="cellIs" dxfId="4" priority="337" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W15">
+    <cfRule type="cellIs" dxfId="4" priority="343" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W16">
+    <cfRule type="cellIs" dxfId="4" priority="348" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W17">
+    <cfRule type="cellIs" dxfId="4" priority="353" operator="lessThanOrEqual">
+      <formula>I17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W21">
+    <cfRule type="cellIs" dxfId="4" priority="359" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="cellIs" dxfId="4" priority="365" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24">
+    <cfRule type="cellIs" dxfId="4" priority="371" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25">
+    <cfRule type="cellIs" dxfId="4" priority="377" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W26">
+    <cfRule type="cellIs" dxfId="4" priority="383" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W27">
+    <cfRule type="cellIs" dxfId="4" priority="389" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W28">
+    <cfRule type="cellIs" dxfId="4" priority="395" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W29">
+    <cfRule type="cellIs" dxfId="4" priority="401" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W32">
+    <cfRule type="cellIs" dxfId="4" priority="407" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W33">
+    <cfRule type="cellIs" dxfId="4" priority="413" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W34">
+    <cfRule type="cellIs" dxfId="4" priority="418" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W36">
+    <cfRule type="cellIs" dxfId="4" priority="423" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W7">
+    <cfRule type="cellIs" dxfId="4" priority="301" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W9">
+    <cfRule type="cellIs" dxfId="4" priority="307" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10">
     <cfRule type="cellIs" dxfId="4" priority="312" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W11">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11">
     <cfRule type="cellIs" dxfId="4" priority="318" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12">
     <cfRule type="cellIs" dxfId="4" priority="324" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W13">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
     <cfRule type="cellIs" dxfId="4" priority="330" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W14">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14">
     <cfRule type="cellIs" dxfId="4" priority="336" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W15">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X15">
     <cfRule type="cellIs" dxfId="4" priority="342" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W16">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X16">
     <cfRule type="cellIs" dxfId="4" priority="347" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W17">
+      <formula>J16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17">
     <cfRule type="cellIs" dxfId="4" priority="352" operator="lessThanOrEqual">
-      <formula>I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W21">
+      <formula>J17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X21">
     <cfRule type="cellIs" dxfId="4" priority="358" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23">
     <cfRule type="cellIs" dxfId="4" priority="364" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W24">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X24">
     <cfRule type="cellIs" dxfId="4" priority="370" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X25">
     <cfRule type="cellIs" dxfId="4" priority="376" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W26">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X26">
     <cfRule type="cellIs" dxfId="4" priority="382" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W27">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X27">
     <cfRule type="cellIs" dxfId="4" priority="388" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X28">
     <cfRule type="cellIs" dxfId="4" priority="394" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W29">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X29">
     <cfRule type="cellIs" dxfId="4" priority="400" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W32">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32">
     <cfRule type="cellIs" dxfId="4" priority="406" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W34">
-    <cfRule type="cellIs" dxfId="4" priority="411" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W36">
-    <cfRule type="cellIs" dxfId="4" priority="416" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W7">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X33">
+    <cfRule type="cellIs" dxfId="4" priority="412" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X34">
+    <cfRule type="cellIs" dxfId="4" priority="417" operator="lessThanOrEqual">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X36">
+    <cfRule type="cellIs" dxfId="4" priority="422" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X7">
     <cfRule type="cellIs" dxfId="4" priority="300" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W9">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9">
     <cfRule type="cellIs" dxfId="4" priority="306" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X10">
-    <cfRule type="cellIs" dxfId="4" priority="311" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X11">
-    <cfRule type="cellIs" dxfId="4" priority="317" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
-    <cfRule type="cellIs" dxfId="4" priority="323" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X13">
-    <cfRule type="cellIs" dxfId="4" priority="329" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X14">
-    <cfRule type="cellIs" dxfId="4" priority="335" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="4" priority="341" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X16">
-    <cfRule type="cellIs" dxfId="4" priority="346" operator="lessThanOrEqual">
-      <formula>J16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X17">
-    <cfRule type="cellIs" dxfId="4" priority="351" operator="lessThanOrEqual">
-      <formula>J17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X21">
-    <cfRule type="cellIs" dxfId="4" priority="357" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X23">
-    <cfRule type="cellIs" dxfId="4" priority="363" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="4" priority="369" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="4" priority="375" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="4" priority="381" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="4" priority="387" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="4" priority="393" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X29">
-    <cfRule type="cellIs" dxfId="4" priority="399" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="4" priority="405" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X34">
-    <cfRule type="cellIs" dxfId="4" priority="410" operator="lessThanOrEqual">
-      <formula>J34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X36">
-    <cfRule type="cellIs" dxfId="4" priority="415" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X7">
-    <cfRule type="cellIs" dxfId="4" priority="299" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X9">
-    <cfRule type="cellIs" dxfId="4" priority="305" operator="lessThanOrEqual">
       <formula>J9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10">
-    <cfRule type="cellIs" dxfId="1" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="424" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="418" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="425" operator="lessThan">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="cellIs" dxfId="1" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="430" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="424" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="431" operator="lessThan">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12">
-    <cfRule type="cellIs" dxfId="1" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="436" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="430" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="437" operator="lessThan">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="cellIs" dxfId="1" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="442" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="436" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="443" operator="lessThan">
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14">
-    <cfRule type="cellIs" dxfId="1" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="448" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="442" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="449" operator="lessThan">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16">
-    <cfRule type="cellIs" dxfId="1" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="454" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="448" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="455" operator="lessThan">
       <formula>H16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23">
-    <cfRule type="cellIs" dxfId="1" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="459" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="453" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="460" operator="lessThan">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26">
-    <cfRule type="cellIs" dxfId="1" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="465" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="459" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="466" operator="lessThan">
       <formula>H26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z28">
-    <cfRule type="cellIs" dxfId="1" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="471" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="465" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="472" operator="lessThan">
       <formula>H28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12591,20 +13467,20 @@
     <hyperlink ref="Y29" r:id="rId103"/>
     <hyperlink ref="AI29" r:id="rId104"/>
     <hyperlink ref="AN29" r:id="rId105"/>
-    <hyperlink ref="AS29" r:id="rId106"/>
-    <hyperlink ref="G30" r:id="rId107"/>
-    <hyperlink ref="T30" r:id="rId108"/>
-    <hyperlink ref="G31" r:id="rId109"/>
-    <hyperlink ref="T31" r:id="rId110"/>
-    <hyperlink ref="AI31" r:id="rId111"/>
-    <hyperlink ref="G32" r:id="rId112"/>
-    <hyperlink ref="T32" r:id="rId113"/>
-    <hyperlink ref="Y32" r:id="rId114"/>
-    <hyperlink ref="AI32" r:id="rId115"/>
-    <hyperlink ref="AN32" r:id="rId116"/>
-    <hyperlink ref="AS32" r:id="rId117"/>
-    <hyperlink ref="G33" r:id="rId118"/>
-    <hyperlink ref="T33" r:id="rId119"/>
+    <hyperlink ref="G30" r:id="rId106"/>
+    <hyperlink ref="T30" r:id="rId107"/>
+    <hyperlink ref="G31" r:id="rId108"/>
+    <hyperlink ref="T31" r:id="rId109"/>
+    <hyperlink ref="AI31" r:id="rId110"/>
+    <hyperlink ref="G32" r:id="rId111"/>
+    <hyperlink ref="T32" r:id="rId112"/>
+    <hyperlink ref="Y32" r:id="rId113"/>
+    <hyperlink ref="AI32" r:id="rId114"/>
+    <hyperlink ref="AN32" r:id="rId115"/>
+    <hyperlink ref="AS32" r:id="rId116"/>
+    <hyperlink ref="G33" r:id="rId117"/>
+    <hyperlink ref="T33" r:id="rId118"/>
+    <hyperlink ref="Y33" r:id="rId119"/>
     <hyperlink ref="AI33" r:id="rId120"/>
     <hyperlink ref="G34" r:id="rId121"/>
     <hyperlink ref="T34" r:id="rId122"/>

--- a/hardware/manufacture/reDIP-sx-BOM.xlsx
+++ b/hardware/manufacture/reDIP-sx-BOM.xlsx
@@ -880,11 +880,11 @@
    100   $1.16    $116.36
    250   $1.09    $273.15
    500   $0.96    $478.01
-  1800   $0.78  $1,406.79
-  3600   $0.73  $2,619.54
-  5400   $0.70  $3,783.78
- 12600   $0.67  $8,489.25
- 45000   $0.66 $29,833.65</t>
+  1800   $0.79  $1,425.83
+  3600   $0.74  $2,655.04
+  5400   $0.71  $3,835.03
+ 12600   $0.68  $8,604.29
+ 45000   $0.67 $30,237.75</t>
         </r>
       </text>
     </comment>
@@ -952,7 +952,9 @@
     25   £1.09     £27.25
     50   £0.96     £48.00
    100   £0.83     £83.00
-   250   £0.77    £192.50</t>
+   250   £0.77    £192.50
+  1800   £0.54    £979.20
+  3600   £0.53  £1,908.00</t>
         </r>
       </text>
     </comment>
@@ -966,22 +968,6 @@
             <family val="2"/>
           </rPr>
           <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AV7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-  1800   $0.85  $1,524.22</t>
         </r>
       </text>
     </comment>
@@ -1161,8 +1147,8 @@
  15000   $0.05    $684.75
  30000   $0.04  $1,320.00
  75000   $0.04  $3,093.75
-150000   $0.04  $5,487.00
-375000   $0.03 $12,892.50</t>
+105000   $0.04  $3,826.20
+375000   $0.03 $12,888.75</t>
         </r>
       </text>
     </comment>
@@ -1214,12 +1200,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    20   $0.02      $0.35
-   200   $0.01      $2.62
-   600   $0.01      $7.38
-  2000   $0.01     $23.00
- 10000   $0.01    $111.00
- 20000   $0.01    $218.00</t>
+    20   $0.02      $0.37
+   200   $0.01      $2.74
+   600   $0.01      $7.74
+  2000   $0.01     $24.00
+ 10000   $0.01    $117.00
+ 20000   $0.01    $230.00</t>
         </r>
       </text>
     </comment>
@@ -1269,15 +1255,10 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.36      $3.56
-    25   $0.33      $8.15
-    50   $0.22     $11.10
-   100   $0.18     $18.40
-   250   $0.15     $38.50
- 15000   $0.09  $1,365.00
- 30000   $0.08  $2,250.00
- 60000   $0.06  $3,900.00
- 90000   $0.06  $5,400.00</t>
+    10   $0.12      $1.21
+    25   $0.11      $2.82
+    50   $0.10      $5.25
+   100   $0.10      $9.70</t>
         </r>
       </text>
     </comment>
@@ -1306,7 +1287,7 @@
  75000   $0.00    $294.75
 105000   $0.00    $333.90
 150000   $0.00    $460.50
-375000   $0.00  $1,038.75</t>
+375000   $0.00  $1,083.75</t>
         </r>
       </text>
     </comment>
@@ -1358,12 +1339,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-   100   $0.00      $0.20
+   100   $0.00      $0.21
   1000   $0.00      $1.60
-  3000   $0.00      $4.50
- 10000   $0.00     $14.00
+  3000   $0.00      $4.80
+ 10000   $0.00     $15.00
  50000   $0.00     $70.00
-100000   $0.00    $130.00</t>
+100000   $0.00    $140.00</t>
         </r>
       </text>
     </comment>
@@ -1445,7 +1426,7 @@
  30000   $0.09  $2,643.30
  50000   $0.08  $4,112.00
 100000   $0.08  $7,636.00
-250000   $0.07 $17,622.50</t>
+250000   $0.07 $18,357.50</t>
         </r>
       </text>
     </comment>
@@ -1467,8 +1448,8 @@
    500   £0.10     £49.30
   2500   £0.08    £205.50
   5000   £0.07    £329.00
- 10000   £0.05    £548.00
- 50000   £0.05  £2,350.00</t>
+ 10000   £0.04    £355.00
+ 50000   £0.03  £1,520.00</t>
         </r>
       </text>
     </comment>
@@ -1484,12 +1465,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     5   $0.10      $0.49
-    50   $0.07      $3.62
-   150   $0.07     $10.17
-   500   $0.06     $31.65
-  2500   $0.06    $153.25
-  5000   $0.06    $301.50</t>
+     5   $0.11      $0.53
+    50   $0.08      $3.94
+   150   $0.07     $11.08
+   500   $0.07     $34.50
+  2500   $0.07    $167.00
+  5000   $0.07    $328.50</t>
         </r>
       </text>
     </comment>
@@ -1529,11 +1510,7 @@
     10   $0.23      $2.27
     25   $0.22      $5.40
     50   $0.20     $10.25
-   100   $0.19     $19.40
- 10000   $0.06    $550.00
- 20000   $0.05    $960.00
- 40000   $0.04  $1,640.00
- 60000   $0.03  $1,980.00</t>
+   100   $0.19     $19.40</t>
         </r>
       </text>
     </comment>
@@ -1614,12 +1591,25 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.06      $0.57
-   100   $0.04      $4.14
-   300   $0.04     $11.58
-  1000   $0.04     $35.90
-  5000   $0.03    $173.00
- 10000   $0.03    $340.00</t>
+    10   $0.06      $0.59
+   100   $0.04      $4.34
+   300   $0.04     $12.15
+  1000   $0.04     $37.60
+  5000   $0.04    $181.50
+ 10000   $0.04    $357.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -1635,12 +1625,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.22      $0.22
-    10   $0.11      $1.08
-    50   $0.11      $5.40
-   100   $0.08      $8.30
-  1000   $0.05     $49.00
- 10000   $0.04    $380.00</t>
+     1   $0.19      $0.19
+    10   $0.08      $0.76
+    50   $0.08      $3.80
+   100   $0.06      $6.50
+  1000   $0.04     $39.00
+ 10000   $0.03    $310.00</t>
         </r>
       </text>
     </comment>
@@ -1669,15 +1659,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.25      $2.50
-    25   $0.22      $5.52
-    50   $0.14      $6.75
-   100   $0.11     $10.90
-   250   $0.09     $23.00
- 10000   $0.05    $540.00
- 20000   $0.05    $940.00
- 40000   $0.04  $1,600.00
- 60000   $0.03  $1,980.00</t>
+    10   $0.17      $1.73
+    25   $0.14      $3.60
+    50   $0.12      $5.80
+   100   $0.09      $8.70
+ 10000   $0.03    $330.00
+ 20000   $0.03    $640.00</t>
         </r>
       </text>
     </comment>
@@ -1694,16 +1681,17 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.04      $0.36
-    50   $0.02      $0.98
-   100   $0.02      $1.60
-   500   $0.01      $5.72
-  1000   $0.01      $8.98
-  2500   $0.01     $20.42
-  5000   $0.01     $37.55
+    10   $0.03      $0.33
+    50   $0.02      $0.89
+   100   $0.01      $1.46
+   500   $0.01      $5.20
+  1000   $0.01      $8.17
+  2500   $0.01     $18.55
+  5000   $0.01     $34.15
  15000   $0.01     $89.10
  30000   $0.01    $169.20
  75000   $0.01    $378.75
+105000   $0.00    $428.40
 150000   $0.00    $592.50
 375000   $0.00  $1,391.25</t>
         </r>
@@ -1744,12 +1732,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    50   $0.01      $0.33
-   500   $0.01      $2.55
-  1500   $0.00      $7.20
-  5000   $0.00     $22.50
- 25000   $0.00    $110.00
- 50000   $0.00    $215.00</t>
+    50   $0.01      $0.26
+   500   $0.00      $1.95
+  1500   $0.00      $5.55
+  5000   $0.00     $17.50
+ 25000   $0.00     $85.00
+ 50000   $0.00    $170.00</t>
         </r>
       </text>
     </comment>
@@ -1818,6 +1806,9 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
+  1000   £0.01      £6.00
+  5000   £0.00     £25.00
+ 10000   £0.00     £50.00
  15000   £0.00     £60.00
  60000   £0.00    £240.00</t>
         </r>
@@ -1924,12 +1915,15 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.56      $0.56
-    10   $0.50      $4.95
+    10   $0.49      $4.88
    100   $0.34     $33.75
    500   $0.28    $141.00
   1000   $0.24    $240.00
-  3000   $0.22    $675.00
-  6000   $0.20  $1,215.00</t>
+  3000   $0.21    $641.25
+  6000   $0.20  $1,215.00
+  9000   $0.19  $1,687.50
+ 30000   $0.18  $5,535.00
+ 75000   $0.18 $13,500.00</t>
         </r>
       </text>
     </comment>
@@ -1945,13 +1939,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     1   £0.50      £0.50
+     5   £0.50      £2.52
     10   £0.41      £4.07
-   100   £0.26     £25.50
-   150   £0.26     £38.25
-   500   £0.22    £110.00
-  1000   £0.18    £176.00
-  5000   £0.15    £765.00</t>
+   100   £0.19     £18.80
+   150   £0.19     £28.20
+  3000   £0.16    £477.00
+  9000   £0.15  £1,377.00
+ 24000   £0.15  £3,600.00
+ 45000   £0.15  £6,615.00</t>
         </r>
       </text>
     </comment>
@@ -1967,12 +1962,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.47      $0.47
-    10   $0.36      $3.56
-    30   $0.34     $10.06
-   100   $0.31     $31.46
-   500   $0.30    $152.15
-  1000   $0.30    $300.80</t>
+     1   $0.49      $0.49
+    10   $0.37      $3.73
+    30   $0.35     $10.55
+   100   $0.33     $33.00
+   500   $0.32    $159.60
+  1000   $0.32    $315.60</t>
         </r>
       </text>
     </comment>
@@ -2010,16 +2005,13 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.56      $0.56
-    25   $0.46     $11.60
-    50   $0.40     $19.75
+    10   $0.46      $4.64
    100   $0.32     $32.50
-   250   $0.30     $75.75
    500   $0.28    $140.50
-  3000   $0.21    $639.00
-  6000   $0.20  $1,212.00
- 12000   $0.19  $2,316.00
- 18000   $0.19  $3,420.00
- 30000   $0.19  $5,610.00</t>
+  3000   $0.22    $672.00
+  9000   $0.19  $1,737.00
+ 24000   $0.19  $4,488.00
+ 45000   $0.18  $7,875.00</t>
         </r>
       </text>
     </comment>
@@ -2039,7 +2031,8 @@
    100   £0.23     £22.70
    250   £0.20     £51.00
    500   £0.20     £97.50
-  1000   £0.17    £167.00</t>
+  1000   £0.17    £167.00
+  3000   £0.17    £501.00</t>
         </r>
       </text>
     </comment>
@@ -2055,14 +2048,14 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.67      $0.67
-    10   $0.44      $4.39
-   100   $0.29     $29.03
-  1000   $0.22    $224.10
-  2000   $0.20    $405.00
-  6000   $0.19  $1,134.00
- 10000   $0.18  $1,822.50
- 50000   $0.17  $8,606.50</t>
+     1   $0.71      $0.71
+    10   $0.46      $4.65
+   100   $0.31     $30.77
+  1000   $0.24    $237.55
+  2000   $0.21    $429.30
+  6000   $0.20  $1,202.04
+ 10000   $0.19  $1,931.90
+ 50000   $0.18  $9,122.50</t>
         </r>
       </text>
     </comment>
@@ -2132,7 +2125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT16" authorId="0">
+    <comment ref="P17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2145,7 +2138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV16" authorId="0">
+    <comment ref="R17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2157,15 +2150,21 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.80      $0.80
-     5   $0.41      $2.05
-    25   $0.28      $7.00
-   100   $0.25     $24.80
-   500   $0.22    $108.50</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R17" authorId="0">
+     1   $1.51      $1.51
+    10   $1.37     $13.72
+    25   $1.29     $32.20
+    50   $1.23     $61.60
+   100   $1.18    $117.60
+   250   $1.06    $266.00
+   500   $0.98    $490.00
+  1500   $0.81  $1,218.00
+  3000   $0.78  $2,352.00
+  7500   $0.74  $5,586.00
+ 10500   $0.73  $7,644.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2177,38 +2176,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.72      $1.72
-    10   $1.56     $15.58
-    25   $1.46     $36.58
-    50   $1.40     $69.97
-   100   $1.34    $133.58
-   250   $1.21    $302.14
-   500   $1.11    $556.58
-  1500   $0.92  $1,383.50
-  3000   $0.89  $2,671.59
-  7500   $0.85  $6,345.00
- 10500   $0.83  $8,682.66</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $1.89      $1.89
-    10   $1.53     $15.30
-    50   $1.53     $76.50
-   100   $1.46    $146.00
-  1000   $0.92    $922.00
- 10000   $0.83  $8,260.00</t>
+     1   $1.51      $1.51
+    10   $1.23     $12.30
+    50   $1.23     $61.50
+   100   $1.17    $117.00
+  1000   $0.84    $839.00
+ 10000   $0.73  $7,280.00</t>
         </r>
       </text>
     </comment>
@@ -2224,11 +2197,11 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     1   £5.90      £5.90
-     4   £5.60     £22.40
-    20   £5.34    £106.80
-   100   £5.08    £508.00
-   200   £4.82    £964.00</t>
+     1   £5.57      £5.57
+     4   £5.31     £21.24
+    20   £5.04    £100.80
+   100   £4.78    £478.00
+   200   £4.55    £910.00</t>
         </r>
       </text>
     </comment>
@@ -2505,12 +2478,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    50   $0.01      $0.30
-   500   $0.00      $2.25
-  1500   $0.00      $6.45
-  5000   $0.00     $20.00
- 25000   $0.00     $97.50
- 50000   $0.00    $190.00</t>
+    50   $0.01      $0.32
+   500   $0.00      $2.40
+  1500   $0.00      $6.75
+  5000   $0.00     $21.00
+ 25000   $0.00    $102.50
+ 50000   $0.00    $200.00</t>
         </r>
       </text>
     </comment>
@@ -2570,6 +2543,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
+  1000   £0.00      £4.00
  15000   £0.00     £60.00</t>
         </r>
       </text>
@@ -2673,6 +2647,9 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
+  1000   £0.01     £11.00
+  5000   £0.01     £45.00
+ 10000   £0.01     £80.00
  15000   £0.01     £90.00</t>
         </r>
       </text>
@@ -2764,6 +2741,23 @@
         </r>
       </text>
     </comment>
+    <comment ref="AL24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+ 15000   $0.00     $75.00
+ 30000   $0.00    $120.00</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AQ24" authorId="0">
       <text>
         <r>
@@ -2776,7 +2770,10 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
- 15000   £0.00     £60.00</t>
+  1000   £0.00      £5.00
+  5000   £0.00     £25.00
+ 10000   £0.00     £50.00
+ 15000   £0.00     £75.00</t>
         </r>
       </text>
     </comment>
@@ -2845,12 +2842,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    50   $0.02      $0.91
-   500   $0.01      $6.95
-  1500   $0.01     $19.65
-  5000   $0.01     $61.50
- 25000   $0.01    $300.00
- 50000   $0.01    $590.00</t>
+    50   $0.02      $0.96
+   500   $0.01      $7.30
+  1500   $0.01     $20.70
+  5000   $0.01     $64.50
+ 25000   $0.01    $315.00
+ 50000   $0.01    $620.00</t>
         </r>
       </text>
     </comment>
@@ -2900,6 +2897,9 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
+  1000   £0.01     £11.00
+  5000   £0.01     £45.00
+ 10000   £0.01     £80.00
  15000   £0.01     £90.00</t>
         </r>
       </text>
@@ -3056,12 +3056,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    50   $0.01      $0.30
-   500   $0.00      $2.25
-  1500   $0.00      $6.45
-  5000   $0.00     $20.00
- 25000   $0.00     $97.50
- 50000   $0.00    $190.00</t>
+    50   $0.01      $0.32
+   500   $0.00      $2.40
+  1500   $0.00      $6.75
+  5000   $0.00     $21.00
+ 25000   $0.00    $102.50
+ 50000   $0.00    $200.00</t>
         </r>
       </text>
     </comment>
@@ -3111,6 +3111,9 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
+  1000   £0.00      £4.00
+  5000   £0.00     £20.00
+ 10000   £0.00     £40.00
  15000   £0.00     £60.00</t>
         </r>
       </text>
@@ -3324,12 +3327,12 @@
 ================
      5   £0.40      £2.01
     10   £0.29      £2.94
-   100   £0.14     £13.50
-   150   £0.14     £20.25
-   500   £0.11     £55.50
-  1000   £0.09     £87.00
-  5000   £0.08    £420.00
- 10000   £0.08    £823.00</t>
+   100   £0.10     £10.00
+   150   £0.10     £15.00
+  3000   £0.09    £261.00
+  9000   £0.08    £756.00
+ 24000   £0.08  £1,944.00
+ 45000   £0.08  £3,555.00</t>
         </r>
       </text>
     </comment>
@@ -3368,10 +3371,7 @@
 ================
      5   $0.46      $2.30
     10   $0.38      $3.76
-    25   $0.34      $8.60
-    50   $0.29     $14.40
-   100   $0.23     $23.20
-   250   $0.19     $48.00</t>
+   100   $0.23     $23.20</t>
         </r>
       </text>
     </comment>
@@ -3387,7 +3387,12 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-  3000   £0.08    £255.00</t>
+    18   £0.26      £4.63
+   180   £0.19     £34.92
+  1800   £0.10    £189.00
+  3000   £0.08    £255.00
+ 18000   £0.09  £1,548.00
+ 54000   £0.08  £4,536.00</t>
         </r>
       </text>
     </comment>
@@ -3498,11 +3503,8 @@
      1   $3.21      $3.21
     10   $2.88     $28.85
     25   $2.73     $68.18
-   100   $2.24    $224.22
-   250   $2.01    $502.98
-   500   $1.94    $969.60
-  1000   $1.70  $1,696.80
-  5000   $1.70  $8,484.00</t>
+   100   $2.42    $242.40
+  5000   $2.42 $12,120.00</t>
         </r>
       </text>
     </comment>
@@ -3675,22 +3677,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $4.10      $4.10
-     5   $3.85     $19.25
-    25   $3.60     $90.00
-   100   $3.35    $335.00</t>
+    <comment ref="P35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -3710,6 +3706,19 @@
     25   $1.30     $32.61
    100   $1.25    $125.43
   1500   $1.18  $1,762.82</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -3758,6 +3767,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AL35" authorId="0">
       <text>
         <r>
@@ -3770,11 +3792,11 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.79      $1.79
-    10   $1.66     $16.60
-    25   $1.56     $39.00
-    50   $1.46     $73.00
-   100   $1.35    $135.00</t>
+     1   $1.75      $1.75
+    10   $1.63     $16.30
+    25   $1.52     $38.00
+    50   $1.42     $71.00
+   100   $1.32    $132.00</t>
         </r>
       </text>
     </comment>
@@ -3860,11 +3882,10 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-  3000   $0.28    $855.00
-  6000   $0.26  $1,584.00
- 12000   $0.25  $2,952.00
- 18000   $0.23  $4,122.00
- 30000   $0.22  $6,570.00</t>
+  3000   $0.29    $876.00
+  9000   $0.28  $2,565.00
+ 24000   $0.26  $6,336.00
+ 45000   $0.25 $11,070.00</t>
         </r>
       </text>
     </comment>
@@ -4056,7 +4077,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="326">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -4256,19 +4277,19 @@
     <t>J1</t>
   </si>
   <si>
-    <t>DX07S016JA3</t>
+    <t>DX07S016JA1</t>
   </si>
   <si>
     <t>CONN USB-C</t>
   </si>
   <si>
-    <t>USB_C_Receptacle_JAE_DX07S016JA3_PinInPaste</t>
+    <t>USB_C_Receptacle_JAE_DX07S016JA1</t>
   </si>
   <si>
     <t>Japan Aviation Electronics Industry, Ltd.</t>
   </si>
   <si>
-    <t>DX07S016JA3R1500</t>
+    <t>DX07S016JA1R1500</t>
   </si>
   <si>
     <t>J5,J6</t>
@@ -4598,7 +4619,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>fr. 08. jan. 2021 kl. 09.45 +0100</t>
+    <t>sø. 17. jan. 2021 kl. 08.39 +0100</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -4613,7 +4634,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2021-01-08 09:45:18</t>
+    <t>2021-01-17 08:40:03</t>
   </si>
   <si>
     <t>Arrow</t>
@@ -4667,7 +4688,7 @@
     <t>67-2331-1-ND</t>
   </si>
   <si>
-    <t>670-DX07S016JA3R1500CT-ND</t>
+    <t>670-DX07S016JA1R1500CT-ND</t>
   </si>
   <si>
     <t>S1131EC-06-ND</t>
@@ -4868,7 +4889,7 @@
     <t>696SMDLX0707RGBTR</t>
   </si>
   <si>
-    <t>656DX07S016JA3R1500</t>
+    <t>656DX07S016JA1R1500</t>
   </si>
   <si>
     <t>771PEMH4115</t>
@@ -4997,31 +5018,31 @@
     <t>7595325</t>
   </si>
   <si>
-    <t>1851581</t>
+    <t>1852023</t>
   </si>
   <si>
     <t>8829708</t>
   </si>
   <si>
-    <t>2017052</t>
-  </si>
-  <si>
-    <t>1755716</t>
-  </si>
-  <si>
-    <t>1797109</t>
-  </si>
-  <si>
-    <t>1797111</t>
-  </si>
-  <si>
-    <t>1797103</t>
-  </si>
-  <si>
-    <t>1797101</t>
-  </si>
-  <si>
-    <t>1858072</t>
+    <t>2017049</t>
+  </si>
+  <si>
+    <t>1763574</t>
+  </si>
+  <si>
+    <t>1797158</t>
+  </si>
+  <si>
+    <t>1797128</t>
+  </si>
+  <si>
+    <t>1797135</t>
+  </si>
+  <si>
+    <t>1797129</t>
+  </si>
+  <si>
+    <t>1859325</t>
   </si>
   <si>
     <t>TME</t>
@@ -6044,10 +6065,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="17">
-        <v>5136</v>
+        <v>23046</v>
       </c>
       <c r="R7" s="18">
-        <f>iferror(lookup(if(Q7="",H7,Q7),{0,1,10,25,100,250,500,1800,3600,5400,12600,45000},{0.0,1.61,1.448,1.3656,1.1636,1.0926,0.95602,0.78155,0.72765,0.7007,0.67375,0.66297}),"")</f>
+        <f>iferror(lookup(if(Q7="",H7,Q7),{0,1,10,25,100,250,500,1800,3600,5400,12600,45000},{0.0,1.61,1.448,1.3656,1.1636,1.0926,0.95602,0.79213,0.73751,0.71019,0.68288,0.67195}),"")</f>
         <v>0</v>
       </c>
       <c r="S7" s="18">
@@ -6072,7 +6093,7 @@
         <v>224</v>
       </c>
       <c r="AE7" s="17">
-        <v>10535</v>
+        <v>10330</v>
       </c>
       <c r="AG7" s="18">
         <f>iferror(lookup(if(AF7="",H7,AF7),{0,1,10,50,100,1000,10000},{0.0,1.61,1.37,1.37,1.1,0.757,0.682}),"")</f>
@@ -6095,7 +6116,7 @@
         <v>7012</v>
       </c>
       <c r="AQ7" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP7="",H7,AP7),{0,1,25,50,100,250},{0.0,1.28,1.09,0.96,0.83,0.77}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP7="",H7,AP7),{0,1,25,50,100,250,1800,3600},{0.0,1.28,1.09,0.96,0.83,0.77,0.544,0.53}),"")</f>
         <v>0</v>
       </c>
       <c r="AR7" s="18">
@@ -6107,14 +6128,6 @@
       </c>
       <c r="AT7" s="20" t="s">
         <v>193</v>
-      </c>
-      <c r="AV7" s="18">
-        <f>iferror(lookup(if(AU7="",H7,AU7),{0,1,1800},{0.0,0.84679,0.84679}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AW7" s="18">
-        <f>iferror(if(AU7="",H7,AU7)*AV7,"")</f>
-        <v>0</v>
       </c>
       <c r="AX7" s="19" t="s">
         <v>322</v>
@@ -6183,7 +6196,7 @@
         <v>225</v>
       </c>
       <c r="Z8" s="17">
-        <v>9960</v>
+        <v>9880</v>
       </c>
       <c r="AB8" s="18">
         <f>iferror(lookup(if(AA8="",H8,AA8),{0,1,10,100,300,1000,5000,10000},{0.0,0.0588,0.0588,0.0453,0.0429,0.0404,0.0393,0.0388}),"")</f>
@@ -6197,7 +6210,7 @@
         <v>248</v>
       </c>
       <c r="AE8" s="17">
-        <v>97720</v>
+        <v>7700</v>
       </c>
       <c r="AG8" s="18">
         <f>iferror(lookup(if(AF8="",H8,AF8),{0,1,10,50,100,1000,10000},{0.0,0.26,0.174,0.174,0.099,0.061,0.043}),"")</f>
@@ -6260,10 +6273,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="17">
-        <v>3125247</v>
+        <v>3074867</v>
       </c>
       <c r="R9" s="18">
-        <f>iferror(lookup(if(Q9="",H9,Q9),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,150000,375000},{0.0,0.24,0.165,0.11,0.0935,0.066,0.05775,0.055,0.05088,0.04565,0.044,0.04125,0.03658,0.03438}),"")</f>
+        <f>iferror(lookup(if(Q9="",H9,Q9),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,105000,375000},{0.0,0.24,0.165,0.11,0.0935,0.066,0.05775,0.055,0.05088,0.04565,0.044,0.04125,0.03644,0.03437}),"")</f>
         <v>0</v>
       </c>
       <c r="S9" s="18">
@@ -6288,10 +6301,10 @@
         <v>226</v>
       </c>
       <c r="Z9" s="17">
-        <v>11520</v>
+        <v>8320</v>
       </c>
       <c r="AB9" s="18">
-        <f>iferror(lookup(if(AA9="",H9,AA9),{0,1,20,200,600,2000,10000,20000},{0.0,0.0175,0.0175,0.0131,0.0123,0.0115,0.0111,0.0109}),"")</f>
+        <f>iferror(lookup(if(AA9="",H9,AA9),{0,1,20,200,600,2000,10000,20000},{0.0,0.0183,0.0183,0.0137,0.0129,0.012,0.0117,0.0115}),"")</f>
         <v>0</v>
       </c>
       <c r="AC9" s="18">
@@ -6302,7 +6315,7 @@
         <v>249</v>
       </c>
       <c r="AE9" s="17">
-        <v>2271274</v>
+        <v>2264534</v>
       </c>
       <c r="AG9" s="18">
         <f>iferror(lookup(if(AF9="",H9,AF9),{0,1,10,50,100,1000,10000},{0.0,0.26,0.121,0.121,0.097,0.06,0.051}),"")</f>
@@ -6319,7 +6332,7 @@
         <v>193</v>
       </c>
       <c r="AL9" s="18">
-        <f>iferror(lookup(if(AK9="",H9,AK9),{0,1,10,25,50,100,250,15000,30000,60000,90000},{0.0,0.356,0.356,0.326,0.222,0.184,0.154,0.091,0.075,0.065,0.06}),"")</f>
+        <f>iferror(lookup(if(AK9="",H9,AK9),{0,1,10,25,50,100},{0.0,0.121,0.121,0.113,0.105,0.097}),"")</f>
         <v>0</v>
       </c>
       <c r="AM9" s="18">
@@ -6365,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="17">
-        <v>395692</v>
+        <v>1366915</v>
       </c>
       <c r="R10" s="18">
-        <f>iferror(lookup(if(Q10="",H10,Q10),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,105000,150000,375000},{0.0,0.1,0.025,0.0138,0.0113,0.00808,0.00635,0.00578,0.00531,0.00462,0.00439,0.00393,0.00318,0.00307,0.00277}),"")</f>
+        <f>iferror(lookup(if(Q10="",H10,Q10),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,105000,150000,375000},{0.0,0.1,0.025,0.0138,0.0113,0.00808,0.00635,0.00578,0.00531,0.00462,0.00439,0.00393,0.00318,0.00307,0.00289}),"")</f>
         <v>0</v>
       </c>
       <c r="S10" s="18">
@@ -6393,10 +6406,10 @@
         <v>227</v>
       </c>
       <c r="Z10" s="17">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AB10" s="18">
-        <f>iferror(lookup(if(AA10="",H10,AA10),{0,1,100,1000,3000,10000,50000,100000},{0.0,0.002,0.002,0.0016,0.0015,0.0014,0.0014,0.0013}),"")</f>
+        <f>iferror(lookup(if(AA10="",H10,AA10),{0,1,100,1000,3000,10000,50000,100000},{0.0,0.0021,0.0021,0.0016,0.0016,0.0015,0.0014,0.0014}),"")</f>
         <v>0</v>
       </c>
       <c r="AC10" s="18">
@@ -6470,10 +6483,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="17">
-        <v>1056798</v>
+        <v>1014588</v>
       </c>
       <c r="R11" s="18">
-        <f>iferror(lookup(if(Q11="",H11,Q11),{0,1,10,50,100,500,1000,2500,5000,10000,20000,30000,50000,100000,250000},{0.0,0.42,0.294,0.2056,0.1762,0.13216,0.11161,0.10573,0.09986,0.09398,0.09105,0.08811,0.08224,0.07636,0.07049}),"")</f>
+        <f>iferror(lookup(if(Q11="",H11,Q11),{0,1,10,50,100,500,1000,2500,5000,10000,20000,30000,50000,100000,250000},{0.0,0.42,0.294,0.2056,0.1762,0.13216,0.11161,0.10573,0.09986,0.09398,0.09105,0.08811,0.08224,0.07636,0.07343}),"")</f>
         <v>0</v>
       </c>
       <c r="S11" s="18">
@@ -6484,10 +6497,10 @@
         <v>196</v>
       </c>
       <c r="U11" s="17">
-        <v>7010</v>
+        <v>2560</v>
       </c>
       <c r="W11" s="18">
-        <f>iferror(USD_GBP*lookup(if(V11="",H11,V11),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.215,0.215,0.173,0.173,0.0986,0.0822,0.0658,0.0548,0.047}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V11="",H11,V11),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.215,0.215,0.173,0.173,0.0986,0.0822,0.0658,0.0355,0.0304}),"")</f>
         <v>0</v>
       </c>
       <c r="X11" s="18">
@@ -6498,10 +6511,10 @@
         <v>228</v>
       </c>
       <c r="Z11" s="17">
-        <v>39495</v>
+        <v>61745</v>
       </c>
       <c r="AB11" s="18">
-        <f>iferror(lookup(if(AA11="",H11,AA11),{0,1,5,50,150,500,2500,5000},{0.0,0.0971,0.0971,0.0724,0.0678,0.0633,0.0613,0.0603}),"")</f>
+        <f>iferror(lookup(if(AA11="",H11,AA11),{0,1,5,50,150,500,2500,5000},{0.0,0.1058,0.1058,0.0789,0.0739,0.069,0.0668,0.0657}),"")</f>
         <v>0</v>
       </c>
       <c r="AC11" s="18">
@@ -6512,7 +6525,7 @@
         <v>251</v>
       </c>
       <c r="AE11" s="17">
-        <v>938075</v>
+        <v>926015</v>
       </c>
       <c r="AG11" s="18">
         <f>iferror(lookup(if(AF11="",H11,AF11),{0,1,10,50,100,1000,10000},{0.0,0.47,0.227,0.227,0.194,0.123,0.11}),"")</f>
@@ -6526,10 +6539,10 @@
         <v>263</v>
       </c>
       <c r="AJ11" s="17">
-        <v>7200</v>
+        <v>2560</v>
       </c>
       <c r="AL11" s="18">
-        <f>iferror(lookup(if(AK11="",H11,AK11),{0,1,10,25,50,100,10000,20000,40000,60000},{0.0,0.227,0.227,0.216,0.205,0.194,0.055,0.048,0.041,0.033}),"")</f>
+        <f>iferror(lookup(if(AK11="",H11,AK11),{0,1,10,25,50,100},{0.0,0.227,0.227,0.216,0.205,0.194}),"")</f>
         <v>0</v>
       </c>
       <c r="AM11" s="18">
@@ -6575,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="17">
-        <v>5110</v>
+        <v>9562</v>
       </c>
       <c r="R12" s="18">
         <f>iferror(lookup(if(Q12="",H12,Q12),{0,1,10,50,100,500,1000,2500,5000,10000,20000,30000,50000,100000,250000},{0.0,0.19,0.127,0.076,0.0642,0.04396,0.03889,0.0372,0.03381,0.03135,0.0297,0.02805,0.0264,0.02228,0.02063}),"")</f>
@@ -6603,10 +6616,10 @@
         <v>229</v>
       </c>
       <c r="Z12" s="17">
-        <v>16290</v>
+        <v>10500</v>
       </c>
       <c r="AB12" s="18">
-        <f>iferror(lookup(if(AA12="",H12,AA12),{0,1,10,100,300,1000,5000,10000},{0.0,0.0565,0.0565,0.0414,0.0386,0.0359,0.0346,0.034}),"")</f>
+        <f>iferror(lookup(if(AA12="",H12,AA12),{0,1,10,100,300,1000,5000,10000},{0.0,0.0593,0.0593,0.0434,0.0405,0.0376,0.0363,0.0357}),"")</f>
         <v>0</v>
       </c>
       <c r="AC12" s="18">
@@ -6616,11 +6629,11 @@
       <c r="AD12" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AE12" s="17">
-        <v>47435</v>
+      <c r="AE12" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="AG12" s="18">
-        <f>iferror(lookup(if(AF12="",H12,AF12),{0,1,10,50,100,1000,10000},{0.0,0.22,0.108,0.108,0.083,0.049,0.038}),"")</f>
+        <f>iferror(lookup(if(AF12="",H12,AF12),{0,1,10,50,100,1000,10000},{0.0,0.19,0.076,0.076,0.065,0.039,0.031}),"")</f>
         <v>0</v>
       </c>
       <c r="AH12" s="18">
@@ -6634,7 +6647,7 @@
         <v>193</v>
       </c>
       <c r="AL12" s="18">
-        <f>iferror(lookup(if(AK12="",H12,AK12),{0,1,10,25,50,100,250,10000,20000,40000,60000},{0.0,0.25,0.25,0.221,0.135,0.109,0.092,0.054,0.047,0.04,0.033}),"")</f>
+        <f>iferror(lookup(if(AK12="",H12,AK12),{0,1,10,25,50,100,10000,20000},{0.0,0.173,0.173,0.144,0.116,0.087,0.033,0.032}),"")</f>
         <v>0</v>
       </c>
       <c r="AM12" s="18">
@@ -6680,10 +6693,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="17">
-        <v>717318</v>
+        <v>1084668</v>
       </c>
       <c r="R13" s="18">
-        <f>iferror(lookup(if(Q13="",H13,Q13),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,150000,375000},{0.0,0.1,0.036,0.0196,0.016,0.01144,0.00898,0.00817,0.00751,0.00594,0.00564,0.00505,0.00395,0.00371}),"")</f>
+        <f>iferror(lookup(if(Q13="",H13,Q13),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,105000,150000,375000},{0.0,0.1,0.033,0.0178,0.0146,0.0104,0.00817,0.00742,0.00683,0.00594,0.00564,0.00505,0.00408,0.00395,0.00371}),"")</f>
         <v>0</v>
       </c>
       <c r="S13" s="18">
@@ -6694,7 +6707,7 @@
         <v>198</v>
       </c>
       <c r="U13" s="17">
-        <v>2483</v>
+        <v>823</v>
       </c>
       <c r="W13" s="18">
         <f>iferror(USD_GBP*lookup(if(V13="",H13,V13),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0202,0.0202,0.0159,0.0159,0.0076,0.0059,0.0058,0.004,0.0039}),"")</f>
@@ -6708,10 +6721,10 @@
         <v>230</v>
       </c>
       <c r="Z13" s="17">
-        <v>30600</v>
+        <v>40150</v>
       </c>
       <c r="AB13" s="18">
-        <f>iferror(lookup(if(AA13="",H13,AA13),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0066,0.0066,0.0051,0.0048,0.0045,0.0044,0.0043}),"")</f>
+        <f>iferror(lookup(if(AA13="",H13,AA13),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0051,0.0051,0.0039,0.0037,0.0035,0.0034,0.0034}),"")</f>
         <v>0</v>
       </c>
       <c r="AC13" s="18">
@@ -6722,7 +6735,7 @@
         <v>253</v>
       </c>
       <c r="AE13" s="17">
-        <v>131500</v>
+        <v>124900</v>
       </c>
       <c r="AG13" s="18">
         <f>iferror(lookup(if(AF13="",H13,AF13),{0,1,10,50,100,1000,10000},{0.0,0.1,0.034,0.034,0.015,0.008,0.007}),"")</f>
@@ -6750,10 +6763,10 @@
         <v>294</v>
       </c>
       <c r="AO13" s="17">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="AQ13" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP13="",H13,AP13),{0,1,15000,60000},{0.0,0.004,0.004,0.004}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP13="",H13,AP13),{0,1,1000,5000,10000,15000,60000},{0.0,0.006,0.006,0.005,0.005,0.004,0.004}),"")</f>
         <v>0</v>
       </c>
       <c r="AR13" s="18">
@@ -6796,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="17">
-        <v>47333</v>
+        <v>46293</v>
       </c>
       <c r="R14" s="18">
         <f>iferror(lookup(if(Q14="",H14,Q14),{0,1,10,100,500,1000,2000,5000,10000,30000,50000},{0.0,0.34,0.236,0.1191,0.09718,0.07211,0.06066,0.058,0.05016,0.04922,0.04125}),"")</f>
@@ -6824,7 +6837,7 @@
         <v>231</v>
       </c>
       <c r="AE14" s="17">
-        <v>9887</v>
+        <v>9847</v>
       </c>
       <c r="AG14" s="18">
         <f>iferror(lookup(if(AF14="",H14,AF14),{0,1,10,50,100,1000,10000},{0.0,0.35,0.231,0.231,0.125,0.076,0.052}),"")</f>
@@ -6884,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="17">
-        <v>12542</v>
+        <v>11814</v>
       </c>
       <c r="R15" s="18">
-        <f>iferror(lookup(if(Q15="",H15,Q15),{0,1,10,100,500,1000,3000,6000},{0.0,0.56,0.495,0.3375,0.282,0.24,0.225,0.2025}),"")</f>
+        <f>iferror(lookup(if(Q15="",H15,Q15),{0,1,10,100,500,1000,3000,6000,9000,30000,75000},{0.0,0.56,0.488,0.3375,0.282,0.24,0.21375,0.2025,0.1875,0.1845,0.18}),"")</f>
         <v>0</v>
       </c>
       <c r="S15" s="18">
@@ -6898,10 +6911,10 @@
         <v>200</v>
       </c>
       <c r="U15" s="17">
-        <v>3092</v>
+        <v>2930</v>
       </c>
       <c r="W15" s="18">
-        <f>iferror(USD_GBP*lookup(if(V15="",H15,V15),{0,1,10,100,150,500,1000,5000},{0.0,0.504,0.407,0.255,0.255,0.22,0.176,0.153}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V15="",H15,V15),{0,1,5,10,100,150,3000,9000,24000,45000},{0.0,0.504,0.504,0.407,0.188,0.188,0.159,0.153,0.15,0.147}),"")</f>
         <v>0</v>
       </c>
       <c r="X15" s="18">
@@ -6912,10 +6925,10 @@
         <v>232</v>
       </c>
       <c r="Z15" s="17">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="AB15" s="18">
-        <f>iferror(lookup(if(AA15="",H15,AA15),{0,1,10,30,100,500,1000},{0.0,0.4693,0.3558,0.3352,0.3146,0.3043,0.3008}),"")</f>
+        <f>iferror(lookup(if(AA15="",H15,AA15),{0,1,10,30,100,500,1000},{0.0,0.4923,0.3733,0.3517,0.33,0.3192,0.3156}),"")</f>
         <v>0</v>
       </c>
       <c r="AC15" s="18">
@@ -6926,7 +6939,7 @@
         <v>254</v>
       </c>
       <c r="AE15" s="17">
-        <v>3</v>
+        <v>8950</v>
       </c>
       <c r="AG15" s="18">
         <f>iferror(lookup(if(AF15="",H15,AF15),{0,1,10,50,100,1000,10000},{0.0,0.56,0.464,0.464,0.325,0.24,0.193}),"")</f>
@@ -6943,7 +6956,7 @@
         <v>444</v>
       </c>
       <c r="AL15" s="18">
-        <f>iferror(lookup(if(AK15="",H15,AK15),{0,1,25,50,100,250,500,3000,6000,12000,18000,30000},{0.0,0.56,0.464,0.395,0.325,0.303,0.281,0.213,0.202,0.193,0.19,0.187}),"")</f>
+        <f>iferror(lookup(if(AK15="",H15,AK15),{0,1,10,100,500,3000,9000,24000,45000},{0.0,0.56,0.464,0.325,0.281,0.224,0.193,0.187,0.175}),"")</f>
         <v>0</v>
       </c>
       <c r="AM15" s="18">
@@ -6957,7 +6970,7 @@
         <v>3275</v>
       </c>
       <c r="AQ15" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP15="",H15,AP15),{0,1,25,100,250,500,1000},{0.0,0.347,0.347,0.227,0.204,0.195,0.167}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP15="",H15,AP15),{0,1,25,100,250,500,1000,3000},{0.0,0.347,0.347,0.227,0.204,0.195,0.167,0.167}),"")</f>
         <v>0</v>
       </c>
       <c r="AR15" s="18">
@@ -7003,10 +7016,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="17">
-        <v>21033</v>
+        <v>21028</v>
       </c>
       <c r="R16" s="18">
-        <f>iferror(lookup(if(Q16="",H16,Q16),{0,1,10,100,1000,2000,6000,10000,50000},{0.0,0.67,0.439,0.2903,0.2241,0.2025,0.189,0.18225,0.17213}),"")</f>
+        <f>iferror(lookup(if(Q16="",H16,Q16),{0,1,10,100,1000,2000,6000,10000,50000},{0.0,0.71,0.465,0.3077,0.23755,0.21465,0.20034,0.19319,0.18245}),"")</f>
         <v>0</v>
       </c>
       <c r="S16" s="18">
@@ -7050,16 +7063,8 @@
       <c r="AN16" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="AT16" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="AV16" s="18">
-        <f>iferror(lookup(if(AU16="",H16,AU16),{0,1,5,25,100,500},{0.0,0.8,0.41,0.28,0.248,0.217}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AW16" s="18">
-        <f>iferror(if(AU16="",H16,AU16)*AV16,"")</f>
-        <v>0</v>
+      <c r="AT16" s="17">
+        <v>1999</v>
       </c>
       <c r="AX16" s="19" t="s">
         <v>323</v>
@@ -7096,11 +7101,11 @@
         <f>iferror(H17*I17,"")</f>
         <v>0</v>
       </c>
-      <c r="P17" s="17">
-        <v>1497</v>
+      <c r="P17" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="R17" s="18">
-        <f>iferror(lookup(if(Q17="",H17,Q17),{0,1,10,25,50,100,250,500,1500,3000,7500,10500},{0.0,1.72,1.558,1.4632,1.3994,1.3358,1.20856,1.11316,0.92233,0.89053,0.846,0.82692}),"")</f>
+        <f>iferror(lookup(if(Q17="",H17,Q17),{0,1,10,25,50,100,250,500,1500,3000,7500,10500},{0.0,1.51,1.372,1.288,1.232,1.176,1.064,0.98,0.812,0.784,0.7448,0.728}),"")</f>
         <v>0</v>
       </c>
       <c r="S17" s="18">
@@ -7111,10 +7116,10 @@
         <v>202</v>
       </c>
       <c r="AE17" s="17">
-        <v>3399</v>
+        <v>1735</v>
       </c>
       <c r="AG17" s="18">
-        <f>iferror(lookup(if(AF17="",H17,AF17),{0,1,10,50,100,1000,10000},{0.0,1.89,1.53,1.53,1.46,0.922,0.826}),"")</f>
+        <f>iferror(lookup(if(AF17="",H17,AF17),{0,1,10,50,100,1000,10000},{0.0,1.51,1.23,1.23,1.17,0.839,0.728}),"")</f>
         <v>0</v>
       </c>
       <c r="AH17" s="18">
@@ -7125,10 +7130,10 @@
         <v>269</v>
       </c>
       <c r="AO17" s="17">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="AQ17" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP17="",H17,AP17),{0,1,4,20,100,200},{0.0,5.9,5.6,5.34,5.08,4.82}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP17="",H17,AP17),{0,1,4,20,100,200},{0.0,5.57,5.31,5.04,4.78,4.55}),"")</f>
         <v>0</v>
       </c>
       <c r="AR17" s="18">
@@ -7171,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="17">
-        <v>1420</v>
+        <v>1392</v>
       </c>
       <c r="R18" s="18">
         <f>iferror(lookup(if(Q18="",H18,Q18),{0,1,10,25,50,100,250,500},{0.0,0.25,0.236,0.2012,0.1758,0.1633,0.14448,0.1382}),"")</f>
@@ -7217,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="17">
-        <v>1683</v>
+        <v>1412</v>
       </c>
       <c r="R19" s="18">
         <f>iferror(lookup(if(Q19="",H19,Q19),{0,1,10,25,50,100,250,500},{0.0,0.29,0.271,0.2324,0.1974,0.1896,0.17028,0.16254}),"")</f>
@@ -7291,7 +7296,7 @@
         <v>234</v>
       </c>
       <c r="AE20" s="17">
-        <v>2779</v>
+        <v>2579</v>
       </c>
       <c r="AG20" s="18">
         <f>iferror(lookup(if(AF20="",H20,AF20),{0,1,10,50,100,1000,10000},{0.0,0.39,0.268,0.268,0.112,0.076,0.051}),"")</f>
@@ -7411,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="17">
-        <v>4475116</v>
+        <v>3940215</v>
       </c>
       <c r="R22" s="18">
         <f>iferror(lookup(if(Q22="",H22,Q22),{0,1,10,25,50,100,250,500,1000,5000,15000,30000,75000},{0.0,0.1,0.025,0.018,0.0136,0.01,0.00764,0.00612,0.00451,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7439,10 +7444,10 @@
         <v>235</v>
       </c>
       <c r="Z22" s="17">
-        <v>8750</v>
+        <v>8700</v>
       </c>
       <c r="AB22" s="18">
-        <f>iferror(lookup(if(AA22="",H22,AA22),{0,1,50,500,1500,5000,25000,50000},{0.0,0.006,0.006,0.0045,0.0043,0.004,0.0039,0.0038}),"")</f>
+        <f>iferror(lookup(if(AA22="",H22,AA22),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0063,0.0063,0.0048,0.0045,0.0042,0.0041,0.004}),"")</f>
         <v>0</v>
       </c>
       <c r="AC22" s="18">
@@ -7453,7 +7458,7 @@
         <v>255</v>
       </c>
       <c r="AE22" s="17">
-        <v>1237538</v>
+        <v>1192409</v>
       </c>
       <c r="AG22" s="18">
         <f>iferror(lookup(if(AF22="",H22,AF22),{0,1,10,50,100,1000,10000},{0.0,0.1,0.015,0.015,0.006,0.005,0.003}),"")</f>
@@ -7467,7 +7472,7 @@
         <v>272</v>
       </c>
       <c r="AJ22" s="17">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="AL22" s="18">
         <f>iferror(lookup(if(AK22="",H22,AK22),{0,1,25,100,250,500,1000,2500,5000},{0.0,0.211,0.021,0.009,0.008,0.007,0.006,0.005,0.004}),"")</f>
@@ -7481,10 +7486,10 @@
         <v>299</v>
       </c>
       <c r="AO22" s="17">
-        <v>1093637</v>
+        <v>1092637</v>
       </c>
       <c r="AQ22" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP22="",H22,AP22),{0,1,15000},{0.0,0.004,0.004}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP22="",H22,AP22),{0,1,1000,15000},{0.0,0.004,0.004,0.004}),"")</f>
         <v>0</v>
       </c>
       <c r="AR22" s="18">
@@ -7527,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="17">
-        <v>250109</v>
+        <v>217349</v>
       </c>
       <c r="R23" s="18">
         <f>iferror(lookup(if(Q23="",H23,Q23),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7555,7 +7560,7 @@
         <v>236</v>
       </c>
       <c r="AE23" s="17">
-        <v>34721</v>
+        <v>33427</v>
       </c>
       <c r="AG23" s="18">
         <f>iferror(lookup(if(AF23="",H23,AF23),{0,1,10,50,100,1000,10000},{0.0,0.1,0.026,0.026,0.011,0.005,0.003}),"")</f>
@@ -7575,10 +7580,10 @@
         <v>300</v>
       </c>
       <c r="AO23" s="17">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="AQ23" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP23="",H23,AP23),{0,1,15000},{0.0,0.006,0.006}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP23="",H23,AP23),{0,1,1000,5000,10000,15000},{0.0,0.011,0.011,0.009,0.008,0.006}),"")</f>
         <v>0</v>
       </c>
       <c r="AR23" s="18">
@@ -7621,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="17">
-        <v>68757</v>
+        <v>22167</v>
       </c>
       <c r="R24" s="18">
         <f>iferror(lookup(if(Q24="",H24,Q24),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7665,6 +7670,14 @@
       <c r="AJ24" s="20" t="s">
         <v>193</v>
       </c>
+      <c r="AL24" s="18">
+        <f>iferror(lookup(if(AK24="",H24,AK24),{0,1,15000,30000},{0.0,0.005,0.005,0.004}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="18">
+        <f>iferror(if(AK24="",H24,AK24)*AL24,"")</f>
+        <v>0</v>
+      </c>
       <c r="AN24" s="19" t="s">
         <v>301</v>
       </c>
@@ -7672,7 +7685,7 @@
         <v>41000</v>
       </c>
       <c r="AQ24" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP24="",H24,AP24),{0,1,15000},{0.0,0.004,0.004}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP24="",H24,AP24),{0,1,1000,5000,10000,15000},{0.0,0.005,0.005,0.005,0.005,0.005}),"")</f>
         <v>0</v>
       </c>
       <c r="AR24" s="18">
@@ -7715,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="17">
-        <v>321850</v>
+        <v>230781</v>
       </c>
       <c r="R25" s="18">
         <f>iferror(lookup(if(Q25="",H25,Q25),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7746,7 +7759,7 @@
         <v>4250</v>
       </c>
       <c r="AB25" s="18">
-        <f>iferror(lookup(if(AA25="",H25,AA25),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0182,0.0182,0.0139,0.0131,0.0123,0.012,0.0118}),"")</f>
+        <f>iferror(lookup(if(AA25="",H25,AA25),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0191,0.0191,0.0146,0.0138,0.0129,0.0126,0.0124}),"")</f>
         <v>0</v>
       </c>
       <c r="AC25" s="18">
@@ -7757,7 +7770,7 @@
         <v>256</v>
       </c>
       <c r="AE25" s="17">
-        <v>212846</v>
+        <v>203146</v>
       </c>
       <c r="AG25" s="18">
         <f>iferror(lookup(if(AF25="",H25,AF25),{0,1,10,50,100,1000,10000},{0.0,0.1,0.026,0.026,0.011,0.005,0.003}),"")</f>
@@ -7780,7 +7793,7 @@
         <v>40000</v>
       </c>
       <c r="AQ25" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP25="",H25,AP25),{0,1,15000},{0.0,0.006,0.006}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP25="",H25,AP25),{0,1,1000,5000,10000,15000},{0.0,0.011,0.011,0.009,0.008,0.006}),"")</f>
         <v>0</v>
       </c>
       <c r="AR25" s="18">
@@ -7823,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="17">
-        <v>30061</v>
+        <v>14931</v>
       </c>
       <c r="R26" s="18">
         <f>iferror(lookup(if(Q26="",H26,Q26),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7851,7 +7864,7 @@
         <v>239</v>
       </c>
       <c r="AE26" s="17">
-        <v>81930</v>
+        <v>81830</v>
       </c>
       <c r="AG26" s="18">
         <f>iferror(lookup(if(AF26="",H26,AF26),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.005,0.003}),"")</f>
@@ -7903,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="17">
-        <v>278918</v>
+        <v>241053</v>
       </c>
       <c r="R27" s="18">
         <f>iferror(lookup(if(Q27="",H27,Q27),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
@@ -7934,7 +7947,7 @@
         <v>14800</v>
       </c>
       <c r="AB27" s="18">
-        <f>iferror(lookup(if(AA27="",H27,AA27),{0,1,50,500,1500,5000,25000,50000},{0.0,0.006,0.006,0.0045,0.0043,0.004,0.0039,0.0038}),"")</f>
+        <f>iferror(lookup(if(AA27="",H27,AA27),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0063,0.0063,0.0048,0.0045,0.0042,0.0041,0.004}),"")</f>
         <v>0</v>
       </c>
       <c r="AC27" s="18">
@@ -7945,7 +7958,7 @@
         <v>257</v>
       </c>
       <c r="AE27" s="17">
-        <v>50792</v>
+        <v>109592</v>
       </c>
       <c r="AG27" s="18">
         <f>iferror(lookup(if(AF27="",H27,AF27),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.005,0.003}),"")</f>
@@ -7968,7 +7981,7 @@
         <v>54000</v>
       </c>
       <c r="AQ27" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP27="",H27,AP27),{0,1,15000},{0.0,0.004,0.004}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP27="",H27,AP27),{0,1,1000,5000,10000,15000},{0.0,0.004,0.004,0.004,0.004,0.004}),"")</f>
         <v>0</v>
       </c>
       <c r="AR27" s="18">
@@ -8151,7 +8164,7 @@
         <v>215</v>
       </c>
       <c r="AE30" s="17">
-        <v>908</v>
+        <v>628</v>
       </c>
       <c r="AG30" s="18">
         <f>iferror(lookup(if(AF30="",H30,AF30),{0,1,10,50,100,1000,10000},{0.0,2.36,2.0,2.0,1.71,1.16,1.03}),"")</f>
@@ -8197,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="17">
-        <v>3421</v>
+        <v>3311</v>
       </c>
       <c r="R31" s="18">
         <f>iferror(lookup(if(Q31="",H31,Q31),{0,1,10,25,100,250,500,1000,3000,6000,15000},{0.0,0.46,0.376,0.344,0.232,0.192,0.176,0.132,0.124,0.116,0.108}),"")</f>
@@ -8214,7 +8227,7 @@
         <v>1315</v>
       </c>
       <c r="W31" s="18">
-        <f>iferror(USD_GBP*lookup(if(V31="",H31,V31),{0,1,5,10,100,150,500,1000,5000,10000},{0.0,0.402,0.402,0.294,0.135,0.135,0.111,0.087,0.084,0.0823}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V31="",H31,V31),{0,1,5,10,100,150,3000,9000,24000,45000},{0.0,0.402,0.402,0.294,0.1,0.1,0.087,0.084,0.081,0.079}),"")</f>
         <v>0</v>
       </c>
       <c r="X31" s="18">
@@ -8225,7 +8238,7 @@
         <v>242</v>
       </c>
       <c r="AE31" s="17">
-        <v>10279</v>
+        <v>10148</v>
       </c>
       <c r="AG31" s="18">
         <f>iferror(lookup(if(AF31="",H31,AF31),{0,1,10,50,100,1000,10000},{0.0,0.46,0.343,0.343,0.175,0.131,0.11}),"")</f>
@@ -8242,7 +8255,7 @@
         <v>1265</v>
       </c>
       <c r="AL31" s="18">
-        <f>iferror(lookup(if(AK31="",H31,AK31),{0,1,5,10,25,50,100,250},{0.0,0.46,0.46,0.376,0.344,0.288,0.232,0.192}),"")</f>
+        <f>iferror(lookup(if(AK31="",H31,AK31),{0,1,5,10,100},{0.0,0.46,0.46,0.376,0.232}),"")</f>
         <v>0</v>
       </c>
       <c r="AM31" s="18">
@@ -8253,10 +8266,10 @@
         <v>306</v>
       </c>
       <c r="AO31" s="17">
-        <v>2874</v>
+        <v>2856</v>
       </c>
       <c r="AQ31" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP31="",H31,AP31),{0,1,3000},{0.0,0.085,0.085}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP31="",H31,AP31),{0,1,18,180,1800,3000,18000,54000},{0.0,0.257,0.257,0.194,0.105,0.085,0.086,0.084}),"")</f>
         <v>0</v>
       </c>
       <c r="AR31" s="18">
@@ -8327,7 +8340,7 @@
         <v>243</v>
       </c>
       <c r="AE32" s="17">
-        <v>3643</v>
+        <v>3543</v>
       </c>
       <c r="AG32" s="18">
         <f>iferror(lookup(if(AF32="",H32,AF32),{0,1,10,50,100,1000,10000},{0.0,0.5,0.402,0.402,0.321,0.195,0.15}),"")</f>
@@ -8376,7 +8389,7 @@
         <v>193</v>
       </c>
       <c r="R33" s="18">
-        <f>iferror(lookup(if(Q33="",H33,Q33),{0,1,10,25,100,250,500,1000,5000},{0.0,3.21,2.885,2.7272,2.2422,2.01192,1.9392,1.6968,1.6968}),"")</f>
+        <f>iferror(lookup(if(Q33="",H33,Q33),{0,1,10,25,100,5000},{0.0,3.21,2.885,2.7272,2.424,2.424}),"")</f>
         <v>0</v>
       </c>
       <c r="S33" s="18">
@@ -8491,14 +8504,6 @@
       <c r="AT34" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="AV34" s="18">
-        <f>iferror(lookup(if(AU34="",H34,AU34),{0,1,5,25,100},{0.0,4.1,3.85,3.6,3.35}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AW34" s="18">
-        <f>iferror(if(AU34="",H34,AU34)*AV34,"")</f>
-        <v>0</v>
-      </c>
       <c r="AX34" s="19" t="s">
         <v>324</v>
       </c>
@@ -8534,8 +8539,8 @@
         <f>iferror(H35*I35,"")</f>
         <v>0</v>
       </c>
-      <c r="P35" s="17">
-        <v>107</v>
+      <c r="P35" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="R35" s="18">
         <f>iferror(lookup(if(Q35="",H35,Q35),{0,1,25,100,1500},{0.0,1.35,1.3044,1.2543,1.17521}),"")</f>
@@ -8548,8 +8553,8 @@
       <c r="T35" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="U35" s="17">
-        <v>432</v>
+      <c r="U35" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="W35" s="18">
         <f>iferror(USD_GBP*lookup(if(V35="",H35,V35),{0,1,10,25,50,100,250,500,1000,2500},{0.0,1.24,1.24,1.14,1.06,1.04,1.02,1.01,0.996,0.981}),"")</f>
@@ -8563,7 +8568,7 @@
         <v>245</v>
       </c>
       <c r="AE35" s="17">
-        <v>5644</v>
+        <v>1686</v>
       </c>
       <c r="AG35" s="18">
         <f>iferror(lookup(if(AF35="",H35,AF35),{0,1,10,50,100,1000,10000},{0.0,1.35,1.35,1.3,1.25,1.25,1.17}),"")</f>
@@ -8576,11 +8581,11 @@
       <c r="AI35" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="AJ35" s="17">
-        <v>414</v>
+      <c r="AJ35" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="AL35" s="18">
-        <f>iferror(lookup(if(AK35="",H35,AK35),{0,1,10,25,50,100},{0.0,1.79,1.66,1.56,1.46,1.35}),"")</f>
+        <f>iferror(lookup(if(AK35="",H35,AK35),{0,1,10,25,50,100},{0.0,1.75,1.63,1.52,1.42,1.32}),"")</f>
         <v>0</v>
       </c>
       <c r="AM35" s="18">
@@ -8660,7 +8665,7 @@
         <v>193</v>
       </c>
       <c r="AL36" s="18">
-        <f>iferror(lookup(if(AK36="",H36,AK36),{0,1,3000,6000,12000,18000,30000},{0.0,0.285,0.285,0.264,0.246,0.229,0.219}),"")</f>
+        <f>iferror(lookup(if(AK36="",H36,AK36),{0,1,3000,9000,24000,45000},{0.0,0.292,0.292,0.285,0.264,0.246}),"")</f>
         <v>0</v>
       </c>
       <c r="AM36" s="18">
@@ -8703,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="17">
-        <v>3992</v>
+        <v>3874</v>
       </c>
       <c r="R37" s="18">
         <f>iferror(lookup(if(Q37="",H37,Q37),{0,1,25,100,2000},{0.0,6.0,5.25,5.005,5.005}),"")</f>
@@ -8717,7 +8722,7 @@
         <v>222</v>
       </c>
       <c r="AE37" s="17">
-        <v>1346</v>
+        <v>1112</v>
       </c>
       <c r="AG37" s="18">
         <f>iferror(lookup(if(AF37="",H37,AF37),{0,1,10,50,100,1000,10000},{0.0,6.06,6.06,5.31,5.06,5.06,5.05}),"")</f>
@@ -10241,1501 +10246,1455 @@
     <mergeCell ref="AT5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="expression" dxfId="3" priority="430">
+    <cfRule type="expression" dxfId="3" priority="431">
       <formula>AND(AA10&gt;0,AA10&lt;100)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="431" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="432" operator="greaterThan">
       <formula>Z10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11">
-    <cfRule type="expression" dxfId="3" priority="436">
+    <cfRule type="expression" dxfId="3" priority="437">
       <formula>AND(AA11&gt;0,AA11&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="437" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="438" operator="greaterThan">
       <formula>Z11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="expression" dxfId="3" priority="442">
+    <cfRule type="expression" dxfId="3" priority="443">
       <formula>AND(AA12&gt;0,AA12&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="443" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="444" operator="greaterThan">
       <formula>Z12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="expression" dxfId="3" priority="448">
+    <cfRule type="expression" dxfId="3" priority="449">
       <formula>AND(AA13&gt;0,AA13&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="449" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="450" operator="greaterThan">
       <formula>Z13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="cellIs" dxfId="1" priority="454" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="455" operator="greaterThan">
       <formula>Z15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22">
-    <cfRule type="expression" dxfId="3" priority="459">
+    <cfRule type="expression" dxfId="3" priority="460">
       <formula>AND(AA22&gt;0,AA22&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="460" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="461" operator="greaterThan">
       <formula>Z22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA25">
-    <cfRule type="expression" dxfId="3" priority="465">
+    <cfRule type="expression" dxfId="3" priority="466">
       <formula>AND(AA25&gt;0,AA25&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="466" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="467" operator="greaterThan">
       <formula>Z25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA27">
-    <cfRule type="expression" dxfId="3" priority="471">
+    <cfRule type="expression" dxfId="3" priority="472">
       <formula>AND(AA27&gt;0,AA27&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="472" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="473" operator="greaterThan">
       <formula>Z27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8">
-    <cfRule type="expression" dxfId="3" priority="418">
+    <cfRule type="expression" dxfId="3" priority="419">
       <formula>AND(AA8&gt;0,AA8&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="419" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="420" operator="greaterThan">
       <formula>Z8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="expression" dxfId="3" priority="424">
+    <cfRule type="expression" dxfId="3" priority="425">
       <formula>AND(AA9&gt;0,AA9&lt;20)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="425" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="426" operator="greaterThan">
       <formula>Z9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
+    <cfRule type="cellIs" dxfId="4" priority="434" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11">
+    <cfRule type="cellIs" dxfId="4" priority="440" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12">
+    <cfRule type="cellIs" dxfId="4" priority="446" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13">
+    <cfRule type="cellIs" dxfId="4" priority="452" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB15">
+    <cfRule type="cellIs" dxfId="4" priority="457" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB22">
+    <cfRule type="cellIs" dxfId="4" priority="463" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB25">
+    <cfRule type="cellIs" dxfId="4" priority="469" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB27">
+    <cfRule type="cellIs" dxfId="4" priority="475" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB8">
+    <cfRule type="cellIs" dxfId="4" priority="422" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB9">
+    <cfRule type="cellIs" dxfId="4" priority="428" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10">
     <cfRule type="cellIs" dxfId="4" priority="433" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11">
+    <cfRule type="cellIs" dxfId="4" priority="439" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12">
+    <cfRule type="cellIs" dxfId="4" priority="445" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC13">
+    <cfRule type="cellIs" dxfId="4" priority="451" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15">
+    <cfRule type="cellIs" dxfId="4" priority="456" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC22">
+    <cfRule type="cellIs" dxfId="4" priority="462" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC25">
+    <cfRule type="cellIs" dxfId="4" priority="468" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC27">
+    <cfRule type="cellIs" dxfId="4" priority="474" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC8">
+    <cfRule type="cellIs" dxfId="4" priority="421" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9">
+    <cfRule type="cellIs" dxfId="4" priority="427" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE10">
+    <cfRule type="cellIs" dxfId="1" priority="491" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="492" operator="lessThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11">
+    <cfRule type="cellIs" dxfId="1" priority="496" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="497" operator="lessThan">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12">
+    <cfRule type="cellIs" dxfId="1" priority="501" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="502" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE13">
+    <cfRule type="cellIs" dxfId="1" priority="506" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="507" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14">
+    <cfRule type="cellIs" dxfId="1" priority="511" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="512" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15">
+    <cfRule type="cellIs" dxfId="1" priority="516" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="517" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE16">
+    <cfRule type="cellIs" dxfId="1" priority="521" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="522" operator="lessThan">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE17">
+    <cfRule type="cellIs" dxfId="1" priority="526" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="527" operator="lessThan">
+      <formula>H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE20">
+    <cfRule type="cellIs" dxfId="1" priority="531" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="532" operator="lessThan">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE21">
+    <cfRule type="cellIs" dxfId="1" priority="536" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="537" operator="lessThan">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22">
+    <cfRule type="cellIs" dxfId="1" priority="541" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="542" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="cellIs" dxfId="1" priority="546" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="547" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="1" priority="551" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="552" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="1" priority="556" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="557" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="cellIs" dxfId="1" priority="561" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="562" operator="lessThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="cellIs" dxfId="1" priority="566" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="567" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="cellIs" dxfId="1" priority="571" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="572" operator="lessThan">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="cellIs" dxfId="1" priority="576" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="577" operator="lessThan">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="1" priority="581" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="582" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="cellIs" dxfId="1" priority="586" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="587" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33">
+    <cfRule type="cellIs" dxfId="1" priority="591" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="592" operator="lessThan">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
+    <cfRule type="cellIs" dxfId="1" priority="596" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="597" operator="lessThan">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
+    <cfRule type="cellIs" dxfId="1" priority="601" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="602" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36">
+    <cfRule type="cellIs" dxfId="1" priority="606" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="607" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE37">
+    <cfRule type="cellIs" dxfId="1" priority="611" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="612" operator="lessThan">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7">
+    <cfRule type="cellIs" dxfId="1" priority="476" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="477" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="cellIs" dxfId="1" priority="481" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="482" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
+    <cfRule type="cellIs" dxfId="1" priority="486" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="487" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
+    <cfRule type="cellIs" dxfId="1" priority="493" operator="greaterThan">
+      <formula>AE10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11">
+    <cfRule type="cellIs" dxfId="1" priority="498" operator="greaterThan">
+      <formula>AE11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12">
+    <cfRule type="cellIs" dxfId="1" priority="503" operator="greaterThan">
+      <formula>AE12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13">
+    <cfRule type="cellIs" dxfId="1" priority="508" operator="greaterThan">
+      <formula>AE13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14">
+    <cfRule type="cellIs" dxfId="1" priority="513" operator="greaterThan">
+      <formula>AE14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="cellIs" dxfId="1" priority="518" operator="greaterThan">
+      <formula>AE15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF16">
+    <cfRule type="cellIs" dxfId="1" priority="523" operator="greaterThan">
+      <formula>AE16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF17">
+    <cfRule type="cellIs" dxfId="1" priority="528" operator="greaterThan">
+      <formula>AE17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF20">
+    <cfRule type="cellIs" dxfId="1" priority="533" operator="greaterThan">
+      <formula>AE20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF21">
+    <cfRule type="cellIs" dxfId="1" priority="538" operator="greaterThan">
+      <formula>AE21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF22">
+    <cfRule type="cellIs" dxfId="1" priority="543" operator="greaterThan">
+      <formula>AE22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF23">
+    <cfRule type="cellIs" dxfId="1" priority="548" operator="greaterThan">
+      <formula>AE23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24">
+    <cfRule type="cellIs" dxfId="1" priority="553" operator="greaterThan">
+      <formula>AE24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="cellIs" dxfId="1" priority="558" operator="greaterThan">
+      <formula>AE25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF26">
+    <cfRule type="cellIs" dxfId="1" priority="563" operator="greaterThan">
+      <formula>AE26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF27">
+    <cfRule type="cellIs" dxfId="1" priority="568" operator="greaterThan">
+      <formula>AE27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF28">
+    <cfRule type="cellIs" dxfId="1" priority="573" operator="greaterThan">
+      <formula>AE28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF30">
+    <cfRule type="cellIs" dxfId="1" priority="578" operator="greaterThan">
+      <formula>AE30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31">
+    <cfRule type="cellIs" dxfId="1" priority="583" operator="greaterThan">
+      <formula>AE31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF32">
+    <cfRule type="cellIs" dxfId="1" priority="588" operator="greaterThan">
+      <formula>AE32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33">
+    <cfRule type="cellIs" dxfId="1" priority="593" operator="greaterThan">
+      <formula>AE33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF34">
+    <cfRule type="cellIs" dxfId="1" priority="598" operator="greaterThan">
+      <formula>AE34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="cellIs" dxfId="1" priority="603" operator="greaterThan">
+      <formula>AE35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36">
+    <cfRule type="cellIs" dxfId="1" priority="608" operator="greaterThan">
+      <formula>AE36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF37">
+    <cfRule type="cellIs" dxfId="1" priority="613" operator="greaterThan">
+      <formula>AE37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7">
+    <cfRule type="cellIs" dxfId="1" priority="478" operator="greaterThan">
+      <formula>AE7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="cellIs" dxfId="1" priority="483" operator="greaterThan">
+      <formula>AE8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9">
+    <cfRule type="cellIs" dxfId="1" priority="488" operator="greaterThan">
+      <formula>AE9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="cellIs" dxfId="4" priority="495" operator="lessThanOrEqual">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB11">
-    <cfRule type="cellIs" dxfId="4" priority="439" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG11">
+    <cfRule type="cellIs" dxfId="4" priority="500" operator="lessThanOrEqual">
       <formula>I11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12">
-    <cfRule type="cellIs" dxfId="4" priority="445" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG12">
+    <cfRule type="cellIs" dxfId="4" priority="505" operator="lessThanOrEqual">
       <formula>I12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB13">
-    <cfRule type="cellIs" dxfId="4" priority="451" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG13">
+    <cfRule type="cellIs" dxfId="4" priority="510" operator="lessThanOrEqual">
       <formula>I13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB15">
-    <cfRule type="cellIs" dxfId="4" priority="456" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG14">
+    <cfRule type="cellIs" dxfId="4" priority="515" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15">
+    <cfRule type="cellIs" dxfId="4" priority="520" operator="lessThanOrEqual">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB22">
-    <cfRule type="cellIs" dxfId="4" priority="462" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG16">
+    <cfRule type="cellIs" dxfId="4" priority="525" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG17">
+    <cfRule type="cellIs" dxfId="4" priority="530" operator="lessThanOrEqual">
+      <formula>I17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG20">
+    <cfRule type="cellIs" dxfId="4" priority="535" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG21">
+    <cfRule type="cellIs" dxfId="4" priority="540" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22">
+    <cfRule type="cellIs" dxfId="4" priority="545" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB25">
-    <cfRule type="cellIs" dxfId="4" priority="468" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG23">
+    <cfRule type="cellIs" dxfId="4" priority="550" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="cellIs" dxfId="4" priority="555" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="cellIs" dxfId="4" priority="560" operator="lessThanOrEqual">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB27">
-    <cfRule type="cellIs" dxfId="4" priority="474" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG26">
+    <cfRule type="cellIs" dxfId="4" priority="565" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG27">
+    <cfRule type="cellIs" dxfId="4" priority="570" operator="lessThanOrEqual">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB8">
-    <cfRule type="cellIs" dxfId="4" priority="421" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG28">
+    <cfRule type="cellIs" dxfId="4" priority="575" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG30">
+    <cfRule type="cellIs" dxfId="4" priority="580" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG31">
+    <cfRule type="cellIs" dxfId="4" priority="585" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG32">
+    <cfRule type="cellIs" dxfId="4" priority="590" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33">
+    <cfRule type="cellIs" dxfId="4" priority="595" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG34">
+    <cfRule type="cellIs" dxfId="4" priority="600" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG35">
+    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36">
+    <cfRule type="cellIs" dxfId="4" priority="610" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG37">
+    <cfRule type="cellIs" dxfId="4" priority="615" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7">
+    <cfRule type="cellIs" dxfId="4" priority="480" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="4" priority="485" operator="lessThanOrEqual">
       <formula>I8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB9">
-    <cfRule type="cellIs" dxfId="4" priority="427" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="4" priority="490" operator="lessThanOrEqual">
       <formula>I9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC10">
-    <cfRule type="cellIs" dxfId="4" priority="432" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH10">
+    <cfRule type="cellIs" dxfId="4" priority="494" operator="lessThanOrEqual">
       <formula>J10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC11">
-    <cfRule type="cellIs" dxfId="4" priority="438" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="cellIs" dxfId="4" priority="499" operator="lessThanOrEqual">
       <formula>J11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
-    <cfRule type="cellIs" dxfId="4" priority="444" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH12">
+    <cfRule type="cellIs" dxfId="4" priority="504" operator="lessThanOrEqual">
       <formula>J12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC13">
-    <cfRule type="cellIs" dxfId="4" priority="450" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="cellIs" dxfId="4" priority="509" operator="lessThanOrEqual">
       <formula>J13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC15">
-    <cfRule type="cellIs" dxfId="4" priority="455" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH14">
+    <cfRule type="cellIs" dxfId="4" priority="514" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="cellIs" dxfId="4" priority="519" operator="lessThanOrEqual">
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC22">
-    <cfRule type="cellIs" dxfId="4" priority="461" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH16">
+    <cfRule type="cellIs" dxfId="4" priority="524" operator="lessThanOrEqual">
+      <formula>J16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH17">
+    <cfRule type="cellIs" dxfId="4" priority="529" operator="lessThanOrEqual">
+      <formula>J17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="cellIs" dxfId="4" priority="534" operator="lessThanOrEqual">
+      <formula>J20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="cellIs" dxfId="4" priority="539" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH22">
+    <cfRule type="cellIs" dxfId="4" priority="544" operator="lessThanOrEqual">
       <formula>J22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC25">
-    <cfRule type="cellIs" dxfId="4" priority="467" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="cellIs" dxfId="4" priority="549" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24">
+    <cfRule type="cellIs" dxfId="4" priority="554" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="cellIs" dxfId="4" priority="559" operator="lessThanOrEqual">
       <formula>J25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC27">
-    <cfRule type="cellIs" dxfId="4" priority="473" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH26">
+    <cfRule type="cellIs" dxfId="4" priority="564" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27">
+    <cfRule type="cellIs" dxfId="4" priority="569" operator="lessThanOrEqual">
       <formula>J27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="4" priority="420" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH28">
+    <cfRule type="cellIs" dxfId="4" priority="574" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH30">
+    <cfRule type="cellIs" dxfId="4" priority="579" operator="lessThanOrEqual">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31">
+    <cfRule type="cellIs" dxfId="4" priority="584" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32">
+    <cfRule type="cellIs" dxfId="4" priority="589" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
+    <cfRule type="cellIs" dxfId="4" priority="594" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34">
+    <cfRule type="cellIs" dxfId="4" priority="599" operator="lessThanOrEqual">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="cellIs" dxfId="4" priority="604" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36">
+    <cfRule type="cellIs" dxfId="4" priority="609" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH37">
+    <cfRule type="cellIs" dxfId="4" priority="614" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="cellIs" dxfId="4" priority="479" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH8">
+    <cfRule type="cellIs" dxfId="4" priority="484" operator="lessThanOrEqual">
       <formula>J8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC9">
-    <cfRule type="cellIs" dxfId="4" priority="426" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="cellIs" dxfId="4" priority="489" operator="lessThanOrEqual">
       <formula>J9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE10">
-    <cfRule type="cellIs" dxfId="1" priority="490" operator="equal">
+  <conditionalFormatting sqref="AJ10">
+    <cfRule type="cellIs" dxfId="1" priority="628" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="491" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="629" operator="lessThan">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE11">
-    <cfRule type="cellIs" dxfId="1" priority="495" operator="equal">
+  <conditionalFormatting sqref="AJ11">
+    <cfRule type="cellIs" dxfId="1" priority="634" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="496" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="635" operator="lessThan">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE12">
-    <cfRule type="cellIs" dxfId="1" priority="500" operator="equal">
+  <conditionalFormatting sqref="AJ12">
+    <cfRule type="cellIs" dxfId="1" priority="640" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="501" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="641" operator="lessThan">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE13">
-    <cfRule type="cellIs" dxfId="1" priority="505" operator="equal">
+  <conditionalFormatting sqref="AJ13">
+    <cfRule type="cellIs" dxfId="1" priority="646" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="506" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="647" operator="lessThan">
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE14">
-    <cfRule type="cellIs" dxfId="1" priority="510" operator="equal">
+  <conditionalFormatting sqref="AJ14">
+    <cfRule type="cellIs" dxfId="1" priority="652" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="511" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="653" operator="lessThan">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE15">
-    <cfRule type="cellIs" dxfId="1" priority="515" operator="equal">
+  <conditionalFormatting sqref="AJ15">
+    <cfRule type="cellIs" dxfId="1" priority="658" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="516" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="659" operator="lessThan">
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16">
-    <cfRule type="cellIs" dxfId="1" priority="520" operator="equal">
+  <conditionalFormatting sqref="AJ20">
+    <cfRule type="cellIs" dxfId="1" priority="663" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="521" operator="lessThan">
-      <formula>H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE17">
-    <cfRule type="cellIs" dxfId="1" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="664" operator="lessThan">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ22">
+    <cfRule type="cellIs" dxfId="1" priority="669" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="526" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="670" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ24">
+    <cfRule type="cellIs" dxfId="1" priority="674" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="675" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ31">
+    <cfRule type="cellIs" dxfId="1" priority="680" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="681" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ33">
+    <cfRule type="cellIs" dxfId="1" priority="686" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="687" operator="lessThan">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ35">
+    <cfRule type="cellIs" dxfId="1" priority="691" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="692" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ36">
+    <cfRule type="cellIs" dxfId="1" priority="696" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="697" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ8">
+    <cfRule type="cellIs" dxfId="1" priority="616" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="617" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9">
+    <cfRule type="cellIs" dxfId="1" priority="622" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="623" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10">
+    <cfRule type="expression" dxfId="3" priority="630">
+      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="631" operator="greaterThan">
+      <formula>AJ10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11">
+    <cfRule type="expression" dxfId="3" priority="636">
+      <formula>AND(AK11&gt;0,AK11&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="637" operator="greaterThan">
+      <formula>AJ11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK12">
+    <cfRule type="expression" dxfId="3" priority="642">
+      <formula>AND(AK12&gt;0,AK12&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="643" operator="greaterThan">
+      <formula>AJ12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="expression" dxfId="3" priority="648">
+      <formula>AND(AK13&gt;0,AK13&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="649" operator="greaterThan">
+      <formula>AJ13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="expression" dxfId="3" priority="654">
+      <formula>AND(AK14&gt;0,AK14&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="655" operator="greaterThan">
+      <formula>AJ14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK15">
+    <cfRule type="cellIs" dxfId="1" priority="660" operator="greaterThan">
+      <formula>AJ15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK20">
+    <cfRule type="expression" dxfId="3" priority="665">
+      <formula>AND(AK20&gt;0,AK20&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="666" operator="greaterThan">
+      <formula>AJ20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK22">
+    <cfRule type="cellIs" dxfId="1" priority="671" operator="greaterThan">
+      <formula>AJ22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK24">
+    <cfRule type="expression" dxfId="3" priority="676">
+      <formula>AND(AK24&gt;0,AK24&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="677" operator="greaterThan">
+      <formula>AJ24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK31">
+    <cfRule type="expression" dxfId="3" priority="682">
+      <formula>AND(AK31&gt;0,AK31&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="683" operator="greaterThan">
+      <formula>AJ31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK33">
+    <cfRule type="cellIs" dxfId="1" priority="688" operator="greaterThan">
+      <formula>AJ33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK35">
+    <cfRule type="cellIs" dxfId="1" priority="693" operator="greaterThan">
+      <formula>AJ35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK36">
+    <cfRule type="expression" dxfId="3" priority="698">
+      <formula>AND(AK36&gt;0,AK36&lt;3000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="699" operator="greaterThan">
+      <formula>AJ36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="expression" dxfId="3" priority="618">
+      <formula>AND(AK8&gt;0,AK8&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="619" operator="greaterThan">
+      <formula>AJ8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK9">
+    <cfRule type="expression" dxfId="3" priority="624">
+      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="625" operator="greaterThan">
+      <formula>AJ9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="cellIs" dxfId="4" priority="633" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL11">
+    <cfRule type="cellIs" dxfId="4" priority="639" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL12">
+    <cfRule type="cellIs" dxfId="4" priority="645" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL13">
+    <cfRule type="cellIs" dxfId="4" priority="651" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL14">
+    <cfRule type="cellIs" dxfId="4" priority="657" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL15">
+    <cfRule type="cellIs" dxfId="4" priority="662" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL20">
+    <cfRule type="cellIs" dxfId="4" priority="668" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL22">
+    <cfRule type="cellIs" dxfId="4" priority="673" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL24">
+    <cfRule type="cellIs" dxfId="4" priority="679" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL31">
+    <cfRule type="cellIs" dxfId="4" priority="685" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL33">
+    <cfRule type="cellIs" dxfId="4" priority="690" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL35">
+    <cfRule type="cellIs" dxfId="4" priority="695" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL36">
+    <cfRule type="cellIs" dxfId="4" priority="701" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL8">
+    <cfRule type="cellIs" dxfId="4" priority="621" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL9">
+    <cfRule type="cellIs" dxfId="4" priority="627" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10">
+    <cfRule type="cellIs" dxfId="4" priority="632" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM11">
+    <cfRule type="cellIs" dxfId="4" priority="638" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12">
+    <cfRule type="cellIs" dxfId="4" priority="644" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM13">
+    <cfRule type="cellIs" dxfId="4" priority="650" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14">
+    <cfRule type="cellIs" dxfId="4" priority="656" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM15">
+    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM20">
+    <cfRule type="cellIs" dxfId="4" priority="667" operator="lessThanOrEqual">
+      <formula>J20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM22">
+    <cfRule type="cellIs" dxfId="4" priority="672" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM24">
+    <cfRule type="cellIs" dxfId="4" priority="678" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM31">
+    <cfRule type="cellIs" dxfId="4" priority="684" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM33">
+    <cfRule type="cellIs" dxfId="4" priority="689" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM35">
+    <cfRule type="cellIs" dxfId="4" priority="694" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM36">
+    <cfRule type="cellIs" dxfId="4" priority="700" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM8">
+    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM9">
+    <cfRule type="cellIs" dxfId="4" priority="626" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO13">
+    <cfRule type="cellIs" dxfId="1" priority="707" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="708" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO15">
+    <cfRule type="cellIs" dxfId="1" priority="713" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="714" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO17">
+    <cfRule type="cellIs" dxfId="1" priority="719" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="720" operator="lessThan">
       <formula>H17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE20">
-    <cfRule type="cellIs" dxfId="1" priority="530" operator="equal">
+  <conditionalFormatting sqref="AO22">
+    <cfRule type="cellIs" dxfId="1" priority="724" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="531" operator="lessThan">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
-    <cfRule type="cellIs" dxfId="1" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="725" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO23">
+    <cfRule type="cellIs" dxfId="1" priority="730" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="536" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE22">
-    <cfRule type="cellIs" dxfId="1" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="731" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO24">
+    <cfRule type="cellIs" dxfId="1" priority="736" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="541" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="1" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="737" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO25">
+    <cfRule type="cellIs" dxfId="1" priority="742" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="546" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
-    <cfRule type="cellIs" dxfId="1" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="743" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO27">
+    <cfRule type="cellIs" dxfId="1" priority="748" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="551" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="1" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="749" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO31">
+    <cfRule type="cellIs" dxfId="1" priority="754" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="556" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
-    <cfRule type="cellIs" dxfId="1" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="755" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO7">
+    <cfRule type="cellIs" dxfId="1" priority="702" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="561" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
-    <cfRule type="cellIs" dxfId="1" priority="565" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="566" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="1" priority="570" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="571" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
-    <cfRule type="cellIs" dxfId="1" priority="575" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="576" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="cellIs" dxfId="1" priority="580" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="581" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
-    <cfRule type="cellIs" dxfId="1" priority="585" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="586" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE33">
-    <cfRule type="cellIs" dxfId="1" priority="590" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="591" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
-    <cfRule type="cellIs" dxfId="1" priority="595" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="596" operator="lessThan">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE35">
-    <cfRule type="cellIs" dxfId="1" priority="600" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="601" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
-    <cfRule type="cellIs" dxfId="1" priority="605" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="606" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE37">
-    <cfRule type="cellIs" dxfId="1" priority="610" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="611" operator="lessThan">
-      <formula>H37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE7">
-    <cfRule type="cellIs" dxfId="1" priority="475" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="476" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="703" operator="lessThan">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE8">
-    <cfRule type="cellIs" dxfId="1" priority="480" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="481" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE9">
-    <cfRule type="cellIs" dxfId="1" priority="485" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="486" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF10">
-    <cfRule type="cellIs" dxfId="1" priority="492" operator="greaterThan">
-      <formula>AE10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11">
-    <cfRule type="cellIs" dxfId="1" priority="497" operator="greaterThan">
-      <formula>AE11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF12">
-    <cfRule type="cellIs" dxfId="1" priority="502" operator="greaterThan">
-      <formula>AE12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13">
-    <cfRule type="cellIs" dxfId="1" priority="507" operator="greaterThan">
-      <formula>AE13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="cellIs" dxfId="1" priority="512" operator="greaterThan">
-      <formula>AE14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="1" priority="517" operator="greaterThan">
-      <formula>AE15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF16">
-    <cfRule type="cellIs" dxfId="1" priority="522" operator="greaterThan">
-      <formula>AE16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF17">
-    <cfRule type="cellIs" dxfId="1" priority="527" operator="greaterThan">
-      <formula>AE17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF20">
-    <cfRule type="cellIs" dxfId="1" priority="532" operator="greaterThan">
-      <formula>AE20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
-    <cfRule type="cellIs" dxfId="1" priority="537" operator="greaterThan">
-      <formula>AE21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF22">
-    <cfRule type="cellIs" dxfId="1" priority="542" operator="greaterThan">
-      <formula>AE22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF23">
-    <cfRule type="cellIs" dxfId="1" priority="547" operator="greaterThan">
-      <formula>AE23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
-    <cfRule type="cellIs" dxfId="1" priority="552" operator="greaterThan">
-      <formula>AE24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="1" priority="557" operator="greaterThan">
-      <formula>AE25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
-    <cfRule type="cellIs" dxfId="1" priority="562" operator="greaterThan">
-      <formula>AE26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
-    <cfRule type="cellIs" dxfId="1" priority="567" operator="greaterThan">
-      <formula>AE27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
-    <cfRule type="cellIs" dxfId="1" priority="572" operator="greaterThan">
-      <formula>AE28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
-    <cfRule type="cellIs" dxfId="1" priority="577" operator="greaterThan">
-      <formula>AE30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
-    <cfRule type="cellIs" dxfId="1" priority="582" operator="greaterThan">
-      <formula>AE31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF32">
-    <cfRule type="cellIs" dxfId="1" priority="587" operator="greaterThan">
-      <formula>AE32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF33">
-    <cfRule type="cellIs" dxfId="1" priority="592" operator="greaterThan">
-      <formula>AE33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
-    <cfRule type="cellIs" dxfId="1" priority="597" operator="greaterThan">
-      <formula>AE34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF35">
-    <cfRule type="cellIs" dxfId="1" priority="602" operator="greaterThan">
-      <formula>AE35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF36">
-    <cfRule type="cellIs" dxfId="1" priority="607" operator="greaterThan">
-      <formula>AE36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF37">
-    <cfRule type="cellIs" dxfId="1" priority="612" operator="greaterThan">
-      <formula>AE37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7">
-    <cfRule type="cellIs" dxfId="1" priority="477" operator="greaterThan">
-      <formula>AE7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF8">
-    <cfRule type="cellIs" dxfId="1" priority="482" operator="greaterThan">
-      <formula>AE8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9">
-    <cfRule type="cellIs" dxfId="1" priority="487" operator="greaterThan">
-      <formula>AE9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
-    <cfRule type="cellIs" dxfId="4" priority="494" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG11">
-    <cfRule type="cellIs" dxfId="4" priority="499" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG12">
-    <cfRule type="cellIs" dxfId="4" priority="504" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG13">
-    <cfRule type="cellIs" dxfId="4" priority="509" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AP13">
+    <cfRule type="expression" dxfId="3" priority="709">
+      <formula>AND(AP13&gt;0,AP13&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="710" operator="greaterThan">
+      <formula>AO13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP15">
+    <cfRule type="expression" dxfId="3" priority="715">
+      <formula>AND(AP15&gt;0,AP15&lt;25)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="716" operator="greaterThan">
+      <formula>AO15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP17">
+    <cfRule type="cellIs" dxfId="1" priority="721" operator="greaterThan">
+      <formula>AO17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP22">
+    <cfRule type="expression" dxfId="3" priority="726">
+      <formula>AND(AP22&gt;0,AP22&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="727" operator="greaterThan">
+      <formula>AO22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP23">
+    <cfRule type="expression" dxfId="3" priority="732">
+      <formula>AND(AP23&gt;0,AP23&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="733" operator="greaterThan">
+      <formula>AO23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP24">
+    <cfRule type="expression" dxfId="3" priority="738">
+      <formula>AND(AP24&gt;0,AP24&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="739" operator="greaterThan">
+      <formula>AO24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25">
+    <cfRule type="expression" dxfId="3" priority="744">
+      <formula>AND(AP25&gt;0,AP25&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="745" operator="greaterThan">
+      <formula>AO25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP27">
+    <cfRule type="expression" dxfId="3" priority="750">
+      <formula>AND(AP27&gt;0,AP27&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="751" operator="greaterThan">
+      <formula>AO27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP31">
+    <cfRule type="expression" dxfId="3" priority="756">
+      <formula>AND(AP31&gt;0,AP31&lt;18)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="757" operator="greaterThan">
+      <formula>AO31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP7">
+    <cfRule type="cellIs" dxfId="1" priority="704" operator="greaterThan">
+      <formula>AO7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ13">
+    <cfRule type="cellIs" dxfId="4" priority="712" operator="lessThanOrEqual">
       <formula>I13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG14">
-    <cfRule type="cellIs" dxfId="4" priority="514" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="4" priority="519" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AQ15">
+    <cfRule type="cellIs" dxfId="4" priority="718" operator="lessThanOrEqual">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG16">
-    <cfRule type="cellIs" dxfId="4" priority="524" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG17">
-    <cfRule type="cellIs" dxfId="4" priority="529" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AQ17">
+    <cfRule type="cellIs" dxfId="4" priority="723" operator="lessThanOrEqual">
       <formula>I17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
-    <cfRule type="cellIs" dxfId="4" priority="534" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="cellIs" dxfId="4" priority="539" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG22">
-    <cfRule type="cellIs" dxfId="4" priority="544" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AQ22">
+    <cfRule type="cellIs" dxfId="4" priority="729" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG23">
-    <cfRule type="cellIs" dxfId="4" priority="549" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AQ23">
+    <cfRule type="cellIs" dxfId="4" priority="735" operator="lessThanOrEqual">
       <formula>I23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
-    <cfRule type="cellIs" dxfId="4" priority="554" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="cellIs" dxfId="4" priority="741" operator="lessThanOrEqual">
       <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG25">
-    <cfRule type="cellIs" dxfId="4" priority="559" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="4" priority="747" operator="lessThanOrEqual">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG26">
-    <cfRule type="cellIs" dxfId="4" priority="564" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
-    <cfRule type="cellIs" dxfId="4" priority="569" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="cellIs" dxfId="4" priority="753" operator="lessThanOrEqual">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG28">
-    <cfRule type="cellIs" dxfId="4" priority="574" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
-    <cfRule type="cellIs" dxfId="4" priority="579" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
-    <cfRule type="cellIs" dxfId="4" priority="584" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AQ31">
+    <cfRule type="cellIs" dxfId="4" priority="759" operator="lessThanOrEqual">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG32">
-    <cfRule type="cellIs" dxfId="4" priority="589" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
-    <cfRule type="cellIs" dxfId="4" priority="594" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
-    <cfRule type="cellIs" dxfId="4" priority="599" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG35">
-    <cfRule type="cellIs" dxfId="4" priority="604" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36">
-    <cfRule type="cellIs" dxfId="4" priority="609" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG37">
-    <cfRule type="cellIs" dxfId="4" priority="614" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG7">
-    <cfRule type="cellIs" dxfId="4" priority="479" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AQ7">
+    <cfRule type="cellIs" dxfId="4" priority="706" operator="lessThanOrEqual">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="4" priority="484" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG9">
-    <cfRule type="cellIs" dxfId="4" priority="489" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH10">
-    <cfRule type="cellIs" dxfId="4" priority="493" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH11">
-    <cfRule type="cellIs" dxfId="4" priority="498" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH12">
-    <cfRule type="cellIs" dxfId="4" priority="503" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH13">
-    <cfRule type="cellIs" dxfId="4" priority="508" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AR13">
+    <cfRule type="cellIs" dxfId="4" priority="711" operator="lessThanOrEqual">
       <formula>J13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
-    <cfRule type="cellIs" dxfId="4" priority="513" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="4" priority="518" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AR15">
+    <cfRule type="cellIs" dxfId="4" priority="717" operator="lessThanOrEqual">
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH16">
-    <cfRule type="cellIs" dxfId="4" priority="523" operator="lessThanOrEqual">
-      <formula>J16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH17">
-    <cfRule type="cellIs" dxfId="4" priority="528" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AR17">
+    <cfRule type="cellIs" dxfId="4" priority="722" operator="lessThanOrEqual">
       <formula>J17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
-    <cfRule type="cellIs" dxfId="4" priority="533" operator="lessThanOrEqual">
-      <formula>J20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH21">
-    <cfRule type="cellIs" dxfId="4" priority="538" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
-    <cfRule type="cellIs" dxfId="4" priority="543" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AR22">
+    <cfRule type="cellIs" dxfId="4" priority="728" operator="lessThanOrEqual">
       <formula>J22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH23">
-    <cfRule type="cellIs" dxfId="4" priority="548" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AR23">
+    <cfRule type="cellIs" dxfId="4" priority="734" operator="lessThanOrEqual">
       <formula>J23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH24">
-    <cfRule type="cellIs" dxfId="4" priority="553" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AR24">
+    <cfRule type="cellIs" dxfId="4" priority="740" operator="lessThanOrEqual">
       <formula>J24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH25">
-    <cfRule type="cellIs" dxfId="4" priority="558" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AR25">
+    <cfRule type="cellIs" dxfId="4" priority="746" operator="lessThanOrEqual">
       <formula>J25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH26">
-    <cfRule type="cellIs" dxfId="4" priority="563" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH27">
-    <cfRule type="cellIs" dxfId="4" priority="568" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AR27">
+    <cfRule type="cellIs" dxfId="4" priority="752" operator="lessThanOrEqual">
       <formula>J27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH28">
-    <cfRule type="cellIs" dxfId="4" priority="573" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH30">
-    <cfRule type="cellIs" dxfId="4" priority="578" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31">
-    <cfRule type="cellIs" dxfId="4" priority="583" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AR31">
+    <cfRule type="cellIs" dxfId="4" priority="758" operator="lessThanOrEqual">
       <formula>J31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH32">
-    <cfRule type="cellIs" dxfId="4" priority="588" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH33">
-    <cfRule type="cellIs" dxfId="4" priority="593" operator="lessThanOrEqual">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34">
-    <cfRule type="cellIs" dxfId="4" priority="598" operator="lessThanOrEqual">
-      <formula>J34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH35">
-    <cfRule type="cellIs" dxfId="4" priority="603" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="cellIs" dxfId="4" priority="608" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH37">
-    <cfRule type="cellIs" dxfId="4" priority="613" operator="lessThanOrEqual">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
-    <cfRule type="cellIs" dxfId="4" priority="478" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH8">
-    <cfRule type="cellIs" dxfId="4" priority="483" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH9">
-    <cfRule type="cellIs" dxfId="4" priority="488" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ10">
-    <cfRule type="cellIs" dxfId="1" priority="627" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="628" operator="lessThan">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ11">
-    <cfRule type="cellIs" dxfId="1" priority="633" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="634" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ12">
-    <cfRule type="cellIs" dxfId="1" priority="639" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="640" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13">
-    <cfRule type="cellIs" dxfId="1" priority="645" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="646" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ14">
-    <cfRule type="cellIs" dxfId="1" priority="651" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="652" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ15">
-    <cfRule type="cellIs" dxfId="1" priority="657" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="658" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ20">
-    <cfRule type="cellIs" dxfId="1" priority="662" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="663" operator="lessThan">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ22">
-    <cfRule type="cellIs" dxfId="1" priority="668" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="669" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ31">
-    <cfRule type="cellIs" dxfId="1" priority="673" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="674" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ33">
-    <cfRule type="cellIs" dxfId="1" priority="679" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="680" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ35">
-    <cfRule type="cellIs" dxfId="1" priority="684" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="685" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ36">
-    <cfRule type="cellIs" dxfId="1" priority="689" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="690" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8">
-    <cfRule type="cellIs" dxfId="1" priority="615" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="616" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9">
-    <cfRule type="cellIs" dxfId="1" priority="621" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="622" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK10">
-    <cfRule type="expression" dxfId="3" priority="629">
-      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="630" operator="greaterThan">
-      <formula>AJ10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK11">
-    <cfRule type="expression" dxfId="3" priority="635">
-      <formula>AND(AK11&gt;0,AK11&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="636" operator="greaterThan">
-      <formula>AJ11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK12">
-    <cfRule type="expression" dxfId="3" priority="641">
-      <formula>AND(AK12&gt;0,AK12&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="642" operator="greaterThan">
-      <formula>AJ12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13">
-    <cfRule type="expression" dxfId="3" priority="647">
-      <formula>AND(AK13&gt;0,AK13&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="648" operator="greaterThan">
-      <formula>AJ13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14">
-    <cfRule type="expression" dxfId="3" priority="653">
-      <formula>AND(AK14&gt;0,AK14&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="654" operator="greaterThan">
-      <formula>AJ14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK15">
-    <cfRule type="cellIs" dxfId="1" priority="659" operator="greaterThan">
-      <formula>AJ15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK20">
-    <cfRule type="expression" dxfId="3" priority="664">
-      <formula>AND(AK20&gt;0,AK20&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="665" operator="greaterThan">
-      <formula>AJ20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK22">
-    <cfRule type="cellIs" dxfId="1" priority="670" operator="greaterThan">
-      <formula>AJ22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK31">
-    <cfRule type="expression" dxfId="3" priority="675">
-      <formula>AND(AK31&gt;0,AK31&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="676" operator="greaterThan">
-      <formula>AJ31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK33">
-    <cfRule type="cellIs" dxfId="1" priority="681" operator="greaterThan">
-      <formula>AJ33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK35">
-    <cfRule type="cellIs" dxfId="1" priority="686" operator="greaterThan">
-      <formula>AJ35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK36">
-    <cfRule type="expression" dxfId="3" priority="691">
-      <formula>AND(AK36&gt;0,AK36&lt;3000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="692" operator="greaterThan">
-      <formula>AJ36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK8">
-    <cfRule type="expression" dxfId="3" priority="617">
-      <formula>AND(AK8&gt;0,AK8&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="618" operator="greaterThan">
-      <formula>AJ8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK9">
-    <cfRule type="expression" dxfId="3" priority="623">
-      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="624" operator="greaterThan">
-      <formula>AJ9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL10">
-    <cfRule type="cellIs" dxfId="4" priority="632" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL11">
-    <cfRule type="cellIs" dxfId="4" priority="638" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL12">
-    <cfRule type="cellIs" dxfId="4" priority="644" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL13">
-    <cfRule type="cellIs" dxfId="4" priority="650" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14">
-    <cfRule type="cellIs" dxfId="4" priority="656" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL15">
-    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL20">
-    <cfRule type="cellIs" dxfId="4" priority="667" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL22">
-    <cfRule type="cellIs" dxfId="4" priority="672" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL31">
-    <cfRule type="cellIs" dxfId="4" priority="678" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL33">
-    <cfRule type="cellIs" dxfId="4" priority="683" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL35">
-    <cfRule type="cellIs" dxfId="4" priority="688" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL36">
-    <cfRule type="cellIs" dxfId="4" priority="694" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL8">
-    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL9">
-    <cfRule type="cellIs" dxfId="4" priority="626" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM10">
-    <cfRule type="cellIs" dxfId="4" priority="631" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM11">
-    <cfRule type="cellIs" dxfId="4" priority="637" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM12">
-    <cfRule type="cellIs" dxfId="4" priority="643" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM13">
-    <cfRule type="cellIs" dxfId="4" priority="649" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM14">
-    <cfRule type="cellIs" dxfId="4" priority="655" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM15">
-    <cfRule type="cellIs" dxfId="4" priority="660" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM20">
-    <cfRule type="cellIs" dxfId="4" priority="666" operator="lessThanOrEqual">
-      <formula>J20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM22">
-    <cfRule type="cellIs" dxfId="4" priority="671" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM31">
-    <cfRule type="cellIs" dxfId="4" priority="677" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM33">
-    <cfRule type="cellIs" dxfId="4" priority="682" operator="lessThanOrEqual">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM35">
-    <cfRule type="cellIs" dxfId="4" priority="687" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM36">
-    <cfRule type="cellIs" dxfId="4" priority="693" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM8">
-    <cfRule type="cellIs" dxfId="4" priority="619" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM9">
-    <cfRule type="cellIs" dxfId="4" priority="625" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO13">
-    <cfRule type="cellIs" dxfId="1" priority="700" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="701" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO15">
-    <cfRule type="cellIs" dxfId="1" priority="706" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="707" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO17">
-    <cfRule type="cellIs" dxfId="1" priority="712" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="713" operator="lessThan">
-      <formula>H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO22">
-    <cfRule type="cellIs" dxfId="1" priority="717" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="718" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO23">
-    <cfRule type="cellIs" dxfId="1" priority="723" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="724" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO24">
-    <cfRule type="cellIs" dxfId="1" priority="729" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="730" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO25">
-    <cfRule type="cellIs" dxfId="1" priority="735" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="736" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO27">
-    <cfRule type="cellIs" dxfId="1" priority="741" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="742" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO31">
-    <cfRule type="cellIs" dxfId="1" priority="747" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="748" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO7">
-    <cfRule type="cellIs" dxfId="1" priority="695" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="696" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP13">
-    <cfRule type="expression" dxfId="3" priority="702">
-      <formula>AND(AP13&gt;0,AP13&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="703" operator="greaterThan">
-      <formula>AO13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP15">
-    <cfRule type="expression" dxfId="3" priority="708">
-      <formula>AND(AP15&gt;0,AP15&lt;25)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="709" operator="greaterThan">
-      <formula>AO15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP17">
-    <cfRule type="cellIs" dxfId="1" priority="714" operator="greaterThan">
-      <formula>AO17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP22">
-    <cfRule type="expression" dxfId="3" priority="719">
-      <formula>AND(AP22&gt;0,AP22&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="720" operator="greaterThan">
-      <formula>AO22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP23">
-    <cfRule type="expression" dxfId="3" priority="725">
-      <formula>AND(AP23&gt;0,AP23&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="726" operator="greaterThan">
-      <formula>AO23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="3" priority="731">
-      <formula>AND(AP24&gt;0,AP24&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="732" operator="greaterThan">
-      <formula>AO24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP25">
-    <cfRule type="expression" dxfId="3" priority="737">
-      <formula>AND(AP25&gt;0,AP25&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="738" operator="greaterThan">
-      <formula>AO25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP27">
-    <cfRule type="expression" dxfId="3" priority="743">
-      <formula>AND(AP27&gt;0,AP27&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="744" operator="greaterThan">
-      <formula>AO27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP31">
-    <cfRule type="expression" dxfId="3" priority="749">
-      <formula>AND(AP31&gt;0,AP31&lt;3000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="750" operator="greaterThan">
-      <formula>AO31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP7">
-    <cfRule type="cellIs" dxfId="1" priority="697" operator="greaterThan">
-      <formula>AO7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ13">
+  <conditionalFormatting sqref="AR7">
     <cfRule type="cellIs" dxfId="4" priority="705" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ15">
-    <cfRule type="cellIs" dxfId="4" priority="711" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ17">
-    <cfRule type="cellIs" dxfId="4" priority="716" operator="lessThanOrEqual">
-      <formula>I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ22">
-    <cfRule type="cellIs" dxfId="4" priority="722" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ23">
-    <cfRule type="cellIs" dxfId="4" priority="728" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
-    <cfRule type="cellIs" dxfId="4" priority="734" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
-    <cfRule type="cellIs" dxfId="4" priority="740" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
-    <cfRule type="cellIs" dxfId="4" priority="746" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ31">
-    <cfRule type="cellIs" dxfId="4" priority="752" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ7">
-    <cfRule type="cellIs" dxfId="4" priority="699" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR13">
-    <cfRule type="cellIs" dxfId="4" priority="704" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR15">
-    <cfRule type="cellIs" dxfId="4" priority="710" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR17">
-    <cfRule type="cellIs" dxfId="4" priority="715" operator="lessThanOrEqual">
-      <formula>J17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR22">
-    <cfRule type="cellIs" dxfId="4" priority="721" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR23">
-    <cfRule type="cellIs" dxfId="4" priority="727" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR24">
-    <cfRule type="cellIs" dxfId="4" priority="733" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
-    <cfRule type="cellIs" dxfId="4" priority="739" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
-    <cfRule type="cellIs" dxfId="4" priority="745" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR31">
-    <cfRule type="cellIs" dxfId="4" priority="751" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR7">
-    <cfRule type="cellIs" dxfId="4" priority="698" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT16">
-    <cfRule type="cellIs" dxfId="1" priority="759" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="760" operator="lessThan">
-      <formula>H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT34">
-    <cfRule type="cellIs" dxfId="1" priority="764" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="765" operator="lessThan">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT7">
-    <cfRule type="cellIs" dxfId="1" priority="753" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="754" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU16">
-    <cfRule type="cellIs" dxfId="1" priority="761" operator="greaterThan">
-      <formula>AT16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU34">
-    <cfRule type="cellIs" dxfId="1" priority="766" operator="greaterThan">
-      <formula>AT34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU7">
-    <cfRule type="expression" dxfId="3" priority="755">
-      <formula>AND(AU7&gt;0,AU7&lt;1800)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="756" operator="greaterThan">
-      <formula>AT7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV16">
-    <cfRule type="cellIs" dxfId="4" priority="763" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV34">
-    <cfRule type="cellIs" dxfId="4" priority="768" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV7">
-    <cfRule type="cellIs" dxfId="4" priority="758" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW16">
-    <cfRule type="cellIs" dxfId="4" priority="762" operator="lessThanOrEqual">
-      <formula>J16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW34">
-    <cfRule type="cellIs" dxfId="4" priority="767" operator="lessThanOrEqual">
-      <formula>J34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW7">
-    <cfRule type="cellIs" dxfId="4" priority="757" operator="lessThanOrEqual">
       <formula>J7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12964,106 +12923,106 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U16">
-    <cfRule type="cellIs" dxfId="1" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="342" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="342" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="343" operator="lessThan">
       <formula>H16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20">
-    <cfRule type="cellIs" dxfId="1" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="347" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="347" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="348" operator="lessThan">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22">
-    <cfRule type="cellIs" dxfId="1" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="353" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="353" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="354" operator="lessThan">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="1" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="359" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="359" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="360" operator="lessThan">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24">
-    <cfRule type="cellIs" dxfId="1" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="365" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="365" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="366" operator="lessThan">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25">
-    <cfRule type="cellIs" dxfId="1" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="371" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="371" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="372" operator="lessThan">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="1" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="377" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="377" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="378" operator="lessThan">
       <formula>H26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="1" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="383" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="383" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="384" operator="lessThan">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="1" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="389" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="389" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="390" operator="lessThan">
       <formula>H28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31">
-    <cfRule type="cellIs" dxfId="1" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="395" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="395" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="396" operator="lessThan">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="1" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="401" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="401" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="402" operator="lessThan">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U33">
-    <cfRule type="cellIs" dxfId="1" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="407" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="407" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="408" operator="lessThan">
       <formula>H33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U35">
-    <cfRule type="cellIs" dxfId="1" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="412" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="412" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="413" operator="lessThan">
       <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13132,102 +13091,105 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="1" priority="338" operator="greaterThan">
+    <cfRule type="expression" dxfId="3" priority="338">
+      <formula>AND(V15&gt;0,V15&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="339" operator="greaterThan">
       <formula>U15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="1" priority="343" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="344" operator="greaterThan">
       <formula>U16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="expression" dxfId="3" priority="348">
+    <cfRule type="expression" dxfId="3" priority="349">
       <formula>AND(V20&gt;0,V20&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="349" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="350" operator="greaterThan">
       <formula>U20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="expression" dxfId="3" priority="354">
+    <cfRule type="expression" dxfId="3" priority="355">
       <formula>AND(V22&gt;0,V22&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="355" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="356" operator="greaterThan">
       <formula>U22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="expression" dxfId="3" priority="360">
+    <cfRule type="expression" dxfId="3" priority="361">
       <formula>AND(V23&gt;0,V23&lt;15000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="361" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="362" operator="greaterThan">
       <formula>U23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="expression" dxfId="3" priority="366">
+    <cfRule type="expression" dxfId="3" priority="367">
       <formula>AND(V24&gt;0,V24&lt;15000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="367" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="368" operator="greaterThan">
       <formula>U24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25">
-    <cfRule type="expression" dxfId="3" priority="372">
+    <cfRule type="expression" dxfId="3" priority="373">
       <formula>AND(V25&gt;0,V25&lt;15000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="373" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="374" operator="greaterThan">
       <formula>U25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V26">
-    <cfRule type="expression" dxfId="3" priority="378">
+    <cfRule type="expression" dxfId="3" priority="379">
       <formula>AND(V26&gt;0,V26&lt;15000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="379" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="380" operator="greaterThan">
       <formula>U26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27">
-    <cfRule type="expression" dxfId="3" priority="384">
+    <cfRule type="expression" dxfId="3" priority="385">
       <formula>AND(V27&gt;0,V27&lt;15000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="385" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="386" operator="greaterThan">
       <formula>U27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28">
-    <cfRule type="expression" dxfId="3" priority="390">
+    <cfRule type="expression" dxfId="3" priority="391">
       <formula>AND(V28&gt;0,V28&lt;3000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="391" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="392" operator="greaterThan">
       <formula>U28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31">
-    <cfRule type="expression" dxfId="3" priority="396">
+    <cfRule type="expression" dxfId="3" priority="397">
       <formula>AND(V31&gt;0,V31&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="397" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="398" operator="greaterThan">
       <formula>U31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="expression" dxfId="3" priority="402">
+    <cfRule type="expression" dxfId="3" priority="403">
       <formula>AND(V32&gt;0,V32&lt;5000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="403" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="404" operator="greaterThan">
       <formula>U32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V33">
-    <cfRule type="cellIs" dxfId="1" priority="408" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="409" operator="greaterThan">
       <formula>U33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="1" priority="413" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="414" operator="greaterThan">
       <formula>U35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13278,72 +13240,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="4" priority="340" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="341" operator="lessThanOrEqual">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="cellIs" dxfId="4" priority="345" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="346" operator="lessThanOrEqual">
       <formula>I16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20">
-    <cfRule type="cellIs" dxfId="4" priority="351" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="352" operator="lessThanOrEqual">
       <formula>I20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22">
-    <cfRule type="cellIs" dxfId="4" priority="357" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="358" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="4" priority="363" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="364" operator="lessThanOrEqual">
       <formula>I23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="4" priority="369" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="370" operator="lessThanOrEqual">
       <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="4" priority="375" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="376" operator="lessThanOrEqual">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="4" priority="381" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="382" operator="lessThanOrEqual">
       <formula>I26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27">
-    <cfRule type="cellIs" dxfId="4" priority="387" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="388" operator="lessThanOrEqual">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28">
-    <cfRule type="cellIs" dxfId="4" priority="393" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="394" operator="lessThanOrEqual">
       <formula>I28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="cellIs" dxfId="4" priority="399" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="400" operator="lessThanOrEqual">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="4" priority="405" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="406" operator="lessThanOrEqual">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W33">
-    <cfRule type="cellIs" dxfId="4" priority="410" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="411" operator="lessThanOrEqual">
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="cellIs" dxfId="4" priority="415" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="416" operator="lessThanOrEqual">
       <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13388,72 +13350,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="4" priority="339" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="340" operator="lessThanOrEqual">
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="cellIs" dxfId="4" priority="344" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="345" operator="lessThanOrEqual">
       <formula>J16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20">
-    <cfRule type="cellIs" dxfId="4" priority="350" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="351" operator="lessThanOrEqual">
       <formula>J20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22">
-    <cfRule type="cellIs" dxfId="4" priority="356" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="357" operator="lessThanOrEqual">
       <formula>J22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23">
-    <cfRule type="cellIs" dxfId="4" priority="362" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="363" operator="lessThanOrEqual">
       <formula>J23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="4" priority="368" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="369" operator="lessThanOrEqual">
       <formula>J24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="4" priority="374" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="375" operator="lessThanOrEqual">
       <formula>J25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="4" priority="380" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="381" operator="lessThanOrEqual">
       <formula>J26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="4" priority="386" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="387" operator="lessThanOrEqual">
       <formula>J27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="4" priority="392" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="393" operator="lessThanOrEqual">
       <formula>J28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="4" priority="398" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="399" operator="lessThanOrEqual">
       <formula>J31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="4" priority="404" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="405" operator="lessThanOrEqual">
       <formula>J32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33">
-    <cfRule type="cellIs" dxfId="4" priority="409" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="410" operator="lessThanOrEqual">
       <formula>J33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="cellIs" dxfId="4" priority="414" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="415" operator="lessThanOrEqual">
       <formula>J35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13473,82 +13435,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10">
-    <cfRule type="cellIs" dxfId="1" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="429" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="429" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="430" operator="lessThan">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="cellIs" dxfId="1" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="435" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="435" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="436" operator="lessThan">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12">
-    <cfRule type="cellIs" dxfId="1" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="441" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="441" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="442" operator="lessThan">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="cellIs" dxfId="1" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="447" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="447" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="448" operator="lessThan">
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15">
-    <cfRule type="cellIs" dxfId="1" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="453" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="453" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="454" operator="lessThan">
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22">
-    <cfRule type="cellIs" dxfId="1" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="458" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="458" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="459" operator="lessThan">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25">
-    <cfRule type="cellIs" dxfId="1" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="464" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="464" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="465" operator="lessThan">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z27">
-    <cfRule type="cellIs" dxfId="1" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="470" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="470" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="471" operator="lessThan">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8">
-    <cfRule type="cellIs" dxfId="1" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="417" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="417" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="418" operator="lessThan">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9">
-    <cfRule type="cellIs" dxfId="1" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="423" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="423" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="424" operator="lessThan">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
